--- a/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML.xlsx
@@ -505,16 +505,16 @@
         <v>10.27148578895017</v>
       </c>
       <c r="G2" t="n">
-        <v>140.5332489013672</v>
+        <v>142.8804626464844</v>
       </c>
       <c r="H2" t="n">
-        <v>31.6042366027832</v>
+        <v>32.14314270019531</v>
       </c>
       <c r="I2" t="n">
-        <v>502.8800048828125</v>
+        <v>505.0473022460938</v>
       </c>
       <c r="J2" t="n">
-        <v>86.56943511962891</v>
+        <v>84.26080322265625</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>10.49540628405087</v>
       </c>
       <c r="G3" t="n">
-        <v>146.2063598632812</v>
+        <v>147.5453338623047</v>
       </c>
       <c r="H3" t="n">
-        <v>31.3714656829834</v>
+        <v>32.31061172485352</v>
       </c>
       <c r="I3" t="n">
-        <v>521.7821655273438</v>
+        <v>519.9776000976562</v>
       </c>
       <c r="J3" t="n">
-        <v>91.53156280517578</v>
+        <v>102.3788757324219</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>11.11292799977388</v>
       </c>
       <c r="G4" t="n">
-        <v>151.6212921142578</v>
+        <v>150.9543914794922</v>
       </c>
       <c r="H4" t="n">
-        <v>31.57857704162598</v>
+        <v>33.08547592163086</v>
       </c>
       <c r="I4" t="n">
-        <v>541.8428955078125</v>
+        <v>544.2020874023438</v>
       </c>
       <c r="J4" t="n">
-        <v>112.5113296508789</v>
+        <v>107.5343170166016</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>11.33579528302992</v>
       </c>
       <c r="G5" t="n">
-        <v>155.5661468505859</v>
+        <v>156.8717193603516</v>
       </c>
       <c r="H5" t="n">
-        <v>36.48318862915039</v>
+        <v>38.1383056640625</v>
       </c>
       <c r="I5" t="n">
-        <v>553.3155517578125</v>
+        <v>553.709716796875</v>
       </c>
       <c r="J5" t="n">
-        <v>123.7189025878906</v>
+        <v>119.4354705810547</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>11.53221857575777</v>
       </c>
       <c r="G6" t="n">
-        <v>162.4016571044922</v>
+        <v>161.7545776367188</v>
       </c>
       <c r="H6" t="n">
-        <v>42.85956573486328</v>
+        <v>41.96193313598633</v>
       </c>
       <c r="I6" t="n">
-        <v>528.9210815429688</v>
+        <v>535.7727661132812</v>
       </c>
       <c r="J6" t="n">
-        <v>152.3361511230469</v>
+        <v>150.2334289550781</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>11.73836346032553</v>
       </c>
       <c r="G7" t="n">
-        <v>127.9208602905273</v>
+        <v>128.0693054199219</v>
       </c>
       <c r="H7" t="n">
-        <v>35.40781784057617</v>
+        <v>33.70592498779297</v>
       </c>
       <c r="I7" t="n">
-        <v>416.7857666015625</v>
+        <v>429.8053283691406</v>
       </c>
       <c r="J7" t="n">
-        <v>93.30745697021484</v>
+        <v>87.16747283935547</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>12.47588443056982</v>
       </c>
       <c r="G8" t="n">
-        <v>133.2911529541016</v>
+        <v>135.1362762451172</v>
       </c>
       <c r="H8" t="n">
-        <v>32.23892211914062</v>
+        <v>34.33587265014648</v>
       </c>
       <c r="I8" t="n">
-        <v>465.5369262695312</v>
+        <v>467.0935363769531</v>
       </c>
       <c r="J8" t="n">
-        <v>88.49763488769531</v>
+        <v>90.19690704345703</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>13.31360035996819</v>
       </c>
       <c r="G9" t="n">
-        <v>141.01416015625</v>
+        <v>140.7048187255859</v>
       </c>
       <c r="H9" t="n">
-        <v>31.5971622467041</v>
+        <v>32.55530166625977</v>
       </c>
       <c r="I9" t="n">
-        <v>490.1704711914062</v>
+        <v>490.3887634277344</v>
       </c>
       <c r="J9" t="n">
-        <v>84.47855377197266</v>
+        <v>83.94367218017578</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>14.04586286313179</v>
       </c>
       <c r="G10" t="n">
-        <v>145.1638336181641</v>
+        <v>144.6791229248047</v>
       </c>
       <c r="H10" t="n">
-        <v>27.86515998840332</v>
+        <v>26.5163745880127</v>
       </c>
       <c r="I10" t="n">
-        <v>507.4932250976562</v>
+        <v>510.056396484375</v>
       </c>
       <c r="J10" t="n">
-        <v>78.78611755371094</v>
+        <v>78.10751342773438</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>14.78596965177877</v>
       </c>
       <c r="G11" t="n">
-        <v>150.4430847167969</v>
+        <v>149.5959777832031</v>
       </c>
       <c r="H11" t="n">
-        <v>26.61432647705078</v>
+        <v>27.48994064331055</v>
       </c>
       <c r="I11" t="n">
-        <v>516.5221557617188</v>
+        <v>520.3779296875</v>
       </c>
       <c r="J11" t="n">
-        <v>92.33889770507812</v>
+        <v>90.37418365478516</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>14.60750023008277</v>
       </c>
       <c r="G12" t="n">
-        <v>154.8320617675781</v>
+        <v>155.1700897216797</v>
       </c>
       <c r="H12" t="n">
-        <v>29.4629955291748</v>
+        <v>29.0160961151123</v>
       </c>
       <c r="I12" t="n">
-        <v>506.739013671875</v>
+        <v>502.6429138183594</v>
       </c>
       <c r="J12" t="n">
-        <v>95.49766540527344</v>
+        <v>102.3632125854492</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>13.93632017907879</v>
       </c>
       <c r="G13" t="n">
-        <v>170.3138427734375</v>
+        <v>170.6553344726562</v>
       </c>
       <c r="H13" t="n">
-        <v>33.39278030395508</v>
+        <v>32.18177795410156</v>
       </c>
       <c r="I13" t="n">
-        <v>481.9498291015625</v>
+        <v>483.3847961425781</v>
       </c>
       <c r="J13" t="n">
-        <v>137.9275665283203</v>
+        <v>128.67626953125</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>13.2060787967079</v>
       </c>
       <c r="G14" t="n">
-        <v>117.0631408691406</v>
+        <v>116.7173156738281</v>
       </c>
       <c r="H14" t="n">
-        <v>31.92207717895508</v>
+        <v>31.8255558013916</v>
       </c>
       <c r="I14" t="n">
-        <v>255.4125823974609</v>
+        <v>254.7527618408203</v>
       </c>
       <c r="J14" t="n">
-        <v>83.63051605224609</v>
+        <v>83.21837615966797</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>14.43724685121477</v>
       </c>
       <c r="G15" t="n">
-        <v>124.2992935180664</v>
+        <v>123.8658828735352</v>
       </c>
       <c r="H15" t="n">
-        <v>37.03987884521484</v>
+        <v>36.62961578369141</v>
       </c>
       <c r="I15" t="n">
-        <v>294.7309265136719</v>
+        <v>295.86328125</v>
       </c>
       <c r="J15" t="n">
-        <v>85.53610229492188</v>
+        <v>86.25227355957031</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>15.77509757365795</v>
       </c>
       <c r="G16" t="n">
-        <v>128.8102264404297</v>
+        <v>128.9159088134766</v>
       </c>
       <c r="H16" t="n">
-        <v>36.25160598754883</v>
+        <v>34.73052215576172</v>
       </c>
       <c r="I16" t="n">
-        <v>351.9001159667969</v>
+        <v>348.5033569335938</v>
       </c>
       <c r="J16" t="n">
-        <v>94.40224456787109</v>
+        <v>95.79824829101562</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>17.01643502058164</v>
       </c>
       <c r="G17" t="n">
-        <v>137.5036315917969</v>
+        <v>138.2591552734375</v>
       </c>
       <c r="H17" t="n">
-        <v>36.01143264770508</v>
+        <v>35.63236236572266</v>
       </c>
       <c r="I17" t="n">
-        <v>422.8345031738281</v>
+        <v>424.6423950195312</v>
       </c>
       <c r="J17" t="n">
-        <v>102.8279876708984</v>
+        <v>102.8576812744141</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>17.57324774662381</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3657684326172</v>
+        <v>140.3032073974609</v>
       </c>
       <c r="H18" t="n">
-        <v>29.99698257446289</v>
+        <v>29.81174087524414</v>
       </c>
       <c r="I18" t="n">
-        <v>453.4910888671875</v>
+        <v>454.2892761230469</v>
       </c>
       <c r="J18" t="n">
-        <v>97.32173156738281</v>
+        <v>99.47294616699219</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>18.2282289394109</v>
       </c>
       <c r="G19" t="n">
-        <v>144.8411254882812</v>
+        <v>144.9179229736328</v>
       </c>
       <c r="H19" t="n">
-        <v>22.99314308166504</v>
+        <v>24.13729667663574</v>
       </c>
       <c r="I19" t="n">
-        <v>495.2444763183594</v>
+        <v>491.6285400390625</v>
       </c>
       <c r="J19" t="n">
-        <v>86.32498931884766</v>
+        <v>88.19241333007812</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>18.05168677518481</v>
       </c>
       <c r="G20" t="n">
-        <v>151.3220672607422</v>
+        <v>152.2935180664062</v>
       </c>
       <c r="H20" t="n">
-        <v>25.38350677490234</v>
+        <v>24.90175819396973</v>
       </c>
       <c r="I20" t="n">
-        <v>495.8152465820312</v>
+        <v>497.2941589355469</v>
       </c>
       <c r="J20" t="n">
-        <v>100.6157302856445</v>
+        <v>93.54551696777344</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>17.30316829702608</v>
       </c>
       <c r="G21" t="n">
-        <v>169.7555694580078</v>
+        <v>169.7773132324219</v>
       </c>
       <c r="H21" t="n">
-        <v>28.5236873626709</v>
+        <v>26.39823341369629</v>
       </c>
       <c r="I21" t="n">
-        <v>483.1077575683594</v>
+        <v>478.9127502441406</v>
       </c>
       <c r="J21" t="n">
-        <v>121.1484222412109</v>
+        <v>130.5850524902344</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>15.87142913305469</v>
       </c>
       <c r="G22" t="n">
-        <v>233.5515594482422</v>
+        <v>234.3558044433594</v>
       </c>
       <c r="H22" t="n">
-        <v>43.57487869262695</v>
+        <v>41.10518646240234</v>
       </c>
       <c r="I22" t="n">
-        <v>449.1123046875</v>
+        <v>446.4248352050781</v>
       </c>
       <c r="J22" t="n">
-        <v>177.4573516845703</v>
+        <v>170.0016784667969</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>16.2842163689804</v>
       </c>
       <c r="G23" t="n">
-        <v>115.8605575561523</v>
+        <v>116.4716033935547</v>
       </c>
       <c r="H23" t="n">
-        <v>35.21152496337891</v>
+        <v>35.94319915771484</v>
       </c>
       <c r="I23" t="n">
-        <v>207.4049987792969</v>
+        <v>206.6993255615234</v>
       </c>
       <c r="J23" t="n">
-        <v>95.30816650390625</v>
+        <v>91.93099212646484</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>17.99859633271077</v>
       </c>
       <c r="G24" t="n">
-        <v>121.4489974975586</v>
+        <v>121.291145324707</v>
       </c>
       <c r="H24" t="n">
-        <v>36.28131103515625</v>
+        <v>35.83256149291992</v>
       </c>
       <c r="I24" t="n">
-        <v>256.1204833984375</v>
+        <v>252.6391143798828</v>
       </c>
       <c r="J24" t="n">
-        <v>91.39031982421875</v>
+        <v>94.19733428955078</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>19.53665474474453</v>
       </c>
       <c r="G25" t="n">
-        <v>125.7404327392578</v>
+        <v>127.6668243408203</v>
       </c>
       <c r="H25" t="n">
-        <v>33.36998748779297</v>
+        <v>36.89981079101562</v>
       </c>
       <c r="I25" t="n">
-        <v>289.6951599121094</v>
+        <v>290.1314697265625</v>
       </c>
       <c r="J25" t="n">
-        <v>90.9896240234375</v>
+        <v>89.4581298828125</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>21.18080958029204</v>
       </c>
       <c r="G26" t="n">
-        <v>133.7445068359375</v>
+        <v>133.9181823730469</v>
       </c>
       <c r="H26" t="n">
-        <v>35.95676422119141</v>
+        <v>36.31747817993164</v>
       </c>
       <c r="I26" t="n">
-        <v>338.0440673828125</v>
+        <v>334.0249633789062</v>
       </c>
       <c r="J26" t="n">
-        <v>90.58865356445312</v>
+        <v>99.53156280517578</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>22.36133238808863</v>
       </c>
       <c r="G27" t="n">
-        <v>138.9653930664062</v>
+        <v>140.0730285644531</v>
       </c>
       <c r="H27" t="n">
-        <v>29.95430946350098</v>
+        <v>30.42644691467285</v>
       </c>
       <c r="I27" t="n">
-        <v>393.1442260742188</v>
+        <v>397.5252990722656</v>
       </c>
       <c r="J27" t="n">
-        <v>114.1809616088867</v>
+        <v>109.7086181640625</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>22.25528267810615</v>
       </c>
       <c r="G28" t="n">
-        <v>142.4730529785156</v>
+        <v>142.3007354736328</v>
       </c>
       <c r="H28" t="n">
-        <v>22.32204818725586</v>
+        <v>22.0538387298584</v>
       </c>
       <c r="I28" t="n">
-        <v>445.2800598144531</v>
+        <v>445.6835021972656</v>
       </c>
       <c r="J28" t="n">
-        <v>109.400032043457</v>
+        <v>107.9384384155273</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>22.11853696692908</v>
       </c>
       <c r="G29" t="n">
-        <v>152.7609710693359</v>
+        <v>152.0797729492188</v>
       </c>
       <c r="H29" t="n">
-        <v>22.96137428283691</v>
+        <v>22.72967720031738</v>
       </c>
       <c r="I29" t="n">
-        <v>477.9927062988281</v>
+        <v>475.8534851074219</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3666381835938</v>
+        <v>108.8017196655273</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>21.13587239531939</v>
       </c>
       <c r="G30" t="n">
-        <v>181.8912048339844</v>
+        <v>181.1639251708984</v>
       </c>
       <c r="H30" t="n">
-        <v>27.98550033569336</v>
+        <v>28.08621788024902</v>
       </c>
       <c r="I30" t="n">
-        <v>479.6531677246094</v>
+        <v>470.8873901367188</v>
       </c>
       <c r="J30" t="n">
-        <v>122.2161636352539</v>
+        <v>138.1964111328125</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>19.80061812897557</v>
       </c>
       <c r="G31" t="n">
-        <v>246.9253387451172</v>
+        <v>246.7310485839844</v>
       </c>
       <c r="H31" t="n">
-        <v>41.04867935180664</v>
+        <v>42.73271179199219</v>
       </c>
       <c r="I31" t="n">
-        <v>444.370361328125</v>
+        <v>444.4541625976562</v>
       </c>
       <c r="J31" t="n">
-        <v>179.7878875732422</v>
+        <v>185.6873474121094</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>20.55168297688286</v>
       </c>
       <c r="G32" t="n">
-        <v>114.1943511962891</v>
+        <v>114.985466003418</v>
       </c>
       <c r="H32" t="n">
-        <v>29.66370391845703</v>
+        <v>31.7579517364502</v>
       </c>
       <c r="I32" t="n">
-        <v>159.4123382568359</v>
+        <v>153.0612030029297</v>
       </c>
       <c r="J32" t="n">
-        <v>100.4605102539062</v>
+        <v>100.3491821289062</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>22.96934284445093</v>
       </c>
       <c r="G33" t="n">
-        <v>120.9783096313477</v>
+        <v>121.3505859375</v>
       </c>
       <c r="H33" t="n">
-        <v>35.98047256469727</v>
+        <v>36.63999176025391</v>
       </c>
       <c r="I33" t="n">
-        <v>213.4684295654297</v>
+        <v>211.6167755126953</v>
       </c>
       <c r="J33" t="n">
-        <v>104.9187545776367</v>
+        <v>101.7864990234375</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>24.40915250803127</v>
       </c>
       <c r="G34" t="n">
-        <v>125.7099380493164</v>
+        <v>126.8276596069336</v>
       </c>
       <c r="H34" t="n">
-        <v>36.31646728515625</v>
+        <v>36.69324493408203</v>
       </c>
       <c r="I34" t="n">
-        <v>262.8878479003906</v>
+        <v>265.167236328125</v>
       </c>
       <c r="J34" t="n">
-        <v>101.2973861694336</v>
+        <v>99.86502075195312</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>26.0811880993595</v>
       </c>
       <c r="G35" t="n">
-        <v>132.7925720214844</v>
+        <v>133.0792846679688</v>
       </c>
       <c r="H35" t="n">
-        <v>36.8427848815918</v>
+        <v>36.49098968505859</v>
       </c>
       <c r="I35" t="n">
-        <v>308.0265197753906</v>
+        <v>306.5359497070312</v>
       </c>
       <c r="J35" t="n">
-        <v>105.0192794799805</v>
+        <v>108.3628692626953</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>26.87614780904968</v>
       </c>
       <c r="G36" t="n">
-        <v>139.0648040771484</v>
+        <v>140.2834777832031</v>
       </c>
       <c r="H36" t="n">
-        <v>32.62709045410156</v>
+        <v>32.56547546386719</v>
       </c>
       <c r="I36" t="n">
-        <v>354.9306945800781</v>
+        <v>354.8982849121094</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2610549926758</v>
+        <v>113.9577102661133</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>27.16629873490772</v>
       </c>
       <c r="G37" t="n">
-        <v>142.6414642333984</v>
+        <v>144.0287780761719</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56729125976562</v>
+        <v>25.19291496276855</v>
       </c>
       <c r="I37" t="n">
-        <v>396.0415344238281</v>
+        <v>400.09228515625</v>
       </c>
       <c r="J37" t="n">
-        <v>136.0837097167969</v>
+        <v>129.1274719238281</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>27.25598473560972</v>
       </c>
       <c r="G38" t="n">
-        <v>154.3629455566406</v>
+        <v>154.6244964599609</v>
       </c>
       <c r="H38" t="n">
-        <v>23.73662757873535</v>
+        <v>22.57598304748535</v>
       </c>
       <c r="I38" t="n">
-        <v>436.6659240722656</v>
+        <v>439.4377136230469</v>
       </c>
       <c r="J38" t="n">
-        <v>134.9339141845703</v>
+        <v>129.8589935302734</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>26.04628332899345</v>
       </c>
       <c r="G39" t="n">
-        <v>187.7192077636719</v>
+        <v>186.9638671875</v>
       </c>
       <c r="H39" t="n">
-        <v>31.6436824798584</v>
+        <v>30.44893074035645</v>
       </c>
       <c r="I39" t="n">
-        <v>439.6993713378906</v>
+        <v>439.9128723144531</v>
       </c>
       <c r="J39" t="n">
-        <v>171.2151489257812</v>
+        <v>176.8063354492188</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>23.96978635149335</v>
       </c>
       <c r="G40" t="n">
-        <v>258.4585876464844</v>
+        <v>256.0289916992188</v>
       </c>
       <c r="H40" t="n">
-        <v>43.30208206176758</v>
+        <v>40.51065826416016</v>
       </c>
       <c r="I40" t="n">
-        <v>432.5579223632812</v>
+        <v>433.5440673828125</v>
       </c>
       <c r="J40" t="n">
-        <v>197.2715148925781</v>
+        <v>203.0678100585938</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>25.6116837653232</v>
       </c>
       <c r="G41" t="n">
-        <v>117.1572036743164</v>
+        <v>114.661994934082</v>
       </c>
       <c r="H41" t="n">
-        <v>34.91884613037109</v>
+        <v>29.29879760742188</v>
       </c>
       <c r="I41" t="n">
-        <v>101.3113708496094</v>
+        <v>104.7073745727539</v>
       </c>
       <c r="J41" t="n">
-        <v>105.3201904296875</v>
+        <v>107.8823776245117</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>28.41067839248494</v>
       </c>
       <c r="G42" t="n">
-        <v>121.2093200683594</v>
+        <v>119.9710006713867</v>
       </c>
       <c r="H42" t="n">
-        <v>35.28254699707031</v>
+        <v>32.90065383911133</v>
       </c>
       <c r="I42" t="n">
-        <v>148.6441802978516</v>
+        <v>146.2124786376953</v>
       </c>
       <c r="J42" t="n">
-        <v>115.8625869750977</v>
+        <v>112.5235290527344</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>30.68040031937237</v>
       </c>
       <c r="G43" t="n">
-        <v>128.1030120849609</v>
+        <v>126.0315856933594</v>
       </c>
       <c r="H43" t="n">
-        <v>38.15895080566406</v>
+        <v>36.15554428100586</v>
       </c>
       <c r="I43" t="n">
-        <v>214.6107940673828</v>
+        <v>214.6288757324219</v>
       </c>
       <c r="J43" t="n">
-        <v>118.5742645263672</v>
+        <v>118.7913436889648</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>32.34762367758118</v>
       </c>
       <c r="G44" t="n">
-        <v>133.7012023925781</v>
+        <v>134.6031799316406</v>
       </c>
       <c r="H44" t="n">
-        <v>37.6923828125</v>
+        <v>37.04384994506836</v>
       </c>
       <c r="I44" t="n">
-        <v>279.7858276367188</v>
+        <v>277.1092224121094</v>
       </c>
       <c r="J44" t="n">
-        <v>119.077522277832</v>
+        <v>120.1916885375977</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>33.26712421235609</v>
       </c>
       <c r="G45" t="n">
-        <v>141.1017303466797</v>
+        <v>142.17578125</v>
       </c>
       <c r="H45" t="n">
-        <v>33.32004165649414</v>
+        <v>34.82829666137695</v>
       </c>
       <c r="I45" t="n">
-        <v>324.1600646972656</v>
+        <v>326.1495971679688</v>
       </c>
       <c r="J45" t="n">
-        <v>123.8079376220703</v>
+        <v>123.6895065307617</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>33.39925272231932</v>
       </c>
       <c r="G46" t="n">
-        <v>148.6099548339844</v>
+        <v>150.2042541503906</v>
       </c>
       <c r="H46" t="n">
-        <v>26.70205879211426</v>
+        <v>29.46469879150391</v>
       </c>
       <c r="I46" t="n">
-        <v>371.6121215820312</v>
+        <v>373.58740234375</v>
       </c>
       <c r="J46" t="n">
-        <v>146.4331512451172</v>
+        <v>146.1094512939453</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>32.83385481517335</v>
       </c>
       <c r="G47" t="n">
-        <v>158.6004028320312</v>
+        <v>157.4096832275391</v>
       </c>
       <c r="H47" t="n">
-        <v>27.68056488037109</v>
+        <v>26.90229225158691</v>
       </c>
       <c r="I47" t="n">
-        <v>403.3045349121094</v>
+        <v>398.7059631347656</v>
       </c>
       <c r="J47" t="n">
-        <v>163.4591217041016</v>
+        <v>165.2471466064453</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>31.22587875804939</v>
       </c>
       <c r="G48" t="n">
-        <v>196.7827606201172</v>
+        <v>199.2266998291016</v>
       </c>
       <c r="H48" t="n">
-        <v>33.97626495361328</v>
+        <v>36.078369140625</v>
       </c>
       <c r="I48" t="n">
-        <v>417.8979797363281</v>
+        <v>422.9988403320312</v>
       </c>
       <c r="J48" t="n">
-        <v>191.2711334228516</v>
+        <v>183.7768402099609</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>28.00050845971687</v>
       </c>
       <c r="G49" t="n">
-        <v>265.0576171875</v>
+        <v>264.6051940917969</v>
       </c>
       <c r="H49" t="n">
-        <v>44.30284881591797</v>
+        <v>45.21309661865234</v>
       </c>
       <c r="I49" t="n">
-        <v>420.4049072265625</v>
+        <v>422.933837890625</v>
       </c>
       <c r="J49" t="n">
-        <v>218.4091033935547</v>
+        <v>206.9194793701172</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>32.75859992753161</v>
       </c>
       <c r="G50" t="n">
-        <v>119.0328674316406</v>
+        <v>118.913330078125</v>
       </c>
       <c r="H50" t="n">
-        <v>32.85251998901367</v>
+        <v>35.18188858032227</v>
       </c>
       <c r="I50" t="n">
-        <v>57.92562484741211</v>
+        <v>53.16790008544922</v>
       </c>
       <c r="J50" t="n">
-        <v>106.7273406982422</v>
+        <v>111.1792678833008</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>35.60454595063857</v>
       </c>
       <c r="G51" t="n">
-        <v>125.0112915039062</v>
+        <v>124.9077835083008</v>
       </c>
       <c r="H51" t="n">
-        <v>37.04553604125977</v>
+        <v>36.35508728027344</v>
       </c>
       <c r="I51" t="n">
-        <v>92.2818603515625</v>
+        <v>87.15781402587891</v>
       </c>
       <c r="J51" t="n">
-        <v>122.5761337280273</v>
+        <v>124.0592422485352</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>38.13811789539464</v>
       </c>
       <c r="G52" t="n">
-        <v>129.7406616210938</v>
+        <v>129.5819396972656</v>
       </c>
       <c r="H52" t="n">
-        <v>38.56708526611328</v>
+        <v>37.7817497253418</v>
       </c>
       <c r="I52" t="n">
-        <v>132.5335235595703</v>
+        <v>133.0933074951172</v>
       </c>
       <c r="J52" t="n">
-        <v>132.4614105224609</v>
+        <v>136.7314300537109</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>39.1380055059179</v>
       </c>
       <c r="G53" t="n">
-        <v>137.2830200195312</v>
+        <v>137.3786468505859</v>
       </c>
       <c r="H53" t="n">
-        <v>37.38027572631836</v>
+        <v>38.45075225830078</v>
       </c>
       <c r="I53" t="n">
-        <v>214.1496734619141</v>
+        <v>214.6918029785156</v>
       </c>
       <c r="J53" t="n">
-        <v>137.7845611572266</v>
+        <v>141.3419494628906</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>40.17007780104868</v>
       </c>
       <c r="G54" t="n">
-        <v>145.3065948486328</v>
+        <v>145.5761413574219</v>
       </c>
       <c r="H54" t="n">
-        <v>36.65341949462891</v>
+        <v>35.2869987487793</v>
       </c>
       <c r="I54" t="n">
-        <v>291.2326965332031</v>
+        <v>296.0212097167969</v>
       </c>
       <c r="J54" t="n">
-        <v>144.0903625488281</v>
+        <v>139.8495483398438</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>40.31777520333784</v>
       </c>
       <c r="G55" t="n">
-        <v>156.4150695800781</v>
+        <v>152.8242797851562</v>
       </c>
       <c r="H55" t="n">
-        <v>35.89742660522461</v>
+        <v>34.37796020507812</v>
       </c>
       <c r="I55" t="n">
-        <v>344.1335144042969</v>
+        <v>342.0743408203125</v>
       </c>
       <c r="J55" t="n">
-        <v>148.6371765136719</v>
+        <v>148.5781707763672</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>38.89328689858721</v>
       </c>
       <c r="G56" t="n">
-        <v>168.73828125</v>
+        <v>168.6741333007812</v>
       </c>
       <c r="H56" t="n">
-        <v>37.21220397949219</v>
+        <v>35.64198684692383</v>
       </c>
       <c r="I56" t="n">
-        <v>380.3355407714844</v>
+        <v>385.9133911132812</v>
       </c>
       <c r="J56" t="n">
-        <v>172.1407165527344</v>
+        <v>170.4989776611328</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>36.03490394546852</v>
       </c>
       <c r="G57" t="n">
-        <v>199.9050903320312</v>
+        <v>199.1276245117188</v>
       </c>
       <c r="H57" t="n">
-        <v>37.9974479675293</v>
+        <v>37.11589050292969</v>
       </c>
       <c r="I57" t="n">
-        <v>402.7809753417969</v>
+        <v>402.0811462402344</v>
       </c>
       <c r="J57" t="n">
-        <v>197.5469512939453</v>
+        <v>198.6816558837891</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>33.0417017672229</v>
       </c>
       <c r="G58" t="n">
-        <v>265.4825134277344</v>
+        <v>266.2444763183594</v>
       </c>
       <c r="H58" t="n">
-        <v>48.9182014465332</v>
+        <v>48.58882141113281</v>
       </c>
       <c r="I58" t="n">
-        <v>410.9821472167969</v>
+        <v>409.7958984375</v>
       </c>
       <c r="J58" t="n">
-        <v>217.8299255371094</v>
+        <v>220.9768371582031</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>43.98768298598323</v>
       </c>
       <c r="G59" t="n">
-        <v>131.9349365234375</v>
+        <v>131.2852630615234</v>
       </c>
       <c r="H59" t="n">
-        <v>42.30546188354492</v>
+        <v>41.43349838256836</v>
       </c>
       <c r="I59" t="n">
-        <v>24.24511528015137</v>
+        <v>21.03071212768555</v>
       </c>
       <c r="J59" t="n">
-        <v>122.2469482421875</v>
+        <v>117.896125793457</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>45.7006317110727</v>
       </c>
       <c r="G60" t="n">
-        <v>136.8954467773438</v>
+        <v>137.4062347412109</v>
       </c>
       <c r="H60" t="n">
-        <v>40.12746429443359</v>
+        <v>42.05660247802734</v>
       </c>
       <c r="I60" t="n">
-        <v>54.68921279907227</v>
+        <v>55.63461685180664</v>
       </c>
       <c r="J60" t="n">
-        <v>136.8984069824219</v>
+        <v>132.5423889160156</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>46.67965674781412</v>
       </c>
       <c r="G61" t="n">
-        <v>144.3333892822266</v>
+        <v>143.4328308105469</v>
       </c>
       <c r="H61" t="n">
-        <v>43.17168426513672</v>
+        <v>43.91158676147461</v>
       </c>
       <c r="I61" t="n">
-        <v>124.2264099121094</v>
+        <v>126.0830764770508</v>
       </c>
       <c r="J61" t="n">
-        <v>153.1787567138672</v>
+        <v>153.3572235107422</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>47.53914448671719</v>
       </c>
       <c r="G62" t="n">
-        <v>147.7690887451172</v>
+        <v>149.4916229248047</v>
       </c>
       <c r="H62" t="n">
-        <v>41.14724731445312</v>
+        <v>45.73701477050781</v>
       </c>
       <c r="I62" t="n">
-        <v>216.2823638916016</v>
+        <v>211.7987670898438</v>
       </c>
       <c r="J62" t="n">
-        <v>166.1926422119141</v>
+        <v>165.9947814941406</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>47.07121651777462</v>
       </c>
       <c r="G63" t="n">
-        <v>159.2462005615234</v>
+        <v>157.6045379638672</v>
       </c>
       <c r="H63" t="n">
-        <v>42.72495269775391</v>
+        <v>39.87849426269531</v>
       </c>
       <c r="I63" t="n">
-        <v>300.7759399414062</v>
+        <v>303.538330078125</v>
       </c>
       <c r="J63" t="n">
-        <v>170.0784454345703</v>
+        <v>166.0636291503906</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>45.67156598130153</v>
       </c>
       <c r="G64" t="n">
-        <v>175.452880859375</v>
+        <v>176.8026428222656</v>
       </c>
       <c r="H64" t="n">
-        <v>44.26882553100586</v>
+        <v>49.50154113769531</v>
       </c>
       <c r="I64" t="n">
-        <v>361.3939514160156</v>
+        <v>359.3987121582031</v>
       </c>
       <c r="J64" t="n">
-        <v>170.9430541992188</v>
+        <v>170.7235717773438</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>42.51104340916319</v>
       </c>
       <c r="G65" t="n">
-        <v>207.5819091796875</v>
+        <v>203.2075958251953</v>
       </c>
       <c r="H65" t="n">
-        <v>48.47676849365234</v>
+        <v>45.13428497314453</v>
       </c>
       <c r="I65" t="n">
-        <v>375.6427612304688</v>
+        <v>384.80615234375</v>
       </c>
       <c r="J65" t="n">
-        <v>200.5066833496094</v>
+        <v>199.9920654296875</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>54.37577254606605</v>
       </c>
       <c r="G66" t="n">
-        <v>144.8886871337891</v>
+        <v>144.9655151367188</v>
       </c>
       <c r="H66" t="n">
-        <v>47.43221282958984</v>
+        <v>51.40160751342773</v>
       </c>
       <c r="I66" t="n">
-        <v>-13.92716503143311</v>
+        <v>-14.52151679992676</v>
       </c>
       <c r="J66" t="n">
-        <v>123.7480850219727</v>
+        <v>121.9946517944336</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>55.07062752917076</v>
       </c>
       <c r="G67" t="n">
-        <v>152.6881561279297</v>
+        <v>151.2734222412109</v>
       </c>
       <c r="H67" t="n">
-        <v>58.43179321289062</v>
+        <v>54.50032043457031</v>
       </c>
       <c r="I67" t="n">
-        <v>33.32210159301758</v>
+        <v>40.38976287841797</v>
       </c>
       <c r="J67" t="n">
-        <v>147.509033203125</v>
+        <v>151.8598937988281</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>54.82432856758766</v>
       </c>
       <c r="G68" t="n">
-        <v>156.7550811767578</v>
+        <v>154.5999450683594</v>
       </c>
       <c r="H68" t="n">
-        <v>52.6277961730957</v>
+        <v>49.96806716918945</v>
       </c>
       <c r="I68" t="n">
-        <v>121.7443618774414</v>
+        <v>118.2431793212891</v>
       </c>
       <c r="J68" t="n">
-        <v>175.4471588134766</v>
+        <v>173.0519714355469</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>54.18769809434324</v>
       </c>
       <c r="G69" t="n">
-        <v>168.9586944580078</v>
+        <v>170.5404968261719</v>
       </c>
       <c r="H69" t="n">
-        <v>54.14697265625</v>
+        <v>55.21120834350586</v>
       </c>
       <c r="I69" t="n">
-        <v>228.5310974121094</v>
+        <v>237.9041442871094</v>
       </c>
       <c r="J69" t="n">
-        <v>192.2873382568359</v>
+        <v>191.1373748779297</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>51.347187815424</v>
       </c>
       <c r="G70" t="n">
-        <v>183.2640686035156</v>
+        <v>184.9205322265625</v>
       </c>
       <c r="H70" t="n">
-        <v>55.02800369262695</v>
+        <v>56.38514709472656</v>
       </c>
       <c r="I70" t="n">
-        <v>320.3285827636719</v>
+        <v>319.74365234375</v>
       </c>
       <c r="J70" t="n">
-        <v>185.0646362304688</v>
+        <v>183.4980926513672</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML.xlsx
@@ -505,16 +505,16 @@
         <v>10.27148578895017</v>
       </c>
       <c r="G2" t="n">
-        <v>142.8804626464844</v>
+        <v>398.1259765625</v>
       </c>
       <c r="H2" t="n">
-        <v>32.14314270019531</v>
+        <v>27.01040649414062</v>
       </c>
       <c r="I2" t="n">
-        <v>505.0473022460938</v>
+        <v>477.260009765625</v>
       </c>
       <c r="J2" t="n">
-        <v>84.26080322265625</v>
+        <v>53.77014541625977</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>10.49540628405087</v>
       </c>
       <c r="G3" t="n">
-        <v>147.5453338623047</v>
+        <v>403.0327758789062</v>
       </c>
       <c r="H3" t="n">
-        <v>32.31061172485352</v>
+        <v>27.9195728302002</v>
       </c>
       <c r="I3" t="n">
-        <v>519.9776000976562</v>
+        <v>477.33447265625</v>
       </c>
       <c r="J3" t="n">
-        <v>102.3788757324219</v>
+        <v>48.6143913269043</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>11.11292799977388</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9543914794922</v>
+        <v>405.1096801757812</v>
       </c>
       <c r="H4" t="n">
-        <v>33.08547592163086</v>
+        <v>25.76400184631348</v>
       </c>
       <c r="I4" t="n">
-        <v>544.2020874023438</v>
+        <v>478.2184753417969</v>
       </c>
       <c r="J4" t="n">
-        <v>107.5343170166016</v>
+        <v>49.50567626953125</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>11.33579528302992</v>
       </c>
       <c r="G5" t="n">
-        <v>156.8717193603516</v>
+        <v>408.9818115234375</v>
       </c>
       <c r="H5" t="n">
-        <v>38.1383056640625</v>
+        <v>24.48388671875</v>
       </c>
       <c r="I5" t="n">
-        <v>553.709716796875</v>
+        <v>473.5812377929688</v>
       </c>
       <c r="J5" t="n">
-        <v>119.4354705810547</v>
+        <v>53.30754089355469</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>11.53221857575777</v>
       </c>
       <c r="G6" t="n">
-        <v>161.7545776367188</v>
+        <v>412.66064453125</v>
       </c>
       <c r="H6" t="n">
-        <v>41.96193313598633</v>
+        <v>23.39294242858887</v>
       </c>
       <c r="I6" t="n">
-        <v>535.7727661132812</v>
+        <v>465.3410949707031</v>
       </c>
       <c r="J6" t="n">
-        <v>150.2334289550781</v>
+        <v>59.19172286987305</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>11.73836346032553</v>
       </c>
       <c r="G7" t="n">
-        <v>128.0693054199219</v>
+        <v>382.5882873535156</v>
       </c>
       <c r="H7" t="n">
-        <v>33.70592498779297</v>
+        <v>28.43268013000488</v>
       </c>
       <c r="I7" t="n">
-        <v>429.8053283691406</v>
+        <v>444.3815612792969</v>
       </c>
       <c r="J7" t="n">
-        <v>87.16747283935547</v>
+        <v>63.25116348266602</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>12.47588443056982</v>
       </c>
       <c r="G8" t="n">
-        <v>135.1362762451172</v>
+        <v>388.7621765136719</v>
       </c>
       <c r="H8" t="n">
-        <v>34.33587265014648</v>
+        <v>28.43271255493164</v>
       </c>
       <c r="I8" t="n">
-        <v>467.0935363769531</v>
+        <v>454.9195251464844</v>
       </c>
       <c r="J8" t="n">
-        <v>90.19690704345703</v>
+        <v>62.44813537597656</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>13.31360035996819</v>
       </c>
       <c r="G9" t="n">
-        <v>140.7048187255859</v>
+        <v>393.1926574707031</v>
       </c>
       <c r="H9" t="n">
-        <v>32.55530166625977</v>
+        <v>25.77258491516113</v>
       </c>
       <c r="I9" t="n">
-        <v>490.3887634277344</v>
+        <v>462.656982421875</v>
       </c>
       <c r="J9" t="n">
-        <v>83.94367218017578</v>
+        <v>54.33234405517578</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>14.04586286313179</v>
       </c>
       <c r="G10" t="n">
-        <v>144.6791229248047</v>
+        <v>398.5402526855469</v>
       </c>
       <c r="H10" t="n">
-        <v>26.5163745880127</v>
+        <v>26.66025161743164</v>
       </c>
       <c r="I10" t="n">
-        <v>510.056396484375</v>
+        <v>465.3640747070312</v>
       </c>
       <c r="J10" t="n">
-        <v>78.10751342773438</v>
+        <v>56.68073654174805</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>14.78596965177877</v>
       </c>
       <c r="G11" t="n">
-        <v>149.5959777832031</v>
+        <v>403.7288818359375</v>
       </c>
       <c r="H11" t="n">
-        <v>27.48994064331055</v>
+        <v>24.84552192687988</v>
       </c>
       <c r="I11" t="n">
-        <v>520.3779296875</v>
+        <v>464.3366088867188</v>
       </c>
       <c r="J11" t="n">
-        <v>90.37418365478516</v>
+        <v>54.12376403808594</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>14.60750023008277</v>
       </c>
       <c r="G12" t="n">
-        <v>155.1700897216797</v>
+        <v>412.3948059082031</v>
       </c>
       <c r="H12" t="n">
-        <v>29.0160961151123</v>
+        <v>24.6420783996582</v>
       </c>
       <c r="I12" t="n">
-        <v>502.6429138183594</v>
+        <v>463.9165649414062</v>
       </c>
       <c r="J12" t="n">
-        <v>102.3632125854492</v>
+        <v>57.08152008056641</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>13.93632017907879</v>
       </c>
       <c r="G13" t="n">
-        <v>170.6553344726562</v>
+        <v>424.3629455566406</v>
       </c>
       <c r="H13" t="n">
-        <v>32.18177795410156</v>
+        <v>24.00087928771973</v>
       </c>
       <c r="I13" t="n">
-        <v>483.3847961425781</v>
+        <v>448.2315063476562</v>
       </c>
       <c r="J13" t="n">
-        <v>128.67626953125</v>
+        <v>69.34293365478516</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>13.2060787967079</v>
       </c>
       <c r="G14" t="n">
-        <v>116.7173156738281</v>
+        <v>368.1524353027344</v>
       </c>
       <c r="H14" t="n">
-        <v>31.8255558013916</v>
+        <v>27.97834587097168</v>
       </c>
       <c r="I14" t="n">
-        <v>254.7527618408203</v>
+        <v>382.9455871582031</v>
       </c>
       <c r="J14" t="n">
-        <v>83.21837615966797</v>
+        <v>86.08547210693359</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>14.43724685121477</v>
       </c>
       <c r="G15" t="n">
-        <v>123.8658828735352</v>
+        <v>375.8694152832031</v>
       </c>
       <c r="H15" t="n">
-        <v>36.62961578369141</v>
+        <v>28.27974700927734</v>
       </c>
       <c r="I15" t="n">
-        <v>295.86328125</v>
+        <v>410.5798950195312</v>
       </c>
       <c r="J15" t="n">
-        <v>86.25227355957031</v>
+        <v>73.89263916015625</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>15.77509757365795</v>
       </c>
       <c r="G16" t="n">
-        <v>128.9159088134766</v>
+        <v>379.32421875</v>
       </c>
       <c r="H16" t="n">
-        <v>34.73052215576172</v>
+        <v>28.25710105895996</v>
       </c>
       <c r="I16" t="n">
-        <v>348.5033569335938</v>
+        <v>429.6340942382812</v>
       </c>
       <c r="J16" t="n">
-        <v>95.79824829101562</v>
+        <v>64.95188903808594</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>17.01643502058164</v>
       </c>
       <c r="G17" t="n">
-        <v>138.2591552734375</v>
+        <v>387.8291931152344</v>
       </c>
       <c r="H17" t="n">
-        <v>35.63236236572266</v>
+        <v>27.64620780944824</v>
       </c>
       <c r="I17" t="n">
-        <v>424.6423950195312</v>
+        <v>443.8576965332031</v>
       </c>
       <c r="J17" t="n">
-        <v>102.8576812744141</v>
+        <v>59.06442642211914</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>17.57324774662381</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3032073974609</v>
+        <v>392.5246887207031</v>
       </c>
       <c r="H18" t="n">
-        <v>29.81174087524414</v>
+        <v>26.5245532989502</v>
       </c>
       <c r="I18" t="n">
-        <v>454.2892761230469</v>
+        <v>450.2022399902344</v>
       </c>
       <c r="J18" t="n">
-        <v>99.47294616699219</v>
+        <v>61.19875717163086</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>18.2282289394109</v>
       </c>
       <c r="G19" t="n">
-        <v>144.9179229736328</v>
+        <v>401.2491760253906</v>
       </c>
       <c r="H19" t="n">
-        <v>24.13729667663574</v>
+        <v>27.44148445129395</v>
       </c>
       <c r="I19" t="n">
-        <v>491.6285400390625</v>
+        <v>454.8536987304688</v>
       </c>
       <c r="J19" t="n">
-        <v>88.19241333007812</v>
+        <v>56.44916534423828</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>18.05168677518481</v>
       </c>
       <c r="G20" t="n">
-        <v>152.2935180664062</v>
+        <v>410.4702758789062</v>
       </c>
       <c r="H20" t="n">
-        <v>24.90175819396973</v>
+        <v>24.41758918762207</v>
       </c>
       <c r="I20" t="n">
-        <v>497.2941589355469</v>
+        <v>455.0971984863281</v>
       </c>
       <c r="J20" t="n">
-        <v>93.54551696777344</v>
+        <v>56.87409591674805</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>17.30316829702608</v>
       </c>
       <c r="G21" t="n">
-        <v>169.7773132324219</v>
+        <v>425.2373046875</v>
       </c>
       <c r="H21" t="n">
-        <v>26.39823341369629</v>
+        <v>24.80557441711426</v>
       </c>
       <c r="I21" t="n">
-        <v>478.9127502441406</v>
+        <v>440.2408447265625</v>
       </c>
       <c r="J21" t="n">
-        <v>130.5850524902344</v>
+        <v>70.75784301757812</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>15.87142913305469</v>
       </c>
       <c r="G22" t="n">
-        <v>234.3558044433594</v>
+        <v>445.6087036132812</v>
       </c>
       <c r="H22" t="n">
-        <v>41.10518646240234</v>
+        <v>26.41068840026855</v>
       </c>
       <c r="I22" t="n">
-        <v>446.4248352050781</v>
+        <v>421.9258422851562</v>
       </c>
       <c r="J22" t="n">
-        <v>170.0016784667969</v>
+        <v>81.25815582275391</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>16.2842163689804</v>
       </c>
       <c r="G23" t="n">
-        <v>116.4716033935547</v>
+        <v>363.1999206542969</v>
       </c>
       <c r="H23" t="n">
-        <v>35.94319915771484</v>
+        <v>28.20826148986816</v>
       </c>
       <c r="I23" t="n">
-        <v>206.6993255615234</v>
+        <v>349.7908630371094</v>
       </c>
       <c r="J23" t="n">
-        <v>91.93099212646484</v>
+        <v>89.15886688232422</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>17.99859633271077</v>
       </c>
       <c r="G24" t="n">
-        <v>121.291145324707</v>
+        <v>368.5528869628906</v>
       </c>
       <c r="H24" t="n">
-        <v>35.83256149291992</v>
+        <v>27.62983512878418</v>
       </c>
       <c r="I24" t="n">
-        <v>252.6391143798828</v>
+        <v>381.3911743164062</v>
       </c>
       <c r="J24" t="n">
-        <v>94.19733428955078</v>
+        <v>81.29314422607422</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>19.53665474474453</v>
       </c>
       <c r="G25" t="n">
-        <v>127.6668243408203</v>
+        <v>375.1595764160156</v>
       </c>
       <c r="H25" t="n">
-        <v>36.89981079101562</v>
+        <v>27.59327507019043</v>
       </c>
       <c r="I25" t="n">
-        <v>290.1314697265625</v>
+        <v>401.1213989257812</v>
       </c>
       <c r="J25" t="n">
-        <v>89.4581298828125</v>
+        <v>74.40888977050781</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>21.18080958029204</v>
       </c>
       <c r="G26" t="n">
-        <v>133.9181823730469</v>
+        <v>382.3030090332031</v>
       </c>
       <c r="H26" t="n">
-        <v>36.31747817993164</v>
+        <v>28.20405387878418</v>
       </c>
       <c r="I26" t="n">
-        <v>334.0249633789062</v>
+        <v>416.0938415527344</v>
       </c>
       <c r="J26" t="n">
-        <v>99.53156280517578</v>
+        <v>72.64133453369141</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>22.36133238808863</v>
       </c>
       <c r="G27" t="n">
-        <v>140.0730285644531</v>
+        <v>389.591796875</v>
       </c>
       <c r="H27" t="n">
-        <v>30.42644691467285</v>
+        <v>26.14640998840332</v>
       </c>
       <c r="I27" t="n">
-        <v>397.5252990722656</v>
+        <v>433.1531066894531</v>
       </c>
       <c r="J27" t="n">
-        <v>109.7086181640625</v>
+        <v>67.19808197021484</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>22.25528267810615</v>
       </c>
       <c r="G28" t="n">
-        <v>142.3007354736328</v>
+        <v>397.2207946777344</v>
       </c>
       <c r="H28" t="n">
-        <v>22.0538387298584</v>
+        <v>26.28407287597656</v>
       </c>
       <c r="I28" t="n">
-        <v>445.6835021972656</v>
+        <v>440.4262390136719</v>
       </c>
       <c r="J28" t="n">
-        <v>107.9384384155273</v>
+        <v>61.23685455322266</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>22.11853696692908</v>
       </c>
       <c r="G29" t="n">
-        <v>152.0797729492188</v>
+        <v>412.2499084472656</v>
       </c>
       <c r="H29" t="n">
-        <v>22.72967720031738</v>
+        <v>25.43990707397461</v>
       </c>
       <c r="I29" t="n">
-        <v>475.8534851074219</v>
+        <v>443.7078247070312</v>
       </c>
       <c r="J29" t="n">
-        <v>108.8017196655273</v>
+        <v>58.79115676879883</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>21.13587239531939</v>
       </c>
       <c r="G30" t="n">
-        <v>181.1639251708984</v>
+        <v>429.0813293457031</v>
       </c>
       <c r="H30" t="n">
-        <v>28.08621788024902</v>
+        <v>25.46852874755859</v>
       </c>
       <c r="I30" t="n">
-        <v>470.8873901367188</v>
+        <v>438.8312072753906</v>
       </c>
       <c r="J30" t="n">
-        <v>138.1964111328125</v>
+        <v>67.19949340820312</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>19.80061812897557</v>
       </c>
       <c r="G31" t="n">
-        <v>246.7310485839844</v>
+        <v>447.7859497070312</v>
       </c>
       <c r="H31" t="n">
-        <v>42.73271179199219</v>
+        <v>23.9729175567627</v>
       </c>
       <c r="I31" t="n">
-        <v>444.4541625976562</v>
+        <v>417.5845336914062</v>
       </c>
       <c r="J31" t="n">
-        <v>185.6873474121094</v>
+        <v>87.48397827148438</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>20.55168297688286</v>
       </c>
       <c r="G32" t="n">
-        <v>114.985466003418</v>
+        <v>359.213134765625</v>
       </c>
       <c r="H32" t="n">
-        <v>31.7579517364502</v>
+        <v>28.32734489440918</v>
       </c>
       <c r="I32" t="n">
-        <v>153.0612030029297</v>
+        <v>317.5141296386719</v>
       </c>
       <c r="J32" t="n">
-        <v>100.3491821289062</v>
+        <v>98.64371490478516</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>22.96934284445093</v>
       </c>
       <c r="G33" t="n">
-        <v>121.3505859375</v>
+        <v>366.6471862792969</v>
       </c>
       <c r="H33" t="n">
-        <v>36.63999176025391</v>
+        <v>27.3071174621582</v>
       </c>
       <c r="I33" t="n">
-        <v>211.6167755126953</v>
+        <v>342.8547668457031</v>
       </c>
       <c r="J33" t="n">
-        <v>101.7864990234375</v>
+        <v>94.98149108886719</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>24.40915250803127</v>
       </c>
       <c r="G34" t="n">
-        <v>126.8276596069336</v>
+        <v>370.2333984375</v>
       </c>
       <c r="H34" t="n">
-        <v>36.69324493408203</v>
+        <v>27.46042251586914</v>
       </c>
       <c r="I34" t="n">
-        <v>265.167236328125</v>
+        <v>371.8676147460938</v>
       </c>
       <c r="J34" t="n">
-        <v>99.86502075195312</v>
+        <v>83.18350219726562</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>26.0811880993595</v>
       </c>
       <c r="G35" t="n">
-        <v>133.0792846679688</v>
+        <v>379.580810546875</v>
       </c>
       <c r="H35" t="n">
-        <v>36.49098968505859</v>
+        <v>27.94532585144043</v>
       </c>
       <c r="I35" t="n">
-        <v>306.5359497070312</v>
+        <v>394.2941284179688</v>
       </c>
       <c r="J35" t="n">
-        <v>108.3628692626953</v>
+        <v>74.88552856445312</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>26.87614780904968</v>
       </c>
       <c r="G36" t="n">
-        <v>140.2834777832031</v>
+        <v>386.1780395507812</v>
       </c>
       <c r="H36" t="n">
-        <v>32.56547546386719</v>
+        <v>27.84191131591797</v>
       </c>
       <c r="I36" t="n">
-        <v>354.8982849121094</v>
+        <v>416.1960144042969</v>
       </c>
       <c r="J36" t="n">
-        <v>113.9577102661133</v>
+        <v>71.09192657470703</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>27.16629873490772</v>
       </c>
       <c r="G37" t="n">
-        <v>144.0287780761719</v>
+        <v>393.2438354492188</v>
       </c>
       <c r="H37" t="n">
-        <v>25.19291496276855</v>
+        <v>25.46757888793945</v>
       </c>
       <c r="I37" t="n">
-        <v>400.09228515625</v>
+        <v>419.0548400878906</v>
       </c>
       <c r="J37" t="n">
-        <v>129.1274719238281</v>
+        <v>69.82829284667969</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>27.25598473560972</v>
       </c>
       <c r="G38" t="n">
-        <v>154.6244964599609</v>
+        <v>406.7008972167969</v>
       </c>
       <c r="H38" t="n">
-        <v>22.57598304748535</v>
+        <v>24.46286582946777</v>
       </c>
       <c r="I38" t="n">
-        <v>439.4377136230469</v>
+        <v>427.4778442382812</v>
       </c>
       <c r="J38" t="n">
-        <v>129.8589935302734</v>
+        <v>72.47047424316406</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>26.04628332899345</v>
       </c>
       <c r="G39" t="n">
-        <v>186.9638671875</v>
+        <v>428.0379638671875</v>
       </c>
       <c r="H39" t="n">
-        <v>30.44893074035645</v>
+        <v>26.8080883026123</v>
       </c>
       <c r="I39" t="n">
-        <v>439.9128723144531</v>
+        <v>421.4319152832031</v>
       </c>
       <c r="J39" t="n">
-        <v>176.8063354492188</v>
+        <v>76.64485931396484</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>23.96978635149335</v>
       </c>
       <c r="G40" t="n">
-        <v>256.0289916992188</v>
+        <v>450.9182434082031</v>
       </c>
       <c r="H40" t="n">
-        <v>40.51065826416016</v>
+        <v>25.53032875061035</v>
       </c>
       <c r="I40" t="n">
-        <v>433.5440673828125</v>
+        <v>400.5530700683594</v>
       </c>
       <c r="J40" t="n">
-        <v>203.0678100585938</v>
+        <v>92.24122619628906</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>25.6116837653232</v>
       </c>
       <c r="G41" t="n">
-        <v>114.661994934082</v>
+        <v>360.4913330078125</v>
       </c>
       <c r="H41" t="n">
-        <v>29.29879760742188</v>
+        <v>28.02543449401855</v>
       </c>
       <c r="I41" t="n">
-        <v>104.7073745727539</v>
+        <v>296.0922241210938</v>
       </c>
       <c r="J41" t="n">
-        <v>107.8823776245117</v>
+        <v>96.97303771972656</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>28.41067839248494</v>
       </c>
       <c r="G42" t="n">
-        <v>119.9710006713867</v>
+        <v>363.5075988769531</v>
       </c>
       <c r="H42" t="n">
-        <v>32.90065383911133</v>
+        <v>28.22387504577637</v>
       </c>
       <c r="I42" t="n">
-        <v>146.2124786376953</v>
+        <v>319.1215209960938</v>
       </c>
       <c r="J42" t="n">
-        <v>112.5235290527344</v>
+        <v>91.51718902587891</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>30.68040031937237</v>
       </c>
       <c r="G43" t="n">
-        <v>126.0315856933594</v>
+        <v>369.1275634765625</v>
       </c>
       <c r="H43" t="n">
-        <v>36.15554428100586</v>
+        <v>27.08649635314941</v>
       </c>
       <c r="I43" t="n">
-        <v>214.6288757324219</v>
+        <v>334.0909729003906</v>
       </c>
       <c r="J43" t="n">
-        <v>118.7913436889648</v>
+        <v>90.02082061767578</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>32.34762367758118</v>
       </c>
       <c r="G44" t="n">
-        <v>134.6031799316406</v>
+        <v>374.1165161132812</v>
       </c>
       <c r="H44" t="n">
-        <v>37.04384994506836</v>
+        <v>27.69235610961914</v>
       </c>
       <c r="I44" t="n">
-        <v>277.1092224121094</v>
+        <v>365.1660766601562</v>
       </c>
       <c r="J44" t="n">
-        <v>120.1916885375977</v>
+        <v>79.88849639892578</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>33.26712421235609</v>
       </c>
       <c r="G45" t="n">
-        <v>142.17578125</v>
+        <v>382.7475891113281</v>
       </c>
       <c r="H45" t="n">
-        <v>34.82829666137695</v>
+        <v>27.78489112854004</v>
       </c>
       <c r="I45" t="n">
-        <v>326.1495971679688</v>
+        <v>381.8503723144531</v>
       </c>
       <c r="J45" t="n">
-        <v>123.6895065307617</v>
+        <v>77.33165740966797</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>33.39925272231932</v>
       </c>
       <c r="G46" t="n">
-        <v>150.2042541503906</v>
+        <v>394.8126525878906</v>
       </c>
       <c r="H46" t="n">
-        <v>29.46469879150391</v>
+        <v>27.3180980682373</v>
       </c>
       <c r="I46" t="n">
-        <v>373.58740234375</v>
+        <v>403.4883728027344</v>
       </c>
       <c r="J46" t="n">
-        <v>146.1094512939453</v>
+        <v>75.71820831298828</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>32.83385481517335</v>
       </c>
       <c r="G47" t="n">
-        <v>157.4096832275391</v>
+        <v>406.127685546875</v>
       </c>
       <c r="H47" t="n">
-        <v>26.90229225158691</v>
+        <v>26.54232215881348</v>
       </c>
       <c r="I47" t="n">
-        <v>398.7059631347656</v>
+        <v>411.6073303222656</v>
       </c>
       <c r="J47" t="n">
-        <v>165.2471466064453</v>
+        <v>71.67802429199219</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>31.22587875804939</v>
       </c>
       <c r="G48" t="n">
-        <v>199.2266998291016</v>
+        <v>427.6911315917969</v>
       </c>
       <c r="H48" t="n">
-        <v>36.078369140625</v>
+        <v>25.55732727050781</v>
       </c>
       <c r="I48" t="n">
-        <v>422.9988403320312</v>
+        <v>408.298828125</v>
       </c>
       <c r="J48" t="n">
-        <v>183.7768402099609</v>
+        <v>81.12566375732422</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>28.00050845971687</v>
       </c>
       <c r="G49" t="n">
-        <v>264.6051940917969</v>
+        <v>451.606201171875</v>
       </c>
       <c r="H49" t="n">
-        <v>45.21309661865234</v>
+        <v>25.93669700622559</v>
       </c>
       <c r="I49" t="n">
-        <v>422.933837890625</v>
+        <v>400.8568115234375</v>
       </c>
       <c r="J49" t="n">
-        <v>206.9194793701172</v>
+        <v>89.54064178466797</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>32.75859992753161</v>
       </c>
       <c r="G50" t="n">
-        <v>118.913330078125</v>
+        <v>359.1517333984375</v>
       </c>
       <c r="H50" t="n">
-        <v>35.18188858032227</v>
+        <v>27.78376388549805</v>
       </c>
       <c r="I50" t="n">
-        <v>53.16790008544922</v>
+        <v>272.7567138671875</v>
       </c>
       <c r="J50" t="n">
-        <v>111.1792678833008</v>
+        <v>98.04290771484375</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>35.60454595063857</v>
       </c>
       <c r="G51" t="n">
-        <v>124.9077835083008</v>
+        <v>364.1138916015625</v>
       </c>
       <c r="H51" t="n">
-        <v>36.35508728027344</v>
+        <v>27.7718391418457</v>
       </c>
       <c r="I51" t="n">
-        <v>87.15781402587891</v>
+        <v>293.1388549804688</v>
       </c>
       <c r="J51" t="n">
-        <v>124.0592422485352</v>
+        <v>100.2650756835938</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>38.13811789539464</v>
       </c>
       <c r="G52" t="n">
-        <v>129.5819396972656</v>
+        <v>367.4444885253906</v>
       </c>
       <c r="H52" t="n">
-        <v>37.7817497253418</v>
+        <v>27.62353897094727</v>
       </c>
       <c r="I52" t="n">
-        <v>133.0933074951172</v>
+        <v>305.184814453125</v>
       </c>
       <c r="J52" t="n">
-        <v>136.7314300537109</v>
+        <v>97.78956604003906</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>39.1380055059179</v>
       </c>
       <c r="G53" t="n">
-        <v>137.3786468505859</v>
+        <v>374.1478576660156</v>
       </c>
       <c r="H53" t="n">
-        <v>38.45075225830078</v>
+        <v>27.19668197631836</v>
       </c>
       <c r="I53" t="n">
-        <v>214.6918029785156</v>
+        <v>325.7828369140625</v>
       </c>
       <c r="J53" t="n">
-        <v>141.3419494628906</v>
+        <v>93.8709716796875</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>40.17007780104868</v>
       </c>
       <c r="G54" t="n">
-        <v>145.5761413574219</v>
+        <v>381.4328002929688</v>
       </c>
       <c r="H54" t="n">
-        <v>35.2869987487793</v>
+        <v>26.78518676757812</v>
       </c>
       <c r="I54" t="n">
-        <v>296.0212097167969</v>
+        <v>348.3912963867188</v>
       </c>
       <c r="J54" t="n">
-        <v>139.8495483398438</v>
+        <v>82.96847534179688</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>40.31777520333784</v>
       </c>
       <c r="G55" t="n">
-        <v>152.8242797851562</v>
+        <v>389.7665100097656</v>
       </c>
       <c r="H55" t="n">
-        <v>34.37796020507812</v>
+        <v>27.37735939025879</v>
       </c>
       <c r="I55" t="n">
-        <v>342.0743408203125</v>
+        <v>370.6318054199219</v>
       </c>
       <c r="J55" t="n">
-        <v>148.5781707763672</v>
+        <v>76.5948486328125</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>38.89328689858721</v>
       </c>
       <c r="G56" t="n">
-        <v>168.6741333007812</v>
+        <v>404.561279296875</v>
       </c>
       <c r="H56" t="n">
-        <v>35.64198684692383</v>
+        <v>27.50343132019043</v>
       </c>
       <c r="I56" t="n">
-        <v>385.9133911132812</v>
+        <v>389.0888061523438</v>
       </c>
       <c r="J56" t="n">
-        <v>170.4989776611328</v>
+        <v>79.48863983154297</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>36.03490394546852</v>
       </c>
       <c r="G57" t="n">
-        <v>199.1276245117188</v>
+        <v>424.84228515625</v>
       </c>
       <c r="H57" t="n">
-        <v>37.11589050292969</v>
+        <v>26.05106735229492</v>
       </c>
       <c r="I57" t="n">
-        <v>402.0811462402344</v>
+        <v>394.3933715820312</v>
       </c>
       <c r="J57" t="n">
-        <v>198.6816558837891</v>
+        <v>81.06951141357422</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>33.0417017672229</v>
       </c>
       <c r="G58" t="n">
-        <v>266.2444763183594</v>
+        <v>450.9777221679688</v>
       </c>
       <c r="H58" t="n">
-        <v>48.58882141113281</v>
+        <v>25.50094032287598</v>
       </c>
       <c r="I58" t="n">
-        <v>409.7958984375</v>
+        <v>385.2449645996094</v>
       </c>
       <c r="J58" t="n">
-        <v>220.9768371582031</v>
+        <v>97.62964630126953</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>43.98768298598323</v>
       </c>
       <c r="G59" t="n">
-        <v>131.2852630615234</v>
+        <v>363.4585266113281</v>
       </c>
       <c r="H59" t="n">
-        <v>41.43349838256836</v>
+        <v>27.91312599182129</v>
       </c>
       <c r="I59" t="n">
-        <v>21.03071212768555</v>
+        <v>262.7206420898438</v>
       </c>
       <c r="J59" t="n">
-        <v>117.896125793457</v>
+        <v>99.8597412109375</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>45.7006317110727</v>
       </c>
       <c r="G60" t="n">
-        <v>137.4062347412109</v>
+        <v>366.885986328125</v>
       </c>
       <c r="H60" t="n">
-        <v>42.05660247802734</v>
+        <v>28.75186920166016</v>
       </c>
       <c r="I60" t="n">
-        <v>55.63461685180664</v>
+        <v>277.6995544433594</v>
       </c>
       <c r="J60" t="n">
-        <v>132.5423889160156</v>
+        <v>97.35076904296875</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>46.67965674781412</v>
       </c>
       <c r="G61" t="n">
-        <v>143.4328308105469</v>
+        <v>373.3158569335938</v>
       </c>
       <c r="H61" t="n">
-        <v>43.91158676147461</v>
+        <v>27.58979988098145</v>
       </c>
       <c r="I61" t="n">
-        <v>126.0830764770508</v>
+        <v>297.0329284667969</v>
       </c>
       <c r="J61" t="n">
-        <v>153.3572235107422</v>
+        <v>94.16371917724609</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>47.53914448671719</v>
       </c>
       <c r="G62" t="n">
-        <v>149.4916229248047</v>
+        <v>379.7358703613281</v>
       </c>
       <c r="H62" t="n">
-        <v>45.73701477050781</v>
+        <v>26.34573936462402</v>
       </c>
       <c r="I62" t="n">
-        <v>211.7987670898438</v>
+        <v>309.5865173339844</v>
       </c>
       <c r="J62" t="n">
-        <v>165.9947814941406</v>
+        <v>89.04312133789062</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>47.07121651777462</v>
       </c>
       <c r="G63" t="n">
-        <v>157.6045379638672</v>
+        <v>389.122314453125</v>
       </c>
       <c r="H63" t="n">
-        <v>39.87849426269531</v>
+        <v>28.51152229309082</v>
       </c>
       <c r="I63" t="n">
-        <v>303.538330078125</v>
+        <v>336.3158569335938</v>
       </c>
       <c r="J63" t="n">
-        <v>166.0636291503906</v>
+        <v>84.84140777587891</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>45.67156598130153</v>
       </c>
       <c r="G64" t="n">
-        <v>176.8026428222656</v>
+        <v>400.1449890136719</v>
       </c>
       <c r="H64" t="n">
-        <v>49.50154113769531</v>
+        <v>28.3798770904541</v>
       </c>
       <c r="I64" t="n">
-        <v>359.3987121582031</v>
+        <v>368.1322326660156</v>
       </c>
       <c r="J64" t="n">
-        <v>170.7235717773438</v>
+        <v>84.30812835693359</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>42.51104340916319</v>
       </c>
       <c r="G65" t="n">
-        <v>203.2075958251953</v>
+        <v>419.9383239746094</v>
       </c>
       <c r="H65" t="n">
-        <v>45.13428497314453</v>
+        <v>25.64868927001953</v>
       </c>
       <c r="I65" t="n">
-        <v>384.80615234375</v>
+        <v>379.0342407226562</v>
       </c>
       <c r="J65" t="n">
-        <v>199.9920654296875</v>
+        <v>81.54350280761719</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>54.37577254606605</v>
       </c>
       <c r="G66" t="n">
-        <v>144.9655151367188</v>
+        <v>368.814208984375</v>
       </c>
       <c r="H66" t="n">
-        <v>51.40160751342773</v>
+        <v>28.72645950317383</v>
       </c>
       <c r="I66" t="n">
-        <v>-14.52151679992676</v>
+        <v>225.6248474121094</v>
       </c>
       <c r="J66" t="n">
-        <v>121.9946517944336</v>
+        <v>104.3029022216797</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>55.07062752917076</v>
       </c>
       <c r="G67" t="n">
-        <v>151.2734222412109</v>
+        <v>372.7352600097656</v>
       </c>
       <c r="H67" t="n">
-        <v>54.50032043457031</v>
+        <v>27.70173072814941</v>
       </c>
       <c r="I67" t="n">
-        <v>40.38976287841797</v>
+        <v>248.9956207275391</v>
       </c>
       <c r="J67" t="n">
-        <v>151.8598937988281</v>
+        <v>104.537956237793</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>54.82432856758766</v>
       </c>
       <c r="G68" t="n">
-        <v>154.5999450683594</v>
+        <v>379.1201171875</v>
       </c>
       <c r="H68" t="n">
-        <v>49.96806716918945</v>
+        <v>27.28972244262695</v>
       </c>
       <c r="I68" t="n">
-        <v>118.2431793212891</v>
+        <v>274.8077392578125</v>
       </c>
       <c r="J68" t="n">
-        <v>173.0519714355469</v>
+        <v>97.98152160644531</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>54.18769809434324</v>
       </c>
       <c r="G69" t="n">
-        <v>170.5404968261719</v>
+        <v>386.3962707519531</v>
       </c>
       <c r="H69" t="n">
-        <v>55.21120834350586</v>
+        <v>28.37163543701172</v>
       </c>
       <c r="I69" t="n">
-        <v>237.9041442871094</v>
+        <v>303.657958984375</v>
       </c>
       <c r="J69" t="n">
-        <v>191.1373748779297</v>
+        <v>95.28525543212891</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>51.347187815424</v>
       </c>
       <c r="G70" t="n">
-        <v>184.9205322265625</v>
+        <v>399.3856201171875</v>
       </c>
       <c r="H70" t="n">
-        <v>56.38514709472656</v>
+        <v>26.54878807067871</v>
       </c>
       <c r="I70" t="n">
-        <v>319.74365234375</v>
+        <v>340.0702514648438</v>
       </c>
       <c r="J70" t="n">
-        <v>183.4980926513672</v>
+        <v>86.49823760986328</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML.xlsx
@@ -505,16 +505,16 @@
         <v>10.27148578895017</v>
       </c>
       <c r="G2" t="n">
-        <v>398.1259765625</v>
+        <v>211.6277465820312</v>
       </c>
       <c r="H2" t="n">
-        <v>27.01040649414062</v>
+        <v>30.15880584716797</v>
       </c>
       <c r="I2" t="n">
-        <v>477.260009765625</v>
+        <v>495.6626586914062</v>
       </c>
       <c r="J2" t="n">
-        <v>53.77014541625977</v>
+        <v>41.41725540161133</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>10.49540628405087</v>
       </c>
       <c r="G3" t="n">
-        <v>403.0327758789062</v>
+        <v>217.703369140625</v>
       </c>
       <c r="H3" t="n">
-        <v>27.9195728302002</v>
+        <v>31.95357131958008</v>
       </c>
       <c r="I3" t="n">
-        <v>477.33447265625</v>
+        <v>517.8294067382812</v>
       </c>
       <c r="J3" t="n">
-        <v>48.6143913269043</v>
+        <v>86.36868286132812</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>11.11292799977388</v>
       </c>
       <c r="G4" t="n">
-        <v>405.1096801757812</v>
+        <v>218.9885864257812</v>
       </c>
       <c r="H4" t="n">
-        <v>25.76400184631348</v>
+        <v>29.61130142211914</v>
       </c>
       <c r="I4" t="n">
-        <v>478.2184753417969</v>
+        <v>569.599853515625</v>
       </c>
       <c r="J4" t="n">
-        <v>49.50567626953125</v>
+        <v>131.0963287353516</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>11.33579528302992</v>
       </c>
       <c r="G5" t="n">
-        <v>408.9818115234375</v>
+        <v>221.6820831298828</v>
       </c>
       <c r="H5" t="n">
-        <v>24.48388671875</v>
+        <v>21.13678359985352</v>
       </c>
       <c r="I5" t="n">
-        <v>473.5812377929688</v>
+        <v>564.8158569335938</v>
       </c>
       <c r="J5" t="n">
-        <v>53.30754089355469</v>
+        <v>108.7520370483398</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>11.53221857575777</v>
       </c>
       <c r="G6" t="n">
-        <v>412.66064453125</v>
+        <v>223.7204895019531</v>
       </c>
       <c r="H6" t="n">
-        <v>23.39294242858887</v>
+        <v>19.9261589050293</v>
       </c>
       <c r="I6" t="n">
-        <v>465.3410949707031</v>
+        <v>433.4638366699219</v>
       </c>
       <c r="J6" t="n">
-        <v>59.19172286987305</v>
+        <v>142.4200286865234</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>11.73836346032553</v>
       </c>
       <c r="G7" t="n">
-        <v>382.5882873535156</v>
+        <v>199.5134429931641</v>
       </c>
       <c r="H7" t="n">
-        <v>28.43268013000488</v>
+        <v>40.02546691894531</v>
       </c>
       <c r="I7" t="n">
-        <v>444.3815612792969</v>
+        <v>540.6355590820312</v>
       </c>
       <c r="J7" t="n">
-        <v>63.25116348266602</v>
+        <v>18.65006256103516</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>12.47588443056982</v>
       </c>
       <c r="G8" t="n">
-        <v>388.7621765136719</v>
+        <v>203.6831207275391</v>
       </c>
       <c r="H8" t="n">
-        <v>28.43271255493164</v>
+        <v>34.26762008666992</v>
       </c>
       <c r="I8" t="n">
-        <v>454.9195251464844</v>
+        <v>550.3091430664062</v>
       </c>
       <c r="J8" t="n">
-        <v>62.44813537597656</v>
+        <v>18.60427284240723</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>13.31360035996819</v>
       </c>
       <c r="G9" t="n">
-        <v>393.1926574707031</v>
+        <v>207.9856872558594</v>
       </c>
       <c r="H9" t="n">
-        <v>25.77258491516113</v>
+        <v>29.89386558532715</v>
       </c>
       <c r="I9" t="n">
-        <v>462.656982421875</v>
+        <v>566.6705932617188</v>
       </c>
       <c r="J9" t="n">
-        <v>54.33234405517578</v>
+        <v>36.68145370483398</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>14.04586286313179</v>
       </c>
       <c r="G10" t="n">
-        <v>398.5402526855469</v>
+        <v>209.7131652832031</v>
       </c>
       <c r="H10" t="n">
-        <v>26.66025161743164</v>
+        <v>28.90085792541504</v>
       </c>
       <c r="I10" t="n">
-        <v>465.3640747070312</v>
+        <v>615.27294921875</v>
       </c>
       <c r="J10" t="n">
-        <v>56.68073654174805</v>
+        <v>92.85682678222656</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>14.78596965177877</v>
       </c>
       <c r="G11" t="n">
-        <v>403.7288818359375</v>
+        <v>208.9482727050781</v>
       </c>
       <c r="H11" t="n">
-        <v>24.84552192687988</v>
+        <v>20.91991233825684</v>
       </c>
       <c r="I11" t="n">
-        <v>464.3366088867188</v>
+        <v>617.1141357421875</v>
       </c>
       <c r="J11" t="n">
-        <v>54.12376403808594</v>
+        <v>138.1226501464844</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>14.60750023008277</v>
       </c>
       <c r="G12" t="n">
-        <v>412.3948059082031</v>
+        <v>209.4120025634766</v>
       </c>
       <c r="H12" t="n">
-        <v>24.6420783996582</v>
+        <v>17.90985488891602</v>
       </c>
       <c r="I12" t="n">
-        <v>463.9165649414062</v>
+        <v>471.6324462890625</v>
       </c>
       <c r="J12" t="n">
-        <v>57.08152008056641</v>
+        <v>154.3607330322266</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>13.93632017907879</v>
       </c>
       <c r="G13" t="n">
-        <v>424.3629455566406</v>
+        <v>228.0254211425781</v>
       </c>
       <c r="H13" t="n">
-        <v>24.00087928771973</v>
+        <v>28.84817314147949</v>
       </c>
       <c r="I13" t="n">
-        <v>448.2315063476562</v>
+        <v>364.20166015625</v>
       </c>
       <c r="J13" t="n">
-        <v>69.34293365478516</v>
+        <v>116.5608596801758</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>13.2060787967079</v>
       </c>
       <c r="G14" t="n">
-        <v>368.1524353027344</v>
+        <v>191.5503692626953</v>
       </c>
       <c r="H14" t="n">
-        <v>27.97834587097168</v>
+        <v>50.34303283691406</v>
       </c>
       <c r="I14" t="n">
-        <v>382.9455871582031</v>
+        <v>265.7103576660156</v>
       </c>
       <c r="J14" t="n">
-        <v>86.08547210693359</v>
+        <v>47.32128524780273</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>14.43724685121477</v>
       </c>
       <c r="G15" t="n">
-        <v>375.8694152832031</v>
+        <v>195.7701110839844</v>
       </c>
       <c r="H15" t="n">
-        <v>28.27974700927734</v>
+        <v>43.33456802368164</v>
       </c>
       <c r="I15" t="n">
-        <v>410.5798950195312</v>
+        <v>348.3564758300781</v>
       </c>
       <c r="J15" t="n">
-        <v>73.89263916015625</v>
+        <v>76.90766143798828</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>15.77509757365795</v>
       </c>
       <c r="G16" t="n">
-        <v>379.32421875</v>
+        <v>199.2495880126953</v>
       </c>
       <c r="H16" t="n">
-        <v>28.25710105895996</v>
+        <v>37.14453125</v>
       </c>
       <c r="I16" t="n">
-        <v>429.6340942382812</v>
+        <v>458.5595703125</v>
       </c>
       <c r="J16" t="n">
-        <v>64.95188903808594</v>
+        <v>79.11959838867188</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>17.01643502058164</v>
       </c>
       <c r="G17" t="n">
-        <v>387.8291931152344</v>
+        <v>200.9894409179688</v>
       </c>
       <c r="H17" t="n">
-        <v>27.64620780944824</v>
+        <v>32.66998291015625</v>
       </c>
       <c r="I17" t="n">
-        <v>443.8576965332031</v>
+        <v>554.9659423828125</v>
       </c>
       <c r="J17" t="n">
-        <v>59.06442642211914</v>
+        <v>42.65143966674805</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>17.57324774662381</v>
       </c>
       <c r="G18" t="n">
-        <v>392.5246887207031</v>
+        <v>202.9347839355469</v>
       </c>
       <c r="H18" t="n">
-        <v>26.5245532989502</v>
+        <v>30.32429504394531</v>
       </c>
       <c r="I18" t="n">
-        <v>450.2022399902344</v>
+        <v>580.0562744140625</v>
       </c>
       <c r="J18" t="n">
-        <v>61.19875717163086</v>
+        <v>65.19139862060547</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>18.2282289394109</v>
       </c>
       <c r="G19" t="n">
-        <v>401.2491760253906</v>
+        <v>203.2701416015625</v>
       </c>
       <c r="H19" t="n">
-        <v>27.44148445129395</v>
+        <v>25.29870796203613</v>
       </c>
       <c r="I19" t="n">
-        <v>454.8536987304688</v>
+        <v>552.6614379882812</v>
       </c>
       <c r="J19" t="n">
-        <v>56.44916534423828</v>
+        <v>133.9877777099609</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>18.05168677518481</v>
       </c>
       <c r="G20" t="n">
-        <v>410.4702758789062</v>
+        <v>203.74560546875</v>
       </c>
       <c r="H20" t="n">
-        <v>24.41758918762207</v>
+        <v>26.21728897094727</v>
       </c>
       <c r="I20" t="n">
-        <v>455.0971984863281</v>
+        <v>454.9620971679688</v>
       </c>
       <c r="J20" t="n">
-        <v>56.87409591674805</v>
+        <v>130.843017578125</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>17.30316829702608</v>
       </c>
       <c r="G21" t="n">
-        <v>425.2373046875</v>
+        <v>221.37158203125</v>
       </c>
       <c r="H21" t="n">
-        <v>24.80557441711426</v>
+        <v>30.46456527709961</v>
       </c>
       <c r="I21" t="n">
-        <v>440.2408447265625</v>
+        <v>385.0054016113281</v>
       </c>
       <c r="J21" t="n">
-        <v>70.75784301757812</v>
+        <v>128.478515625</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>15.87142913305469</v>
       </c>
       <c r="G22" t="n">
-        <v>445.6087036132812</v>
+        <v>288.0506286621094</v>
       </c>
       <c r="H22" t="n">
-        <v>26.41068840026855</v>
+        <v>33.92412948608398</v>
       </c>
       <c r="I22" t="n">
-        <v>421.9258422851562</v>
+        <v>271.1061706542969</v>
       </c>
       <c r="J22" t="n">
-        <v>81.25815582275391</v>
+        <v>109.8290557861328</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>16.2842163689804</v>
       </c>
       <c r="G23" t="n">
-        <v>363.1999206542969</v>
+        <v>192.8853454589844</v>
       </c>
       <c r="H23" t="n">
-        <v>28.20826148986816</v>
+        <v>50.72642135620117</v>
       </c>
       <c r="I23" t="n">
-        <v>349.7908630371094</v>
+        <v>181.8463287353516</v>
       </c>
       <c r="J23" t="n">
-        <v>89.15886688232422</v>
+        <v>69.99208831787109</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>17.99859633271077</v>
       </c>
       <c r="G24" t="n">
-        <v>368.5528869628906</v>
+        <v>197.8555908203125</v>
       </c>
       <c r="H24" t="n">
-        <v>27.62983512878418</v>
+        <v>45.0680046081543</v>
       </c>
       <c r="I24" t="n">
-        <v>381.3911743164062</v>
+        <v>211.0263824462891</v>
       </c>
       <c r="J24" t="n">
-        <v>81.29314422607422</v>
+        <v>69.25128173828125</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>19.53665474474453</v>
       </c>
       <c r="G25" t="n">
-        <v>375.1595764160156</v>
+        <v>200.1855926513672</v>
       </c>
       <c r="H25" t="n">
-        <v>27.59327507019043</v>
+        <v>39.60577011108398</v>
       </c>
       <c r="I25" t="n">
-        <v>401.1213989257812</v>
+        <v>257.7514038085938</v>
       </c>
       <c r="J25" t="n">
-        <v>74.40888977050781</v>
+        <v>95.36591339111328</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>21.18080958029204</v>
       </c>
       <c r="G26" t="n">
-        <v>382.3030090332031</v>
+        <v>201.7391967773438</v>
       </c>
       <c r="H26" t="n">
-        <v>28.20405387878418</v>
+        <v>36.06930923461914</v>
       </c>
       <c r="I26" t="n">
-        <v>416.0938415527344</v>
+        <v>332.5562744140625</v>
       </c>
       <c r="J26" t="n">
-        <v>72.64133453369141</v>
+        <v>80.94833374023438</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>22.36133238808863</v>
       </c>
       <c r="G27" t="n">
-        <v>389.591796875</v>
+        <v>201.9774017333984</v>
       </c>
       <c r="H27" t="n">
-        <v>26.14640998840332</v>
+        <v>33.0326042175293</v>
       </c>
       <c r="I27" t="n">
-        <v>433.1531066894531</v>
+        <v>443.3339538574219</v>
       </c>
       <c r="J27" t="n">
-        <v>67.19808197021484</v>
+        <v>90.51139831542969</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>22.25528267810615</v>
       </c>
       <c r="G28" t="n">
-        <v>397.2207946777344</v>
+        <v>201.7621459960938</v>
       </c>
       <c r="H28" t="n">
-        <v>26.28407287597656</v>
+        <v>30.26734161376953</v>
       </c>
       <c r="I28" t="n">
-        <v>440.4262390136719</v>
+        <v>452.861572265625</v>
       </c>
       <c r="J28" t="n">
-        <v>61.23685455322266</v>
+        <v>107.6263122558594</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>22.11853696692908</v>
       </c>
       <c r="G29" t="n">
-        <v>412.2499084472656</v>
+        <v>207.1044616699219</v>
       </c>
       <c r="H29" t="n">
-        <v>25.43990707397461</v>
+        <v>30.74037742614746</v>
       </c>
       <c r="I29" t="n">
-        <v>443.7078247070312</v>
+        <v>433.4615783691406</v>
       </c>
       <c r="J29" t="n">
-        <v>58.79115676879883</v>
+        <v>129.2726898193359</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>21.13587239531939</v>
       </c>
       <c r="G30" t="n">
-        <v>429.0813293457031</v>
+        <v>233.5958404541016</v>
       </c>
       <c r="H30" t="n">
-        <v>25.46852874755859</v>
+        <v>30.05039596557617</v>
       </c>
       <c r="I30" t="n">
-        <v>438.8312072753906</v>
+        <v>389.3607177734375</v>
       </c>
       <c r="J30" t="n">
-        <v>67.19949340820312</v>
+        <v>134.1702423095703</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>19.80061812897557</v>
       </c>
       <c r="G31" t="n">
-        <v>447.7859497070312</v>
+        <v>306.1245422363281</v>
       </c>
       <c r="H31" t="n">
-        <v>23.9729175567627</v>
+        <v>27.50014305114746</v>
       </c>
       <c r="I31" t="n">
-        <v>417.5845336914062</v>
+        <v>277.5563354492188</v>
       </c>
       <c r="J31" t="n">
-        <v>87.48397827148438</v>
+        <v>119.268798828125</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>20.55168297688286</v>
       </c>
       <c r="G32" t="n">
-        <v>359.213134765625</v>
+        <v>198.7430725097656</v>
       </c>
       <c r="H32" t="n">
-        <v>28.32734489440918</v>
+        <v>50.06632614135742</v>
       </c>
       <c r="I32" t="n">
-        <v>317.5141296386719</v>
+        <v>136.1523742675781</v>
       </c>
       <c r="J32" t="n">
-        <v>98.64371490478516</v>
+        <v>71.84446716308594</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>22.96934284445093</v>
       </c>
       <c r="G33" t="n">
-        <v>366.6471862792969</v>
+        <v>203.9548950195312</v>
       </c>
       <c r="H33" t="n">
-        <v>27.3071174621582</v>
+        <v>45.10844421386719</v>
       </c>
       <c r="I33" t="n">
-        <v>342.8547668457031</v>
+        <v>170.8938598632812</v>
       </c>
       <c r="J33" t="n">
-        <v>94.98149108886719</v>
+        <v>67.44239044189453</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>24.40915250803127</v>
       </c>
       <c r="G34" t="n">
-        <v>370.2333984375</v>
+        <v>206.1415710449219</v>
       </c>
       <c r="H34" t="n">
-        <v>27.46042251586914</v>
+        <v>41.7364387512207</v>
       </c>
       <c r="I34" t="n">
-        <v>371.8676147460938</v>
+        <v>198.0157928466797</v>
       </c>
       <c r="J34" t="n">
-        <v>83.18350219726562</v>
+        <v>70.46940612792969</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>26.0811880993595</v>
       </c>
       <c r="G35" t="n">
-        <v>379.580810546875</v>
+        <v>208.2109375</v>
       </c>
       <c r="H35" t="n">
-        <v>27.94532585144043</v>
+        <v>39.18682861328125</v>
       </c>
       <c r="I35" t="n">
-        <v>394.2941284179688</v>
+        <v>235.03955078125</v>
       </c>
       <c r="J35" t="n">
-        <v>74.88552856445312</v>
+        <v>84.12644195556641</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>26.87614780904968</v>
       </c>
       <c r="G36" t="n">
-        <v>386.1780395507812</v>
+        <v>206.9904022216797</v>
       </c>
       <c r="H36" t="n">
-        <v>27.84191131591797</v>
+        <v>36.90205383300781</v>
       </c>
       <c r="I36" t="n">
-        <v>416.1960144042969</v>
+        <v>303.9672241210938</v>
       </c>
       <c r="J36" t="n">
-        <v>71.09192657470703</v>
+        <v>77.01636505126953</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>27.16629873490772</v>
       </c>
       <c r="G37" t="n">
-        <v>393.2438354492188</v>
+        <v>208.8442993164062</v>
       </c>
       <c r="H37" t="n">
-        <v>25.46757888793945</v>
+        <v>37.11521530151367</v>
       </c>
       <c r="I37" t="n">
-        <v>419.0548400878906</v>
+        <v>360.9933776855469</v>
       </c>
       <c r="J37" t="n">
-        <v>69.82829284667969</v>
+        <v>53.35317993164062</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>27.25598473560972</v>
       </c>
       <c r="G38" t="n">
-        <v>406.7008972167969</v>
+        <v>219.7174530029297</v>
       </c>
       <c r="H38" t="n">
-        <v>24.46286582946777</v>
+        <v>34.75761795043945</v>
       </c>
       <c r="I38" t="n">
-        <v>427.4778442382812</v>
+        <v>393.8209228515625</v>
       </c>
       <c r="J38" t="n">
-        <v>72.47047424316406</v>
+        <v>75.30766296386719</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>26.04628332899345</v>
       </c>
       <c r="G39" t="n">
-        <v>428.0379638671875</v>
+        <v>249.2189331054688</v>
       </c>
       <c r="H39" t="n">
-        <v>26.8080883026123</v>
+        <v>31.91122436523438</v>
       </c>
       <c r="I39" t="n">
-        <v>421.4319152832031</v>
+        <v>367.4044189453125</v>
       </c>
       <c r="J39" t="n">
-        <v>76.64485931396484</v>
+        <v>134.2813873291016</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>23.96978635149335</v>
       </c>
       <c r="G40" t="n">
-        <v>450.9182434082031</v>
+        <v>328.3953247070312</v>
       </c>
       <c r="H40" t="n">
-        <v>25.53032875061035</v>
+        <v>25.66965103149414</v>
       </c>
       <c r="I40" t="n">
-        <v>400.5530700683594</v>
+        <v>294.8419494628906</v>
       </c>
       <c r="J40" t="n">
-        <v>92.24122619628906</v>
+        <v>158.5472412109375</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>25.6116837653232</v>
       </c>
       <c r="G41" t="n">
-        <v>360.4913330078125</v>
+        <v>207.6654205322266</v>
       </c>
       <c r="H41" t="n">
-        <v>28.02543449401855</v>
+        <v>47.75401306152344</v>
       </c>
       <c r="I41" t="n">
-        <v>296.0922241210938</v>
+        <v>107.231689453125</v>
       </c>
       <c r="J41" t="n">
-        <v>96.97303771972656</v>
+        <v>86.11459350585938</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>28.41067839248494</v>
       </c>
       <c r="G42" t="n">
-        <v>363.5075988769531</v>
+        <v>213.6815032958984</v>
       </c>
       <c r="H42" t="n">
-        <v>28.22387504577637</v>
+        <v>44.61699676513672</v>
       </c>
       <c r="I42" t="n">
-        <v>319.1215209960938</v>
+        <v>138.93505859375</v>
       </c>
       <c r="J42" t="n">
-        <v>91.51718902587891</v>
+        <v>67.83660125732422</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>30.68040031937237</v>
       </c>
       <c r="G43" t="n">
-        <v>369.1275634765625</v>
+        <v>217.4624633789062</v>
       </c>
       <c r="H43" t="n">
-        <v>27.08649635314941</v>
+        <v>42.61433410644531</v>
       </c>
       <c r="I43" t="n">
-        <v>334.0909729003906</v>
+        <v>172.2616882324219</v>
       </c>
       <c r="J43" t="n">
-        <v>90.02082061767578</v>
+        <v>60.66373443603516</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>32.34762367758118</v>
       </c>
       <c r="G44" t="n">
-        <v>374.1165161132812</v>
+        <v>219.3980407714844</v>
       </c>
       <c r="H44" t="n">
-        <v>27.69235610961914</v>
+        <v>41.13121795654297</v>
       </c>
       <c r="I44" t="n">
-        <v>365.1660766601562</v>
+        <v>210.431884765625</v>
       </c>
       <c r="J44" t="n">
-        <v>79.88849639892578</v>
+        <v>75.92888641357422</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>33.26712421235609</v>
       </c>
       <c r="G45" t="n">
-        <v>382.7475891113281</v>
+        <v>223.3004913330078</v>
       </c>
       <c r="H45" t="n">
-        <v>27.78489112854004</v>
+        <v>43.83113098144531</v>
       </c>
       <c r="I45" t="n">
-        <v>381.8503723144531</v>
+        <v>244.3033905029297</v>
       </c>
       <c r="J45" t="n">
-        <v>77.33165740966797</v>
+        <v>86.48629760742188</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>33.39925272231932</v>
       </c>
       <c r="G46" t="n">
-        <v>394.8126525878906</v>
+        <v>231.6346282958984</v>
       </c>
       <c r="H46" t="n">
-        <v>27.3180980682373</v>
+        <v>47.00971603393555</v>
       </c>
       <c r="I46" t="n">
-        <v>403.4883728027344</v>
+        <v>315.2740478515625</v>
       </c>
       <c r="J46" t="n">
-        <v>75.71820831298828</v>
+        <v>81.28199768066406</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>32.83385481517335</v>
       </c>
       <c r="G47" t="n">
-        <v>406.127685546875</v>
+        <v>240.6100311279297</v>
       </c>
       <c r="H47" t="n">
-        <v>26.54232215881348</v>
+        <v>43.82479858398438</v>
       </c>
       <c r="I47" t="n">
-        <v>411.6073303222656</v>
+        <v>347.7972106933594</v>
       </c>
       <c r="J47" t="n">
-        <v>71.67802429199219</v>
+        <v>74.81430053710938</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>31.22587875804939</v>
       </c>
       <c r="G48" t="n">
-        <v>427.6911315917969</v>
+        <v>279.9837951660156</v>
       </c>
       <c r="H48" t="n">
-        <v>25.55732727050781</v>
+        <v>38.30047988891602</v>
       </c>
       <c r="I48" t="n">
-        <v>408.298828125</v>
+        <v>358.9551696777344</v>
       </c>
       <c r="J48" t="n">
-        <v>81.12566375732422</v>
+        <v>135.8984222412109</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>28.00050845971687</v>
       </c>
       <c r="G49" t="n">
-        <v>451.606201171875</v>
+        <v>344.9247131347656</v>
       </c>
       <c r="H49" t="n">
-        <v>25.93669700622559</v>
+        <v>30.95834159851074</v>
       </c>
       <c r="I49" t="n">
-        <v>400.8568115234375</v>
+        <v>297.1380615234375</v>
       </c>
       <c r="J49" t="n">
-        <v>89.54064178466797</v>
+        <v>179.1387939453125</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>32.75859992753161</v>
       </c>
       <c r="G50" t="n">
-        <v>359.1517333984375</v>
+        <v>223.2176055908203</v>
       </c>
       <c r="H50" t="n">
-        <v>27.78376388549805</v>
+        <v>44.82970809936523</v>
       </c>
       <c r="I50" t="n">
-        <v>272.7567138671875</v>
+        <v>72.02190399169922</v>
       </c>
       <c r="J50" t="n">
-        <v>98.04290771484375</v>
+        <v>102.9229431152344</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>35.60454595063857</v>
       </c>
       <c r="G51" t="n">
-        <v>364.1138916015625</v>
+        <v>227.8544006347656</v>
       </c>
       <c r="H51" t="n">
-        <v>27.7718391418457</v>
+        <v>43.3754768371582</v>
       </c>
       <c r="I51" t="n">
-        <v>293.1388549804688</v>
+        <v>91.546630859375</v>
       </c>
       <c r="J51" t="n">
-        <v>100.2650756835938</v>
+        <v>102.4256744384766</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>38.13811789539464</v>
       </c>
       <c r="G52" t="n">
-        <v>367.4444885253906</v>
+        <v>233.5809173583984</v>
       </c>
       <c r="H52" t="n">
-        <v>27.62353897094727</v>
+        <v>45.16939926147461</v>
       </c>
       <c r="I52" t="n">
-        <v>305.184814453125</v>
+        <v>114.7770538330078</v>
       </c>
       <c r="J52" t="n">
-        <v>97.78956604003906</v>
+        <v>105.0015411376953</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>39.1380055059179</v>
       </c>
       <c r="G53" t="n">
-        <v>374.1478576660156</v>
+        <v>238.2033538818359</v>
       </c>
       <c r="H53" t="n">
-        <v>27.19668197631836</v>
+        <v>49.28217697143555</v>
       </c>
       <c r="I53" t="n">
-        <v>325.7828369140625</v>
+        <v>161.24072265625</v>
       </c>
       <c r="J53" t="n">
-        <v>93.8709716796875</v>
+        <v>97.31466674804688</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>40.17007780104868</v>
       </c>
       <c r="G54" t="n">
-        <v>381.4328002929688</v>
+        <v>247.6851348876953</v>
       </c>
       <c r="H54" t="n">
-        <v>26.78518676757812</v>
+        <v>55.37014389038086</v>
       </c>
       <c r="I54" t="n">
-        <v>348.3912963867188</v>
+        <v>217.8463134765625</v>
       </c>
       <c r="J54" t="n">
-        <v>82.96847534179688</v>
+        <v>85.96284484863281</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>40.31777520333784</v>
       </c>
       <c r="G55" t="n">
-        <v>389.7665100097656</v>
+        <v>257.8050842285156</v>
       </c>
       <c r="H55" t="n">
-        <v>27.37735939025879</v>
+        <v>56.97259902954102</v>
       </c>
       <c r="I55" t="n">
-        <v>370.6318054199219</v>
+        <v>269.4428100585938</v>
       </c>
       <c r="J55" t="n">
-        <v>76.5948486328125</v>
+        <v>89.25600433349609</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>38.89328689858721</v>
       </c>
       <c r="G56" t="n">
-        <v>404.561279296875</v>
+        <v>271.2019653320312</v>
       </c>
       <c r="H56" t="n">
-        <v>27.50343132019043</v>
+        <v>52.59972763061523</v>
       </c>
       <c r="I56" t="n">
-        <v>389.0888061523438</v>
+        <v>326.6923828125</v>
       </c>
       <c r="J56" t="n">
-        <v>79.48863983154297</v>
+        <v>88.28334808349609</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>36.03490394546852</v>
       </c>
       <c r="G57" t="n">
-        <v>424.84228515625</v>
+        <v>300.8291015625</v>
       </c>
       <c r="H57" t="n">
-        <v>26.05106735229492</v>
+        <v>45.59908676147461</v>
       </c>
       <c r="I57" t="n">
-        <v>394.3933715820312</v>
+        <v>329.8728637695312</v>
       </c>
       <c r="J57" t="n">
-        <v>81.06951141357422</v>
+        <v>88.30931091308594</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>33.0417017672229</v>
       </c>
       <c r="G58" t="n">
-        <v>450.9777221679688</v>
+        <v>362.335693359375</v>
       </c>
       <c r="H58" t="n">
-        <v>25.50094032287598</v>
+        <v>41.10596466064453</v>
       </c>
       <c r="I58" t="n">
-        <v>385.2449645996094</v>
+        <v>294.9355163574219</v>
       </c>
       <c r="J58" t="n">
-        <v>97.62964630126953</v>
+        <v>180.1015625</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>43.98768298598323</v>
       </c>
       <c r="G59" t="n">
-        <v>363.4585266113281</v>
+        <v>251.6532592773438</v>
       </c>
       <c r="H59" t="n">
-        <v>27.91312599182129</v>
+        <v>57.25450897216797</v>
       </c>
       <c r="I59" t="n">
-        <v>262.7206420898438</v>
+        <v>-43.91172027587891</v>
       </c>
       <c r="J59" t="n">
-        <v>99.8597412109375</v>
+        <v>181.0241546630859</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>45.7006317110727</v>
       </c>
       <c r="G60" t="n">
-        <v>366.885986328125</v>
+        <v>258.7378234863281</v>
       </c>
       <c r="H60" t="n">
-        <v>28.75186920166016</v>
+        <v>61.86856079101562</v>
       </c>
       <c r="I60" t="n">
-        <v>277.6995544433594</v>
+        <v>-8.188301086425781</v>
       </c>
       <c r="J60" t="n">
-        <v>97.35076904296875</v>
+        <v>184.9256591796875</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>46.67965674781412</v>
       </c>
       <c r="G61" t="n">
-        <v>373.3158569335938</v>
+        <v>265.370361328125</v>
       </c>
       <c r="H61" t="n">
-        <v>27.58979988098145</v>
+        <v>66.16725921630859</v>
       </c>
       <c r="I61" t="n">
-        <v>297.0329284667969</v>
+        <v>57.84500503540039</v>
       </c>
       <c r="J61" t="n">
-        <v>94.16371917724609</v>
+        <v>173.0496215820312</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>47.53914448671719</v>
       </c>
       <c r="G62" t="n">
-        <v>379.7358703613281</v>
+        <v>275.9403991699219</v>
       </c>
       <c r="H62" t="n">
-        <v>26.34573936462402</v>
+        <v>70.26824951171875</v>
       </c>
       <c r="I62" t="n">
-        <v>309.5865173339844</v>
+        <v>126.9810028076172</v>
       </c>
       <c r="J62" t="n">
-        <v>89.04312133789062</v>
+        <v>143.0185089111328</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>47.07121651777462</v>
       </c>
       <c r="G63" t="n">
-        <v>389.122314453125</v>
+        <v>289.9642944335938</v>
       </c>
       <c r="H63" t="n">
-        <v>28.51152229309082</v>
+        <v>67.20310974121094</v>
       </c>
       <c r="I63" t="n">
-        <v>336.3158569335938</v>
+        <v>217.0798034667969</v>
       </c>
       <c r="J63" t="n">
-        <v>84.84140777587891</v>
+        <v>100.6799163818359</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>45.67156598130153</v>
       </c>
       <c r="G64" t="n">
-        <v>400.1449890136719</v>
+        <v>307.6403198242188</v>
       </c>
       <c r="H64" t="n">
-        <v>28.3798770904541</v>
+        <v>59.45226287841797</v>
       </c>
       <c r="I64" t="n">
-        <v>368.1322326660156</v>
+        <v>304.8324890136719</v>
       </c>
       <c r="J64" t="n">
-        <v>84.30812835693359</v>
+        <v>102.1121444702148</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>42.51104340916319</v>
       </c>
       <c r="G65" t="n">
-        <v>419.9383239746094</v>
+        <v>333.5391540527344</v>
       </c>
       <c r="H65" t="n">
-        <v>25.64868927001953</v>
+        <v>53.90321731567383</v>
       </c>
       <c r="I65" t="n">
-        <v>379.0342407226562</v>
+        <v>300.0459594726562</v>
       </c>
       <c r="J65" t="n">
-        <v>81.54350280761719</v>
+        <v>86.69943237304688</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>54.37577254606605</v>
       </c>
       <c r="G66" t="n">
-        <v>368.814208984375</v>
+        <v>285.7703857421875</v>
       </c>
       <c r="H66" t="n">
-        <v>28.72645950317383</v>
+        <v>68.86785125732422</v>
       </c>
       <c r="I66" t="n">
-        <v>225.6248474121094</v>
+        <v>-121.6763687133789</v>
       </c>
       <c r="J66" t="n">
-        <v>104.3029022216797</v>
+        <v>203.1894378662109</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>55.07062752917076</v>
       </c>
       <c r="G67" t="n">
-        <v>372.7352600097656</v>
+        <v>293.2337951660156</v>
       </c>
       <c r="H67" t="n">
-        <v>27.70173072814941</v>
+        <v>67.96987915039062</v>
       </c>
       <c r="I67" t="n">
-        <v>248.9956207275391</v>
+        <v>-63.94087982177734</v>
       </c>
       <c r="J67" t="n">
-        <v>104.537956237793</v>
+        <v>211.3781280517578</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>54.82432856758766</v>
       </c>
       <c r="G68" t="n">
-        <v>379.1201171875</v>
+        <v>304.4530639648438</v>
       </c>
       <c r="H68" t="n">
-        <v>27.28972244262695</v>
+        <v>70.29116058349609</v>
       </c>
       <c r="I68" t="n">
-        <v>274.8077392578125</v>
+        <v>14.31021118164062</v>
       </c>
       <c r="J68" t="n">
-        <v>97.98152160644531</v>
+        <v>193.5276184082031</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>54.18769809434324</v>
       </c>
       <c r="G69" t="n">
-        <v>386.3962707519531</v>
+        <v>318.8457641601562</v>
       </c>
       <c r="H69" t="n">
-        <v>28.37163543701172</v>
+        <v>67.44911193847656</v>
       </c>
       <c r="I69" t="n">
-        <v>303.657958984375</v>
+        <v>132.1664123535156</v>
       </c>
       <c r="J69" t="n">
-        <v>95.28525543212891</v>
+        <v>159.04296875</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>51.347187815424</v>
       </c>
       <c r="G70" t="n">
-        <v>399.3856201171875</v>
+        <v>334.5734558105469</v>
       </c>
       <c r="H70" t="n">
-        <v>26.54878807067871</v>
+        <v>66.51399993896484</v>
       </c>
       <c r="I70" t="n">
-        <v>340.0702514648438</v>
+        <v>250.8511199951172</v>
       </c>
       <c r="J70" t="n">
-        <v>86.49823760986328</v>
+        <v>112.2198715209961</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML.xlsx
@@ -505,16 +505,16 @@
         <v>10.27148578895017</v>
       </c>
       <c r="G2" t="n">
-        <v>211.6277465820312</v>
+        <v>157.9385986328125</v>
       </c>
       <c r="H2" t="n">
-        <v>30.15880584716797</v>
+        <v>16.38915824890137</v>
       </c>
       <c r="I2" t="n">
-        <v>495.6626586914062</v>
+        <v>584.8927612304688</v>
       </c>
       <c r="J2" t="n">
-        <v>41.41725540161133</v>
+        <v>70.84120941162109</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>10.49540628405087</v>
       </c>
       <c r="G3" t="n">
-        <v>217.703369140625</v>
+        <v>178.3949432373047</v>
       </c>
       <c r="H3" t="n">
-        <v>31.95357131958008</v>
+        <v>19.86749649047852</v>
       </c>
       <c r="I3" t="n">
-        <v>517.8294067382812</v>
+        <v>633.2926635742188</v>
       </c>
       <c r="J3" t="n">
-        <v>86.36868286132812</v>
+        <v>123.5566101074219</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>11.11292799977388</v>
       </c>
       <c r="G4" t="n">
-        <v>218.9885864257812</v>
+        <v>198.29248046875</v>
       </c>
       <c r="H4" t="n">
-        <v>29.61130142211914</v>
+        <v>21.99613761901855</v>
       </c>
       <c r="I4" t="n">
-        <v>569.599853515625</v>
+        <v>684.9871215820312</v>
       </c>
       <c r="J4" t="n">
-        <v>131.0963287353516</v>
+        <v>152.2279663085938</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>11.33579528302992</v>
       </c>
       <c r="G5" t="n">
-        <v>221.6820831298828</v>
+        <v>224.7345275878906</v>
       </c>
       <c r="H5" t="n">
-        <v>21.13678359985352</v>
+        <v>25.19208717346191</v>
       </c>
       <c r="I5" t="n">
-        <v>564.8158569335938</v>
+        <v>695.7909545898438</v>
       </c>
       <c r="J5" t="n">
-        <v>108.7520370483398</v>
+        <v>144.2107849121094</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>11.53221857575777</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7204895019531</v>
+        <v>254.0516204833984</v>
       </c>
       <c r="H6" t="n">
-        <v>19.9261589050293</v>
+        <v>28.96309661865234</v>
       </c>
       <c r="I6" t="n">
-        <v>433.4638366699219</v>
+        <v>637.6685180664062</v>
       </c>
       <c r="J6" t="n">
-        <v>142.4200286865234</v>
+        <v>154.8824157714844</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>11.73836346032553</v>
       </c>
       <c r="G7" t="n">
-        <v>199.5134429931641</v>
+        <v>124.9965133666992</v>
       </c>
       <c r="H7" t="n">
-        <v>40.02546691894531</v>
+        <v>9.132893562316895</v>
       </c>
       <c r="I7" t="n">
-        <v>540.6355590820312</v>
+        <v>425.2063293457031</v>
       </c>
       <c r="J7" t="n">
-        <v>18.65006256103516</v>
+        <v>72.69908142089844</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>12.47588443056982</v>
       </c>
       <c r="G8" t="n">
-        <v>203.6831207275391</v>
+        <v>136.7091674804688</v>
       </c>
       <c r="H8" t="n">
-        <v>34.26762008666992</v>
+        <v>10.90971851348877</v>
       </c>
       <c r="I8" t="n">
-        <v>550.3091430664062</v>
+        <v>518.6381225585938</v>
       </c>
       <c r="J8" t="n">
-        <v>18.60427284240723</v>
+        <v>112.1425323486328</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>13.31360035996819</v>
       </c>
       <c r="G9" t="n">
-        <v>207.9856872558594</v>
+        <v>152.5089874267578</v>
       </c>
       <c r="H9" t="n">
-        <v>29.89386558532715</v>
+        <v>12.96860122680664</v>
       </c>
       <c r="I9" t="n">
-        <v>566.6705932617188</v>
+        <v>587.13671875</v>
       </c>
       <c r="J9" t="n">
-        <v>36.68145370483398</v>
+        <v>113.7189712524414</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>14.04586286313179</v>
       </c>
       <c r="G10" t="n">
-        <v>209.7131652832031</v>
+        <v>173.3276214599609</v>
       </c>
       <c r="H10" t="n">
-        <v>28.90085792541504</v>
+        <v>14.98508548736572</v>
       </c>
       <c r="I10" t="n">
-        <v>615.27294921875</v>
+        <v>643.4890747070312</v>
       </c>
       <c r="J10" t="n">
-        <v>92.85682678222656</v>
+        <v>145.8057403564453</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>14.78596965177877</v>
       </c>
       <c r="G11" t="n">
-        <v>208.9482727050781</v>
+        <v>201.5845184326172</v>
       </c>
       <c r="H11" t="n">
-        <v>20.91991233825684</v>
+        <v>17.95958518981934</v>
       </c>
       <c r="I11" t="n">
-        <v>617.1141357421875</v>
+        <v>620.1832275390625</v>
       </c>
       <c r="J11" t="n">
-        <v>138.1226501464844</v>
+        <v>142.8047485351562</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>14.60750023008277</v>
       </c>
       <c r="G12" t="n">
-        <v>209.4120025634766</v>
+        <v>231.4865112304688</v>
       </c>
       <c r="H12" t="n">
-        <v>17.90985488891602</v>
+        <v>21.96439170837402</v>
       </c>
       <c r="I12" t="n">
-        <v>471.6324462890625</v>
+        <v>535.4805908203125</v>
       </c>
       <c r="J12" t="n">
-        <v>154.3607330322266</v>
+        <v>143.5767822265625</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>13.93632017907879</v>
       </c>
       <c r="G13" t="n">
-        <v>228.0254211425781</v>
+        <v>279.046875</v>
       </c>
       <c r="H13" t="n">
-        <v>28.84817314147949</v>
+        <v>30.52161407470703</v>
       </c>
       <c r="I13" t="n">
-        <v>364.20166015625</v>
+        <v>418.5439453125</v>
       </c>
       <c r="J13" t="n">
-        <v>116.5608596801758</v>
+        <v>222.1009979248047</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>13.2060787967079</v>
       </c>
       <c r="G14" t="n">
-        <v>191.5503692626953</v>
+        <v>108.407600402832</v>
       </c>
       <c r="H14" t="n">
-        <v>50.34303283691406</v>
+        <v>5.751511573791504</v>
       </c>
       <c r="I14" t="n">
-        <v>265.7103576660156</v>
+        <v>241.1860656738281</v>
       </c>
       <c r="J14" t="n">
-        <v>47.32128524780273</v>
+        <v>22.75586891174316</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>14.43724685121477</v>
       </c>
       <c r="G15" t="n">
-        <v>195.7701110839844</v>
+        <v>115.8075942993164</v>
       </c>
       <c r="H15" t="n">
-        <v>43.33456802368164</v>
+        <v>6.891263961791992</v>
       </c>
       <c r="I15" t="n">
-        <v>348.3564758300781</v>
+        <v>301.3431701660156</v>
       </c>
       <c r="J15" t="n">
-        <v>76.90766143798828</v>
+        <v>31.03596305847168</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>15.77509757365795</v>
       </c>
       <c r="G16" t="n">
-        <v>199.2495880126953</v>
+        <v>125.5222930908203</v>
       </c>
       <c r="H16" t="n">
-        <v>37.14453125</v>
+        <v>8.087960243225098</v>
       </c>
       <c r="I16" t="n">
-        <v>458.5595703125</v>
+        <v>341.651611328125</v>
       </c>
       <c r="J16" t="n">
-        <v>79.11959838867188</v>
+        <v>46.34327697753906</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>17.01643502058164</v>
       </c>
       <c r="G17" t="n">
-        <v>200.9894409179688</v>
+        <v>140.8669586181641</v>
       </c>
       <c r="H17" t="n">
-        <v>32.66998291015625</v>
+        <v>9.635567665100098</v>
       </c>
       <c r="I17" t="n">
-        <v>554.9659423828125</v>
+        <v>408.1294250488281</v>
       </c>
       <c r="J17" t="n">
-        <v>42.65143966674805</v>
+        <v>107.623779296875</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>17.57324774662381</v>
       </c>
       <c r="G18" t="n">
-        <v>202.9347839355469</v>
+        <v>153.8891754150391</v>
       </c>
       <c r="H18" t="n">
-        <v>30.32429504394531</v>
+        <v>10.69712162017822</v>
       </c>
       <c r="I18" t="n">
-        <v>580.0562744140625</v>
+        <v>443.4960021972656</v>
       </c>
       <c r="J18" t="n">
-        <v>65.19139862060547</v>
+        <v>142.346435546875</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>18.2282289394109</v>
       </c>
       <c r="G19" t="n">
-        <v>203.2701416015625</v>
+        <v>183.12939453125</v>
       </c>
       <c r="H19" t="n">
-        <v>25.29870796203613</v>
+        <v>13.52887630462646</v>
       </c>
       <c r="I19" t="n">
-        <v>552.6614379882812</v>
+        <v>449.6155700683594</v>
       </c>
       <c r="J19" t="n">
-        <v>133.9877777099609</v>
+        <v>154.209716796875</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>18.05168677518481</v>
       </c>
       <c r="G20" t="n">
-        <v>203.74560546875</v>
+        <v>213.0793304443359</v>
       </c>
       <c r="H20" t="n">
-        <v>26.21728897094727</v>
+        <v>17.88677978515625</v>
       </c>
       <c r="I20" t="n">
-        <v>454.9620971679688</v>
+        <v>410.5405883789062</v>
       </c>
       <c r="J20" t="n">
-        <v>130.843017578125</v>
+        <v>180.5727233886719</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>17.30316829702608</v>
       </c>
       <c r="G21" t="n">
-        <v>221.37158203125</v>
+        <v>260.6024169921875</v>
       </c>
       <c r="H21" t="n">
-        <v>30.46456527709961</v>
+        <v>27.35110092163086</v>
       </c>
       <c r="I21" t="n">
-        <v>385.0054016113281</v>
+        <v>355.6128234863281</v>
       </c>
       <c r="J21" t="n">
-        <v>128.478515625</v>
+        <v>228.6040191650391</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>15.87142913305469</v>
       </c>
       <c r="G22" t="n">
-        <v>288.0506286621094</v>
+        <v>324.9469909667969</v>
       </c>
       <c r="H22" t="n">
-        <v>33.92412948608398</v>
+        <v>42.47231292724609</v>
       </c>
       <c r="I22" t="n">
-        <v>271.1061706542969</v>
+        <v>281.4085388183594</v>
       </c>
       <c r="J22" t="n">
-        <v>109.8290557861328</v>
+        <v>257.3609619140625</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>16.2842163689804</v>
       </c>
       <c r="G23" t="n">
-        <v>192.8853454589844</v>
+        <v>106.3608474731445</v>
       </c>
       <c r="H23" t="n">
-        <v>50.72642135620117</v>
+        <v>5.151000022888184</v>
       </c>
       <c r="I23" t="n">
-        <v>181.8463287353516</v>
+        <v>96.78688049316406</v>
       </c>
       <c r="J23" t="n">
-        <v>69.99208831787109</v>
+        <v>27.48605918884277</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>17.99859633271077</v>
       </c>
       <c r="G24" t="n">
-        <v>197.8555908203125</v>
+        <v>112.327262878418</v>
       </c>
       <c r="H24" t="n">
-        <v>45.0680046081543</v>
+        <v>5.974670886993408</v>
       </c>
       <c r="I24" t="n">
-        <v>211.0263824462891</v>
+        <v>182.1569366455078</v>
       </c>
       <c r="J24" t="n">
-        <v>69.25128173828125</v>
+        <v>27.40126609802246</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>19.53665474474453</v>
       </c>
       <c r="G25" t="n">
-        <v>200.1855926513672</v>
+        <v>120.1028900146484</v>
       </c>
       <c r="H25" t="n">
-        <v>39.60577011108398</v>
+        <v>6.756199359893799</v>
       </c>
       <c r="I25" t="n">
-        <v>257.7514038085938</v>
+        <v>240.9547882080078</v>
       </c>
       <c r="J25" t="n">
-        <v>95.36591339111328</v>
+        <v>47.2114143371582</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>21.18080958029204</v>
       </c>
       <c r="G26" t="n">
-        <v>201.7391967773438</v>
+        <v>131.8179016113281</v>
       </c>
       <c r="H26" t="n">
-        <v>36.06930923461914</v>
+        <v>7.600432395935059</v>
       </c>
       <c r="I26" t="n">
-        <v>332.5562744140625</v>
+        <v>293.9553527832031</v>
       </c>
       <c r="J26" t="n">
-        <v>80.94833374023438</v>
+        <v>77.05960845947266</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>22.36133238808863</v>
       </c>
       <c r="G27" t="n">
-        <v>201.9774017333984</v>
+        <v>150.0475311279297</v>
       </c>
       <c r="H27" t="n">
-        <v>33.0326042175293</v>
+        <v>8.722037315368652</v>
       </c>
       <c r="I27" t="n">
-        <v>443.3339538574219</v>
+        <v>340.4812622070312</v>
       </c>
       <c r="J27" t="n">
-        <v>90.51139831542969</v>
+        <v>115.3464431762695</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>22.25528267810615</v>
       </c>
       <c r="G28" t="n">
-        <v>201.7621459960938</v>
+        <v>170.2150268554688</v>
       </c>
       <c r="H28" t="n">
-        <v>30.26734161376953</v>
+        <v>10.73478126525879</v>
       </c>
       <c r="I28" t="n">
-        <v>452.861572265625</v>
+        <v>346.29736328125</v>
       </c>
       <c r="J28" t="n">
-        <v>107.6263122558594</v>
+        <v>155.5730285644531</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>22.11853696692908</v>
       </c>
       <c r="G29" t="n">
-        <v>207.1044616699219</v>
+        <v>203.9187164306641</v>
       </c>
       <c r="H29" t="n">
-        <v>30.74037742614746</v>
+        <v>16.77241897583008</v>
       </c>
       <c r="I29" t="n">
-        <v>433.4615783691406</v>
+        <v>304.7930297851562</v>
       </c>
       <c r="J29" t="n">
-        <v>129.2726898193359</v>
+        <v>191.0279846191406</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>21.13587239531939</v>
       </c>
       <c r="G30" t="n">
-        <v>233.5958404541016</v>
+        <v>256.4552612304688</v>
       </c>
       <c r="H30" t="n">
-        <v>30.05039596557617</v>
+        <v>29.99834251403809</v>
       </c>
       <c r="I30" t="n">
-        <v>389.3607177734375</v>
+        <v>275.9146728515625</v>
       </c>
       <c r="J30" t="n">
-        <v>134.1702423095703</v>
+        <v>221.75048828125</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>19.80061812897557</v>
       </c>
       <c r="G31" t="n">
-        <v>306.1245422363281</v>
+        <v>318.46533203125</v>
       </c>
       <c r="H31" t="n">
-        <v>27.50014305114746</v>
+        <v>48.30576705932617</v>
       </c>
       <c r="I31" t="n">
-        <v>277.5563354492188</v>
+        <v>236.5296630859375</v>
       </c>
       <c r="J31" t="n">
-        <v>119.268798828125</v>
+        <v>281.8402709960938</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>20.55168297688286</v>
       </c>
       <c r="G32" t="n">
-        <v>198.7430725097656</v>
+        <v>106.381217956543</v>
       </c>
       <c r="H32" t="n">
-        <v>50.06632614135742</v>
+        <v>5.003132343292236</v>
       </c>
       <c r="I32" t="n">
-        <v>136.1523742675781</v>
+        <v>-1.09287965297699</v>
       </c>
       <c r="J32" t="n">
-        <v>71.84446716308594</v>
+        <v>42.36887741088867</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>22.96934284445093</v>
       </c>
       <c r="G33" t="n">
-        <v>203.9548950195312</v>
+        <v>112.7226181030273</v>
       </c>
       <c r="H33" t="n">
-        <v>45.10844421386719</v>
+        <v>5.746875286102295</v>
       </c>
       <c r="I33" t="n">
-        <v>170.8938598632812</v>
+        <v>52.51264190673828</v>
       </c>
       <c r="J33" t="n">
-        <v>67.44239044189453</v>
+        <v>37.05306243896484</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>24.40915250803127</v>
       </c>
       <c r="G34" t="n">
-        <v>206.1415710449219</v>
+        <v>119.4719009399414</v>
       </c>
       <c r="H34" t="n">
-        <v>41.7364387512207</v>
+        <v>6.303715229034424</v>
       </c>
       <c r="I34" t="n">
-        <v>198.0157928466797</v>
+        <v>108.6084365844727</v>
       </c>
       <c r="J34" t="n">
-        <v>70.46940612792969</v>
+        <v>37.10925674438477</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>26.0811880993595</v>
       </c>
       <c r="G35" t="n">
-        <v>208.2109375</v>
+        <v>129.9599304199219</v>
       </c>
       <c r="H35" t="n">
-        <v>39.18682861328125</v>
+        <v>6.874544620513916</v>
       </c>
       <c r="I35" t="n">
-        <v>235.03955078125</v>
+        <v>171.9393157958984</v>
       </c>
       <c r="J35" t="n">
-        <v>84.12644195556641</v>
+        <v>61.26014709472656</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>26.87614780904968</v>
       </c>
       <c r="G36" t="n">
-        <v>206.9904022216797</v>
+        <v>144.5510101318359</v>
       </c>
       <c r="H36" t="n">
-        <v>36.90205383300781</v>
+        <v>7.61731481552124</v>
       </c>
       <c r="I36" t="n">
-        <v>303.9672241210938</v>
+        <v>236.1792907714844</v>
       </c>
       <c r="J36" t="n">
-        <v>77.01636505126953</v>
+        <v>115.4781341552734</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>27.16629873490772</v>
       </c>
       <c r="G37" t="n">
-        <v>208.8442993164062</v>
+        <v>164.0926971435547</v>
       </c>
       <c r="H37" t="n">
-        <v>37.11521530151367</v>
+        <v>9.582232475280762</v>
       </c>
       <c r="I37" t="n">
-        <v>360.9933776855469</v>
+        <v>252.8685455322266</v>
       </c>
       <c r="J37" t="n">
-        <v>53.35317993164062</v>
+        <v>149.0065612792969</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>27.25598473560972</v>
       </c>
       <c r="G38" t="n">
-        <v>219.7174530029297</v>
+        <v>200.7481689453125</v>
       </c>
       <c r="H38" t="n">
-        <v>34.75761795043945</v>
+        <v>16.63299560546875</v>
       </c>
       <c r="I38" t="n">
-        <v>393.8209228515625</v>
+        <v>251.1022338867188</v>
       </c>
       <c r="J38" t="n">
-        <v>75.30766296386719</v>
+        <v>196.3770141601562</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>26.04628332899345</v>
       </c>
       <c r="G39" t="n">
-        <v>249.2189331054688</v>
+        <v>249.5130004882812</v>
       </c>
       <c r="H39" t="n">
-        <v>31.91122436523438</v>
+        <v>33.1259880065918</v>
       </c>
       <c r="I39" t="n">
-        <v>367.4044189453125</v>
+        <v>219.3760375976562</v>
       </c>
       <c r="J39" t="n">
-        <v>134.2813873291016</v>
+        <v>252.5522003173828</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>23.96978635149335</v>
       </c>
       <c r="G40" t="n">
-        <v>328.3953247070312</v>
+        <v>318.7562255859375</v>
       </c>
       <c r="H40" t="n">
-        <v>25.66965103149414</v>
+        <v>55.62483215332031</v>
       </c>
       <c r="I40" t="n">
-        <v>294.8419494628906</v>
+        <v>213.9657135009766</v>
       </c>
       <c r="J40" t="n">
-        <v>158.5472412109375</v>
+        <v>294.4698486328125</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>25.6116837653232</v>
       </c>
       <c r="G41" t="n">
-        <v>207.6654205322266</v>
+        <v>108.2068710327148</v>
       </c>
       <c r="H41" t="n">
-        <v>47.75401306152344</v>
+        <v>5.263435363769531</v>
       </c>
       <c r="I41" t="n">
-        <v>107.231689453125</v>
+        <v>-33.50778579711914</v>
       </c>
       <c r="J41" t="n">
-        <v>86.11459350585938</v>
+        <v>53.94812774658203</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>28.41067839248494</v>
       </c>
       <c r="G42" t="n">
-        <v>213.6815032958984</v>
+        <v>114.5818634033203</v>
       </c>
       <c r="H42" t="n">
-        <v>44.61699676513672</v>
+        <v>5.990899085998535</v>
       </c>
       <c r="I42" t="n">
-        <v>138.93505859375</v>
+        <v>-6.661489486694336</v>
       </c>
       <c r="J42" t="n">
-        <v>67.83660125732422</v>
+        <v>47.63332748413086</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>30.68040031937237</v>
       </c>
       <c r="G43" t="n">
-        <v>217.4624633789062</v>
+        <v>122.0109100341797</v>
       </c>
       <c r="H43" t="n">
-        <v>42.61433410644531</v>
+        <v>6.563181400299072</v>
       </c>
       <c r="I43" t="n">
-        <v>172.2616882324219</v>
+        <v>22.39376068115234</v>
       </c>
       <c r="J43" t="n">
-        <v>60.66373443603516</v>
+        <v>40.97716522216797</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>32.34762367758118</v>
       </c>
       <c r="G44" t="n">
-        <v>219.3980407714844</v>
+        <v>132.359130859375</v>
       </c>
       <c r="H44" t="n">
-        <v>41.13121795654297</v>
+        <v>7.119894027709961</v>
       </c>
       <c r="I44" t="n">
-        <v>210.431884765625</v>
+        <v>67.28914642333984</v>
       </c>
       <c r="J44" t="n">
-        <v>75.92888641357422</v>
+        <v>38.80680084228516</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>33.26712421235609</v>
       </c>
       <c r="G45" t="n">
-        <v>223.3004913330078</v>
+        <v>145.7488555908203</v>
       </c>
       <c r="H45" t="n">
-        <v>43.83113098144531</v>
+        <v>7.824922561645508</v>
       </c>
       <c r="I45" t="n">
-        <v>244.3033905029297</v>
+        <v>114.9293365478516</v>
       </c>
       <c r="J45" t="n">
-        <v>86.48629760742188</v>
+        <v>60.13195419311523</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>33.39925272231932</v>
       </c>
       <c r="G46" t="n">
-        <v>231.6346282958984</v>
+        <v>167.3098754882812</v>
       </c>
       <c r="H46" t="n">
-        <v>47.00971603393555</v>
+        <v>10.68513584136963</v>
       </c>
       <c r="I46" t="n">
-        <v>315.2740478515625</v>
+        <v>173.8643035888672</v>
       </c>
       <c r="J46" t="n">
-        <v>81.28199768066406</v>
+        <v>122.77001953125</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>32.83385481517335</v>
       </c>
       <c r="G47" t="n">
-        <v>240.6100311279297</v>
+        <v>196.0074310302734</v>
       </c>
       <c r="H47" t="n">
-        <v>43.82479858398438</v>
+        <v>17.93072128295898</v>
       </c>
       <c r="I47" t="n">
-        <v>347.7972106933594</v>
+        <v>194.2415313720703</v>
       </c>
       <c r="J47" t="n">
-        <v>74.81430053710938</v>
+        <v>166.6770477294922</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>31.22587875804939</v>
       </c>
       <c r="G48" t="n">
-        <v>279.9837951660156</v>
+        <v>252.2112426757812</v>
       </c>
       <c r="H48" t="n">
-        <v>38.30047988891602</v>
+        <v>38.42350769042969</v>
       </c>
       <c r="I48" t="n">
-        <v>358.9551696777344</v>
+        <v>189.2571411132812</v>
       </c>
       <c r="J48" t="n">
-        <v>135.8984222412109</v>
+        <v>262.6135864257812</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>28.00050845971687</v>
       </c>
       <c r="G49" t="n">
-        <v>344.9247131347656</v>
+        <v>315.7886047363281</v>
       </c>
       <c r="H49" t="n">
-        <v>30.95834159851074</v>
+        <v>63.52627182006836</v>
       </c>
       <c r="I49" t="n">
-        <v>297.1380615234375</v>
+        <v>185.3572998046875</v>
       </c>
       <c r="J49" t="n">
-        <v>179.1387939453125</v>
+        <v>311.2833862304688</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>32.75859992753161</v>
       </c>
       <c r="G50" t="n">
-        <v>223.2176055908203</v>
+        <v>113.9449844360352</v>
       </c>
       <c r="H50" t="n">
-        <v>44.82970809936523</v>
+        <v>6.310511112213135</v>
       </c>
       <c r="I50" t="n">
-        <v>72.02190399169922</v>
+        <v>-26.45685195922852</v>
       </c>
       <c r="J50" t="n">
-        <v>102.9229431152344</v>
+        <v>66.19798278808594</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>35.60454595063857</v>
       </c>
       <c r="G51" t="n">
-        <v>227.8544006347656</v>
+        <v>120.8021850585938</v>
       </c>
       <c r="H51" t="n">
-        <v>43.3754768371582</v>
+        <v>7.183061599731445</v>
       </c>
       <c r="I51" t="n">
-        <v>91.546630859375</v>
+        <v>-10.41341495513916</v>
       </c>
       <c r="J51" t="n">
-        <v>102.4256744384766</v>
+        <v>61.87325668334961</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>38.13811789539464</v>
       </c>
       <c r="G52" t="n">
-        <v>233.5809173583984</v>
+        <v>128.6001892089844</v>
       </c>
       <c r="H52" t="n">
-        <v>45.16939926147461</v>
+        <v>8.104876518249512</v>
       </c>
       <c r="I52" t="n">
-        <v>114.7770538330078</v>
+        <v>5.943960666656494</v>
       </c>
       <c r="J52" t="n">
-        <v>105.0015411376953</v>
+        <v>57.25037384033203</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>39.1380055059179</v>
       </c>
       <c r="G53" t="n">
-        <v>238.2033538818359</v>
+        <v>137.4869384765625</v>
       </c>
       <c r="H53" t="n">
-        <v>49.28217697143555</v>
+        <v>8.737706184387207</v>
       </c>
       <c r="I53" t="n">
-        <v>161.24072265625</v>
+        <v>25.05721664428711</v>
       </c>
       <c r="J53" t="n">
-        <v>97.31466674804688</v>
+        <v>48.16620635986328</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>40.17007780104868</v>
       </c>
       <c r="G54" t="n">
-        <v>247.6851348876953</v>
+        <v>151.9257049560547</v>
       </c>
       <c r="H54" t="n">
-        <v>55.37014389038086</v>
+        <v>10.11858558654785</v>
       </c>
       <c r="I54" t="n">
-        <v>217.8463134765625</v>
+        <v>51.92715072631836</v>
       </c>
       <c r="J54" t="n">
-        <v>85.96284484863281</v>
+        <v>46.74308395385742</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>40.31777520333784</v>
       </c>
       <c r="G55" t="n">
-        <v>257.8050842285156</v>
+        <v>170.7857360839844</v>
       </c>
       <c r="H55" t="n">
-        <v>56.97259902954102</v>
+        <v>13.27797031402588</v>
       </c>
       <c r="I55" t="n">
-        <v>269.4428100585938</v>
+        <v>89.13576507568359</v>
       </c>
       <c r="J55" t="n">
-        <v>89.25600433349609</v>
+        <v>60.40581893920898</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>38.89328689858721</v>
       </c>
       <c r="G56" t="n">
-        <v>271.2019653320312</v>
+        <v>199.4996795654297</v>
       </c>
       <c r="H56" t="n">
-        <v>52.59972763061523</v>
+        <v>21.73610687255859</v>
       </c>
       <c r="I56" t="n">
-        <v>326.6923828125</v>
+        <v>144.0066070556641</v>
       </c>
       <c r="J56" t="n">
-        <v>88.28334808349609</v>
+        <v>126.0919799804688</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>36.03490394546852</v>
       </c>
       <c r="G57" t="n">
-        <v>300.8291015625</v>
+        <v>248.1333618164062</v>
       </c>
       <c r="H57" t="n">
-        <v>45.59908676147461</v>
+        <v>40.15125274658203</v>
       </c>
       <c r="I57" t="n">
-        <v>329.8728637695312</v>
+        <v>169.3828582763672</v>
       </c>
       <c r="J57" t="n">
-        <v>88.30931091308594</v>
+        <v>234.5693664550781</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>33.0417017672229</v>
       </c>
       <c r="G58" t="n">
-        <v>362.335693359375</v>
+        <v>313.1988525390625</v>
       </c>
       <c r="H58" t="n">
-        <v>41.10596466064453</v>
+        <v>69.07410430908203</v>
       </c>
       <c r="I58" t="n">
-        <v>294.9355163574219</v>
+        <v>159.94677734375</v>
       </c>
       <c r="J58" t="n">
-        <v>180.1015625</v>
+        <v>317.86669921875</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>43.98768298598323</v>
       </c>
       <c r="G59" t="n">
-        <v>251.6532592773438</v>
+        <v>130.6004791259766</v>
       </c>
       <c r="H59" t="n">
-        <v>57.25450897216797</v>
+        <v>10.03674125671387</v>
       </c>
       <c r="I59" t="n">
-        <v>-43.91172027587891</v>
+        <v>-5.623807430267334</v>
       </c>
       <c r="J59" t="n">
-        <v>181.0241546630859</v>
+        <v>90.18682861328125</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>45.7006317110727</v>
       </c>
       <c r="G60" t="n">
-        <v>258.7378234863281</v>
+        <v>138.0260162353516</v>
       </c>
       <c r="H60" t="n">
-        <v>61.86856079101562</v>
+        <v>11.25029373168945</v>
       </c>
       <c r="I60" t="n">
-        <v>-8.188301086425781</v>
+        <v>3.079832315444946</v>
       </c>
       <c r="J60" t="n">
-        <v>184.9256591796875</v>
+        <v>87.82835388183594</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>46.67965674781412</v>
       </c>
       <c r="G61" t="n">
-        <v>265.370361328125</v>
+        <v>147.7294616699219</v>
       </c>
       <c r="H61" t="n">
-        <v>66.16725921630859</v>
+        <v>12.57549476623535</v>
       </c>
       <c r="I61" t="n">
-        <v>57.84500503540039</v>
+        <v>17.97773551940918</v>
       </c>
       <c r="J61" t="n">
-        <v>173.0496215820312</v>
+        <v>77.83389282226562</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>47.53914448671719</v>
       </c>
       <c r="G62" t="n">
-        <v>275.9403991699219</v>
+        <v>159.6309967041016</v>
       </c>
       <c r="H62" t="n">
-        <v>70.26824951171875</v>
+        <v>14.48781299591064</v>
       </c>
       <c r="I62" t="n">
-        <v>126.9810028076172</v>
+        <v>32.64040756225586</v>
       </c>
       <c r="J62" t="n">
-        <v>143.0185089111328</v>
+        <v>67.4766845703125</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>47.07121651777462</v>
       </c>
       <c r="G63" t="n">
-        <v>289.9642944335938</v>
+        <v>178.3357086181641</v>
       </c>
       <c r="H63" t="n">
-        <v>67.20310974121094</v>
+        <v>17.94464683532715</v>
       </c>
       <c r="I63" t="n">
-        <v>217.0798034667969</v>
+        <v>45.8696403503418</v>
       </c>
       <c r="J63" t="n">
-        <v>100.6799163818359</v>
+        <v>60.68939971923828</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>45.67156598130153</v>
       </c>
       <c r="G64" t="n">
-        <v>307.6403198242188</v>
+        <v>206.3692169189453</v>
       </c>
       <c r="H64" t="n">
-        <v>59.45226287841797</v>
+        <v>25.53501510620117</v>
       </c>
       <c r="I64" t="n">
-        <v>304.8324890136719</v>
+        <v>95.228515625</v>
       </c>
       <c r="J64" t="n">
-        <v>102.1121444702148</v>
+        <v>89.06438446044922</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>42.51104340916319</v>
       </c>
       <c r="G65" t="n">
-        <v>333.5391540527344</v>
+        <v>247.2278137207031</v>
       </c>
       <c r="H65" t="n">
-        <v>53.90321731567383</v>
+        <v>42.7286491394043</v>
       </c>
       <c r="I65" t="n">
-        <v>300.0459594726562</v>
+        <v>130.8104095458984</v>
       </c>
       <c r="J65" t="n">
-        <v>86.69943237304688</v>
+        <v>186.9097137451172</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>54.37577254606605</v>
       </c>
       <c r="G66" t="n">
-        <v>285.7703857421875</v>
+        <v>152.0643157958984</v>
       </c>
       <c r="H66" t="n">
-        <v>68.86785125732422</v>
+        <v>17.65098571777344</v>
       </c>
       <c r="I66" t="n">
-        <v>-121.6763687133789</v>
+        <v>2.593856573104858</v>
       </c>
       <c r="J66" t="n">
-        <v>203.1894378662109</v>
+        <v>135.2477874755859</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>55.07062752917076</v>
       </c>
       <c r="G67" t="n">
-        <v>293.2337951660156</v>
+        <v>160.8020935058594</v>
       </c>
       <c r="H67" t="n">
-        <v>67.96987915039062</v>
+        <v>19.27951622009277</v>
       </c>
       <c r="I67" t="n">
-        <v>-63.94087982177734</v>
+        <v>13.2368803024292</v>
       </c>
       <c r="J67" t="n">
-        <v>211.3781280517578</v>
+        <v>124.8137817382812</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>54.82432856758766</v>
       </c>
       <c r="G68" t="n">
-        <v>304.4530639648438</v>
+        <v>171.0765991210938</v>
       </c>
       <c r="H68" t="n">
-        <v>70.29116058349609</v>
+        <v>20.78280067443848</v>
       </c>
       <c r="I68" t="n">
-        <v>14.31021118164062</v>
+        <v>27.77239990234375</v>
       </c>
       <c r="J68" t="n">
-        <v>193.5276184082031</v>
+        <v>100.0768127441406</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>54.18769809434324</v>
       </c>
       <c r="G69" t="n">
-        <v>318.8457641601562</v>
+        <v>187.3278961181641</v>
       </c>
       <c r="H69" t="n">
-        <v>67.44911193847656</v>
+        <v>23.70742034912109</v>
       </c>
       <c r="I69" t="n">
-        <v>132.1664123535156</v>
+        <v>39.5716552734375</v>
       </c>
       <c r="J69" t="n">
-        <v>159.04296875</v>
+        <v>70.49314880371094</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>51.347187815424</v>
       </c>
       <c r="G70" t="n">
-        <v>334.5734558105469</v>
+        <v>208.6986389160156</v>
       </c>
       <c r="H70" t="n">
-        <v>66.51399993896484</v>
+        <v>28.82411003112793</v>
       </c>
       <c r="I70" t="n">
-        <v>250.8511199951172</v>
+        <v>51.71187591552734</v>
       </c>
       <c r="J70" t="n">
-        <v>112.2198715209961</v>
+        <v>73.78205871582031</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML.xlsx
@@ -505,16 +505,16 @@
         <v>10.27148578895017</v>
       </c>
       <c r="G2" t="n">
-        <v>157.9385986328125</v>
+        <v>187.7593383789062</v>
       </c>
       <c r="H2" t="n">
-        <v>16.38915824890137</v>
+        <v>38.20542526245117</v>
       </c>
       <c r="I2" t="n">
-        <v>584.8927612304688</v>
+        <v>609.4690551757812</v>
       </c>
       <c r="J2" t="n">
-        <v>70.84120941162109</v>
+        <v>31.87102699279785</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>10.49540628405087</v>
       </c>
       <c r="G3" t="n">
-        <v>178.3949432373047</v>
+        <v>205.7818145751953</v>
       </c>
       <c r="H3" t="n">
-        <v>19.86749649047852</v>
+        <v>34.62489318847656</v>
       </c>
       <c r="I3" t="n">
-        <v>633.2926635742188</v>
+        <v>650.0316162109375</v>
       </c>
       <c r="J3" t="n">
-        <v>123.5566101074219</v>
+        <v>41.32267761230469</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>11.11292799977388</v>
       </c>
       <c r="G4" t="n">
-        <v>198.29248046875</v>
+        <v>220.3870544433594</v>
       </c>
       <c r="H4" t="n">
-        <v>21.99613761901855</v>
+        <v>30.1179370880127</v>
       </c>
       <c r="I4" t="n">
-        <v>684.9871215820312</v>
+        <v>664.7586059570312</v>
       </c>
       <c r="J4" t="n">
-        <v>152.2279663085938</v>
+        <v>49.78505706787109</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>11.33579528302992</v>
       </c>
       <c r="G5" t="n">
-        <v>224.7345275878906</v>
+        <v>240.0341949462891</v>
       </c>
       <c r="H5" t="n">
-        <v>25.19208717346191</v>
+        <v>26.62800788879395</v>
       </c>
       <c r="I5" t="n">
-        <v>695.7909545898438</v>
+        <v>671.9821166992188</v>
       </c>
       <c r="J5" t="n">
-        <v>144.2107849121094</v>
+        <v>58.76813125610352</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>11.53221857575777</v>
       </c>
       <c r="G6" t="n">
-        <v>254.0516204833984</v>
+        <v>260.8135681152344</v>
       </c>
       <c r="H6" t="n">
-        <v>28.96309661865234</v>
+        <v>26.71239280700684</v>
       </c>
       <c r="I6" t="n">
-        <v>637.6685180664062</v>
+        <v>659.2393798828125</v>
       </c>
       <c r="J6" t="n">
-        <v>154.8824157714844</v>
+        <v>63.67740249633789</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>11.73836346032553</v>
       </c>
       <c r="G7" t="n">
-        <v>124.9965133666992</v>
+        <v>156.2633666992188</v>
       </c>
       <c r="H7" t="n">
-        <v>9.132893562316895</v>
+        <v>44.63897705078125</v>
       </c>
       <c r="I7" t="n">
-        <v>425.2063293457031</v>
+        <v>435.8276672363281</v>
       </c>
       <c r="J7" t="n">
-        <v>72.69908142089844</v>
+        <v>16.75054168701172</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>12.47588443056982</v>
       </c>
       <c r="G8" t="n">
-        <v>136.7091674804688</v>
+        <v>163.6292724609375</v>
       </c>
       <c r="H8" t="n">
-        <v>10.90971851348877</v>
+        <v>40.21843338012695</v>
       </c>
       <c r="I8" t="n">
-        <v>518.6381225585938</v>
+        <v>491.6841125488281</v>
       </c>
       <c r="J8" t="n">
-        <v>112.1425323486328</v>
+        <v>18.91196632385254</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>13.31360035996819</v>
       </c>
       <c r="G9" t="n">
-        <v>152.5089874267578</v>
+        <v>173.8573760986328</v>
       </c>
       <c r="H9" t="n">
-        <v>12.96860122680664</v>
+        <v>35.2779541015625</v>
       </c>
       <c r="I9" t="n">
-        <v>587.13671875</v>
+        <v>539.4544067382812</v>
       </c>
       <c r="J9" t="n">
-        <v>113.7189712524414</v>
+        <v>24.89957618713379</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>14.04586286313179</v>
       </c>
       <c r="G10" t="n">
-        <v>173.3276214599609</v>
+        <v>187.0898284912109</v>
       </c>
       <c r="H10" t="n">
-        <v>14.98508548736572</v>
+        <v>29.26708030700684</v>
       </c>
       <c r="I10" t="n">
-        <v>643.4890747070312</v>
+        <v>568.0185546875</v>
       </c>
       <c r="J10" t="n">
-        <v>145.8057403564453</v>
+        <v>32.40155792236328</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>14.78596965177877</v>
       </c>
       <c r="G11" t="n">
-        <v>201.5845184326172</v>
+        <v>207.0909271240234</v>
       </c>
       <c r="H11" t="n">
-        <v>17.95958518981934</v>
+        <v>24.52899742126465</v>
       </c>
       <c r="I11" t="n">
-        <v>620.1832275390625</v>
+        <v>591.824462890625</v>
       </c>
       <c r="J11" t="n">
-        <v>142.8047485351562</v>
+        <v>41.33603668212891</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>14.60750023008277</v>
       </c>
       <c r="G12" t="n">
-        <v>231.4865112304688</v>
+        <v>229.667236328125</v>
       </c>
       <c r="H12" t="n">
-        <v>21.96439170837402</v>
+        <v>23.34235382080078</v>
       </c>
       <c r="I12" t="n">
-        <v>535.4805908203125</v>
+        <v>592.365478515625</v>
       </c>
       <c r="J12" t="n">
-        <v>143.5767822265625</v>
+        <v>47.94972991943359</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>13.93632017907879</v>
       </c>
       <c r="G13" t="n">
-        <v>279.046875</v>
+        <v>275.0437622070312</v>
       </c>
       <c r="H13" t="n">
-        <v>30.52161407470703</v>
+        <v>27.71808433532715</v>
       </c>
       <c r="I13" t="n">
-        <v>418.5439453125</v>
+        <v>590.6017456054688</v>
       </c>
       <c r="J13" t="n">
-        <v>222.1009979248047</v>
+        <v>59.73014068603516</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>13.2060787967079</v>
       </c>
       <c r="G14" t="n">
-        <v>108.407600402832</v>
+        <v>153.6952819824219</v>
       </c>
       <c r="H14" t="n">
-        <v>5.751511573791504</v>
+        <v>52.17692184448242</v>
       </c>
       <c r="I14" t="n">
-        <v>241.1860656738281</v>
+        <v>231.6369323730469</v>
       </c>
       <c r="J14" t="n">
-        <v>22.75586891174316</v>
+        <v>32.57680892944336</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>14.43724685121477</v>
       </c>
       <c r="G15" t="n">
-        <v>115.8075942993164</v>
+        <v>152.8104095458984</v>
       </c>
       <c r="H15" t="n">
-        <v>6.891263961791992</v>
+        <v>47.84370422363281</v>
       </c>
       <c r="I15" t="n">
-        <v>301.3431701660156</v>
+        <v>301.3110656738281</v>
       </c>
       <c r="J15" t="n">
-        <v>31.03596305847168</v>
+        <v>27.95816230773926</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>15.77509757365795</v>
       </c>
       <c r="G16" t="n">
-        <v>125.5222930908203</v>
+        <v>154.8702239990234</v>
       </c>
       <c r="H16" t="n">
-        <v>8.087960243225098</v>
+        <v>43.08932495117188</v>
       </c>
       <c r="I16" t="n">
-        <v>341.651611328125</v>
+        <v>361.9043884277344</v>
       </c>
       <c r="J16" t="n">
-        <v>46.34327697753906</v>
+        <v>23.75104522705078</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>17.01643502058164</v>
       </c>
       <c r="G17" t="n">
-        <v>140.8669586181641</v>
+        <v>160.2974548339844</v>
       </c>
       <c r="H17" t="n">
-        <v>9.635567665100098</v>
+        <v>36.96759033203125</v>
       </c>
       <c r="I17" t="n">
-        <v>408.1294250488281</v>
+        <v>425.5024108886719</v>
       </c>
       <c r="J17" t="n">
-        <v>107.623779296875</v>
+        <v>21.47724723815918</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>17.57324774662381</v>
       </c>
       <c r="G18" t="n">
-        <v>153.8891754150391</v>
+        <v>166.1610107421875</v>
       </c>
       <c r="H18" t="n">
-        <v>10.69712162017822</v>
+        <v>32.40015029907227</v>
       </c>
       <c r="I18" t="n">
-        <v>443.4960021972656</v>
+        <v>455.6719665527344</v>
       </c>
       <c r="J18" t="n">
-        <v>142.346435546875</v>
+        <v>23.30954551696777</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>18.2282289394109</v>
       </c>
       <c r="G19" t="n">
-        <v>183.12939453125</v>
+        <v>183.2056579589844</v>
       </c>
       <c r="H19" t="n">
-        <v>13.52887630462646</v>
+        <v>25.16591835021973</v>
       </c>
       <c r="I19" t="n">
-        <v>449.6155700683594</v>
+        <v>497.243896484375</v>
       </c>
       <c r="J19" t="n">
-        <v>154.209716796875</v>
+        <v>33.5947380065918</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>18.05168677518481</v>
       </c>
       <c r="G20" t="n">
-        <v>213.0793304443359</v>
+        <v>205.5201873779297</v>
       </c>
       <c r="H20" t="n">
-        <v>17.88677978515625</v>
+        <v>22.06772041320801</v>
       </c>
       <c r="I20" t="n">
-        <v>410.5405883789062</v>
+        <v>513.0673217773438</v>
       </c>
       <c r="J20" t="n">
-        <v>180.5727233886719</v>
+        <v>48.12950897216797</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>17.30316829702608</v>
       </c>
       <c r="G21" t="n">
-        <v>260.6024169921875</v>
+        <v>253.00732421875</v>
       </c>
       <c r="H21" t="n">
-        <v>27.35110092163086</v>
+        <v>24.20174217224121</v>
       </c>
       <c r="I21" t="n">
-        <v>355.6128234863281</v>
+        <v>529.0672607421875</v>
       </c>
       <c r="J21" t="n">
-        <v>228.6040191650391</v>
+        <v>71.746337890625</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>15.87142913305469</v>
       </c>
       <c r="G22" t="n">
-        <v>324.9469909667969</v>
+        <v>338.635986328125</v>
       </c>
       <c r="H22" t="n">
-        <v>42.47231292724609</v>
+        <v>29.79738998413086</v>
       </c>
       <c r="I22" t="n">
-        <v>281.4085388183594</v>
+        <v>542.64892578125</v>
       </c>
       <c r="J22" t="n">
-        <v>257.3609619140625</v>
+        <v>102.1363525390625</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>16.2842163689804</v>
       </c>
       <c r="G23" t="n">
-        <v>106.3608474731445</v>
+        <v>158.3580322265625</v>
       </c>
       <c r="H23" t="n">
-        <v>5.151000022888184</v>
+        <v>53.1440544128418</v>
       </c>
       <c r="I23" t="n">
-        <v>96.78688049316406</v>
+        <v>130.4209442138672</v>
       </c>
       <c r="J23" t="n">
-        <v>27.48605918884277</v>
+        <v>49.09952545166016</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>17.99859633271077</v>
       </c>
       <c r="G24" t="n">
-        <v>112.327262878418</v>
+        <v>156.2932891845703</v>
       </c>
       <c r="H24" t="n">
-        <v>5.974670886993408</v>
+        <v>49.38636016845703</v>
       </c>
       <c r="I24" t="n">
-        <v>182.1569366455078</v>
+        <v>190.4857788085938</v>
       </c>
       <c r="J24" t="n">
-        <v>27.40126609802246</v>
+        <v>46.6959342956543</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>19.53665474474453</v>
       </c>
       <c r="G25" t="n">
-        <v>120.1028900146484</v>
+        <v>154.9292602539062</v>
       </c>
       <c r="H25" t="n">
-        <v>6.756199359893799</v>
+        <v>45.00101089477539</v>
       </c>
       <c r="I25" t="n">
-        <v>240.9547882080078</v>
+        <v>237.3115386962891</v>
       </c>
       <c r="J25" t="n">
-        <v>47.2114143371582</v>
+        <v>46.63278198242188</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>21.18080958029204</v>
       </c>
       <c r="G26" t="n">
-        <v>131.8179016113281</v>
+        <v>155.6131439208984</v>
       </c>
       <c r="H26" t="n">
-        <v>7.600432395935059</v>
+        <v>39.59701156616211</v>
       </c>
       <c r="I26" t="n">
-        <v>293.9553527832031</v>
+        <v>290.2091979980469</v>
       </c>
       <c r="J26" t="n">
-        <v>77.05960845947266</v>
+        <v>46.30007171630859</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>22.36133238808863</v>
       </c>
       <c r="G27" t="n">
-        <v>150.0475311279297</v>
+        <v>160.5526580810547</v>
       </c>
       <c r="H27" t="n">
-        <v>8.722037315368652</v>
+        <v>32.86513519287109</v>
       </c>
       <c r="I27" t="n">
-        <v>340.4812622070312</v>
+        <v>351.3201293945312</v>
       </c>
       <c r="J27" t="n">
-        <v>115.3464431762695</v>
+        <v>46.46833419799805</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>22.25528267810615</v>
       </c>
       <c r="G28" t="n">
-        <v>170.2150268554688</v>
+        <v>169.1411285400391</v>
       </c>
       <c r="H28" t="n">
-        <v>10.73478126525879</v>
+        <v>27.12397956848145</v>
       </c>
       <c r="I28" t="n">
-        <v>346.29736328125</v>
+        <v>395.0824890136719</v>
       </c>
       <c r="J28" t="n">
-        <v>155.5730285644531</v>
+        <v>53.30783462524414</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>22.11853696692908</v>
       </c>
       <c r="G29" t="n">
-        <v>203.9187164306641</v>
+        <v>192.8898162841797</v>
       </c>
       <c r="H29" t="n">
-        <v>16.77241897583008</v>
+        <v>22.39694976806641</v>
       </c>
       <c r="I29" t="n">
-        <v>304.7930297851562</v>
+        <v>436.1593627929688</v>
       </c>
       <c r="J29" t="n">
-        <v>191.0279846191406</v>
+        <v>72.86570739746094</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>21.13587239531939</v>
       </c>
       <c r="G30" t="n">
-        <v>256.4552612304688</v>
+        <v>249.5253601074219</v>
       </c>
       <c r="H30" t="n">
-        <v>29.99834251403809</v>
+        <v>24.20760917663574</v>
       </c>
       <c r="I30" t="n">
-        <v>275.9146728515625</v>
+        <v>488.7449035644531</v>
       </c>
       <c r="J30" t="n">
-        <v>221.75048828125</v>
+        <v>95.42200469970703</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>19.80061812897557</v>
       </c>
       <c r="G31" t="n">
-        <v>318.46533203125</v>
+        <v>335.1827697753906</v>
       </c>
       <c r="H31" t="n">
-        <v>48.30576705932617</v>
+        <v>32.34092330932617</v>
       </c>
       <c r="I31" t="n">
-        <v>236.5296630859375</v>
+        <v>501.5503234863281</v>
       </c>
       <c r="J31" t="n">
-        <v>281.8402709960938</v>
+        <v>133.5425262451172</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>20.55168297688286</v>
       </c>
       <c r="G32" t="n">
-        <v>106.381217956543</v>
+        <v>164.4620666503906</v>
       </c>
       <c r="H32" t="n">
-        <v>5.003132343292236</v>
+        <v>52.82892608642578</v>
       </c>
       <c r="I32" t="n">
-        <v>-1.09287965297699</v>
+        <v>39.71992111206055</v>
       </c>
       <c r="J32" t="n">
-        <v>42.36887741088867</v>
+        <v>66.01054382324219</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>22.96934284445093</v>
       </c>
       <c r="G33" t="n">
-        <v>112.7226181030273</v>
+        <v>161.7828369140625</v>
       </c>
       <c r="H33" t="n">
-        <v>5.746875286102295</v>
+        <v>48.6829719543457</v>
       </c>
       <c r="I33" t="n">
-        <v>52.51264190673828</v>
+        <v>84.38911437988281</v>
       </c>
       <c r="J33" t="n">
-        <v>37.05306243896484</v>
+        <v>69.91248321533203</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>24.40915250803127</v>
       </c>
       <c r="G34" t="n">
-        <v>119.4719009399414</v>
+        <v>159.3628845214844</v>
       </c>
       <c r="H34" t="n">
-        <v>6.303715229034424</v>
+        <v>44.95780563354492</v>
       </c>
       <c r="I34" t="n">
-        <v>108.6084365844727</v>
+        <v>127.1793365478516</v>
       </c>
       <c r="J34" t="n">
-        <v>37.10925674438477</v>
+        <v>71.95925903320312</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>26.0811880993595</v>
       </c>
       <c r="G35" t="n">
-        <v>129.9599304199219</v>
+        <v>158.2648773193359</v>
       </c>
       <c r="H35" t="n">
-        <v>6.874544620513916</v>
+        <v>40.01526260375977</v>
       </c>
       <c r="I35" t="n">
-        <v>171.9393157958984</v>
+        <v>175.0029907226562</v>
       </c>
       <c r="J35" t="n">
-        <v>61.26014709472656</v>
+        <v>74.76204681396484</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>26.87614780904968</v>
       </c>
       <c r="G36" t="n">
-        <v>144.5510101318359</v>
+        <v>158.8215484619141</v>
       </c>
       <c r="H36" t="n">
-        <v>7.61731481552124</v>
+        <v>34.45157623291016</v>
       </c>
       <c r="I36" t="n">
-        <v>236.1792907714844</v>
+        <v>237.1104736328125</v>
       </c>
       <c r="J36" t="n">
-        <v>115.4781341552734</v>
+        <v>76.49707794189453</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>27.16629873490772</v>
       </c>
       <c r="G37" t="n">
-        <v>164.0926971435547</v>
+        <v>163.5196533203125</v>
       </c>
       <c r="H37" t="n">
-        <v>9.582232475280762</v>
+        <v>28.49149703979492</v>
       </c>
       <c r="I37" t="n">
-        <v>252.8685455322266</v>
+        <v>281.3624572753906</v>
       </c>
       <c r="J37" t="n">
-        <v>149.0065612792969</v>
+        <v>88.64347839355469</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>27.25598473560972</v>
       </c>
       <c r="G38" t="n">
-        <v>200.7481689453125</v>
+        <v>186.5726165771484</v>
       </c>
       <c r="H38" t="n">
-        <v>16.63299560546875</v>
+        <v>22.87131881713867</v>
       </c>
       <c r="I38" t="n">
-        <v>251.1022338867188</v>
+        <v>357.9401550292969</v>
       </c>
       <c r="J38" t="n">
-        <v>196.3770141601562</v>
+        <v>100.2641830444336</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>26.04628332899345</v>
       </c>
       <c r="G39" t="n">
-        <v>249.5130004882812</v>
+        <v>238.4364318847656</v>
       </c>
       <c r="H39" t="n">
-        <v>33.1259880065918</v>
+        <v>25.82297325134277</v>
       </c>
       <c r="I39" t="n">
-        <v>219.3760375976562</v>
+        <v>418.0305786132812</v>
       </c>
       <c r="J39" t="n">
-        <v>252.5522003173828</v>
+        <v>130.7870483398438</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>23.96978635149335</v>
       </c>
       <c r="G40" t="n">
-        <v>318.7562255859375</v>
+        <v>333.4393005371094</v>
       </c>
       <c r="H40" t="n">
-        <v>55.62483215332031</v>
+        <v>35.51179122924805</v>
       </c>
       <c r="I40" t="n">
-        <v>213.9657135009766</v>
+        <v>478.1557312011719</v>
       </c>
       <c r="J40" t="n">
-        <v>294.4698486328125</v>
+        <v>152.1785888671875</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>25.6116837653232</v>
       </c>
       <c r="G41" t="n">
-        <v>108.2068710327148</v>
+        <v>171.2502288818359</v>
       </c>
       <c r="H41" t="n">
-        <v>5.263435363769531</v>
+        <v>51.173095703125</v>
       </c>
       <c r="I41" t="n">
-        <v>-33.50778579711914</v>
+        <v>-39.45584487915039</v>
       </c>
       <c r="J41" t="n">
-        <v>53.94812774658203</v>
+        <v>81.39377593994141</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>28.41067839248494</v>
       </c>
       <c r="G42" t="n">
-        <v>114.5818634033203</v>
+        <v>169.6292877197266</v>
       </c>
       <c r="H42" t="n">
-        <v>5.990899085998535</v>
+        <v>47.16989517211914</v>
       </c>
       <c r="I42" t="n">
-        <v>-6.661489486694336</v>
+        <v>-10.05640602111816</v>
       </c>
       <c r="J42" t="n">
-        <v>47.63332748413086</v>
+        <v>88.54999542236328</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>30.68040031937237</v>
       </c>
       <c r="G43" t="n">
-        <v>122.0109100341797</v>
+        <v>167.6140441894531</v>
       </c>
       <c r="H43" t="n">
-        <v>6.563181400299072</v>
+        <v>43.35918426513672</v>
       </c>
       <c r="I43" t="n">
-        <v>22.39376068115234</v>
+        <v>21.56244277954102</v>
       </c>
       <c r="J43" t="n">
-        <v>40.97716522216797</v>
+        <v>95.10405731201172</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>32.34762367758118</v>
       </c>
       <c r="G44" t="n">
-        <v>132.359130859375</v>
+        <v>165.7731475830078</v>
       </c>
       <c r="H44" t="n">
-        <v>7.119894027709961</v>
+        <v>38.85861968994141</v>
       </c>
       <c r="I44" t="n">
-        <v>67.28914642333984</v>
+        <v>69.54108428955078</v>
       </c>
       <c r="J44" t="n">
-        <v>38.80680084228516</v>
+        <v>99.51205444335938</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>33.26712421235609</v>
       </c>
       <c r="G45" t="n">
-        <v>145.7488555908203</v>
+        <v>164.3755493164062</v>
       </c>
       <c r="H45" t="n">
-        <v>7.824922561645508</v>
+        <v>33.94300079345703</v>
       </c>
       <c r="I45" t="n">
-        <v>114.9293365478516</v>
+        <v>118.8915252685547</v>
       </c>
       <c r="J45" t="n">
-        <v>60.13195419311523</v>
+        <v>106.6174926757812</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>33.39925272231932</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098754882812</v>
+        <v>167.4355163574219</v>
       </c>
       <c r="H46" t="n">
-        <v>10.68513584136963</v>
+        <v>28.17555809020996</v>
       </c>
       <c r="I46" t="n">
-        <v>173.8643035888672</v>
+        <v>195.7824249267578</v>
       </c>
       <c r="J46" t="n">
-        <v>122.77001953125</v>
+        <v>115.3943939208984</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>32.83385481517335</v>
       </c>
       <c r="G47" t="n">
-        <v>196.0074310302734</v>
+        <v>181.7370758056641</v>
       </c>
       <c r="H47" t="n">
-        <v>17.93072128295898</v>
+        <v>24.13088989257812</v>
       </c>
       <c r="I47" t="n">
-        <v>194.2415313720703</v>
+        <v>266.7563171386719</v>
       </c>
       <c r="J47" t="n">
-        <v>166.6770477294922</v>
+        <v>129.1654510498047</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>31.22587875804939</v>
       </c>
       <c r="G48" t="n">
-        <v>252.2112426757812</v>
+        <v>237.2800445556641</v>
       </c>
       <c r="H48" t="n">
-        <v>38.42350769042969</v>
+        <v>27.54129219055176</v>
       </c>
       <c r="I48" t="n">
-        <v>189.2571411132812</v>
+        <v>374.5636901855469</v>
       </c>
       <c r="J48" t="n">
-        <v>262.6135864257812</v>
+        <v>151.4840393066406</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>28.00050845971687</v>
       </c>
       <c r="G49" t="n">
-        <v>315.7886047363281</v>
+        <v>328.0287780761719</v>
       </c>
       <c r="H49" t="n">
-        <v>63.52627182006836</v>
+        <v>39.06486892700195</v>
       </c>
       <c r="I49" t="n">
-        <v>185.3572998046875</v>
+        <v>448.3633728027344</v>
       </c>
       <c r="J49" t="n">
-        <v>311.2833862304688</v>
+        <v>172.8314514160156</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>32.75859992753161</v>
       </c>
       <c r="G50" t="n">
-        <v>113.9449844360352</v>
+        <v>179.3073120117188</v>
       </c>
       <c r="H50" t="n">
-        <v>6.310511112213135</v>
+        <v>47.15061569213867</v>
       </c>
       <c r="I50" t="n">
-        <v>-26.45685195922852</v>
+        <v>-108.4115829467773</v>
       </c>
       <c r="J50" t="n">
-        <v>66.19798278808594</v>
+        <v>97.96058654785156</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>35.60454595063857</v>
       </c>
       <c r="G51" t="n">
-        <v>120.8021850585938</v>
+        <v>178.9670104980469</v>
       </c>
       <c r="H51" t="n">
-        <v>7.183061599731445</v>
+        <v>43.54241943359375</v>
       </c>
       <c r="I51" t="n">
-        <v>-10.41341495513916</v>
+        <v>-87.58307647705078</v>
       </c>
       <c r="J51" t="n">
-        <v>61.87325668334961</v>
+        <v>105.3299407958984</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>38.13811789539464</v>
       </c>
       <c r="G52" t="n">
-        <v>128.6001892089844</v>
+        <v>178.8105010986328</v>
       </c>
       <c r="H52" t="n">
-        <v>8.104876518249512</v>
+        <v>39.9862174987793</v>
       </c>
       <c r="I52" t="n">
-        <v>5.943960666656494</v>
+        <v>-70.33880615234375</v>
       </c>
       <c r="J52" t="n">
-        <v>57.25037384033203</v>
+        <v>112.5864868164062</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>39.1380055059179</v>
       </c>
       <c r="G53" t="n">
-        <v>137.4869384765625</v>
+        <v>175.8967132568359</v>
       </c>
       <c r="H53" t="n">
-        <v>8.737706184387207</v>
+        <v>36.62131881713867</v>
       </c>
       <c r="I53" t="n">
-        <v>25.05721664428711</v>
+        <v>-29.5229434967041</v>
       </c>
       <c r="J53" t="n">
-        <v>48.16620635986328</v>
+        <v>118.5520248413086</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>40.17007780104868</v>
       </c>
       <c r="G54" t="n">
-        <v>151.9257049560547</v>
+        <v>173.6161651611328</v>
       </c>
       <c r="H54" t="n">
-        <v>10.11858558654785</v>
+        <v>32.07380676269531</v>
       </c>
       <c r="I54" t="n">
-        <v>51.92715072631836</v>
+        <v>25.80020713806152</v>
       </c>
       <c r="J54" t="n">
-        <v>46.74308395385742</v>
+        <v>127.406005859375</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>40.31777520333784</v>
       </c>
       <c r="G55" t="n">
-        <v>170.7857360839844</v>
+        <v>174.2816619873047</v>
       </c>
       <c r="H55" t="n">
-        <v>13.27797031402588</v>
+        <v>27.6604061126709</v>
       </c>
       <c r="I55" t="n">
-        <v>89.13576507568359</v>
+        <v>91.19012451171875</v>
       </c>
       <c r="J55" t="n">
-        <v>60.40581893920898</v>
+        <v>138.1891479492188</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>38.89328689858721</v>
       </c>
       <c r="G56" t="n">
-        <v>199.4996795654297</v>
+        <v>185.005859375</v>
       </c>
       <c r="H56" t="n">
-        <v>21.73610687255859</v>
+        <v>24.72018432617188</v>
       </c>
       <c r="I56" t="n">
-        <v>144.0066070556641</v>
+        <v>194.0654296875</v>
       </c>
       <c r="J56" t="n">
-        <v>126.0919799804688</v>
+        <v>149.9880523681641</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>36.03490394546852</v>
       </c>
       <c r="G57" t="n">
-        <v>248.1333618164062</v>
+        <v>228.4935150146484</v>
       </c>
       <c r="H57" t="n">
-        <v>40.15125274658203</v>
+        <v>27.78556251525879</v>
       </c>
       <c r="I57" t="n">
-        <v>169.3828582763672</v>
+        <v>322.7808837890625</v>
       </c>
       <c r="J57" t="n">
-        <v>234.5693664550781</v>
+        <v>163.7731475830078</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>33.0417017672229</v>
       </c>
       <c r="G58" t="n">
-        <v>313.1988525390625</v>
+        <v>316.55419921875</v>
       </c>
       <c r="H58" t="n">
-        <v>69.07410430908203</v>
+        <v>39.95666122436523</v>
       </c>
       <c r="I58" t="n">
-        <v>159.94677734375</v>
+        <v>413.4909362792969</v>
       </c>
       <c r="J58" t="n">
-        <v>317.86669921875</v>
+        <v>188.7794952392578</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>43.98768298598323</v>
       </c>
       <c r="G59" t="n">
-        <v>130.6004791259766</v>
+        <v>190.6306762695312</v>
       </c>
       <c r="H59" t="n">
-        <v>10.03674125671387</v>
+        <v>38.739501953125</v>
       </c>
       <c r="I59" t="n">
-        <v>-5.623807430267334</v>
+        <v>-166.0569915771484</v>
       </c>
       <c r="J59" t="n">
-        <v>90.18682861328125</v>
+        <v>119.2702865600586</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>45.7006317110727</v>
       </c>
       <c r="G60" t="n">
-        <v>138.0260162353516</v>
+        <v>189.5677642822266</v>
       </c>
       <c r="H60" t="n">
-        <v>11.25029373168945</v>
+        <v>36.02424621582031</v>
       </c>
       <c r="I60" t="n">
-        <v>3.079832315444946</v>
+        <v>-145.0120849609375</v>
       </c>
       <c r="J60" t="n">
-        <v>87.82835388183594</v>
+        <v>125.802604675293</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>46.67965674781412</v>
       </c>
       <c r="G61" t="n">
-        <v>147.7294616699219</v>
+        <v>187.1262664794922</v>
       </c>
       <c r="H61" t="n">
-        <v>12.57549476623535</v>
+        <v>33.04098510742188</v>
       </c>
       <c r="I61" t="n">
-        <v>17.97773551940918</v>
+        <v>-101.6595077514648</v>
       </c>
       <c r="J61" t="n">
-        <v>77.83389282226562</v>
+        <v>131.9097137451172</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>47.53914448671719</v>
       </c>
       <c r="G62" t="n">
-        <v>159.6309967041016</v>
+        <v>185.7787017822266</v>
       </c>
       <c r="H62" t="n">
-        <v>14.48781299591064</v>
+        <v>29.90266227722168</v>
       </c>
       <c r="I62" t="n">
-        <v>32.64040756225586</v>
+        <v>-57.58355331420898</v>
       </c>
       <c r="J62" t="n">
-        <v>67.4766845703125</v>
+        <v>138.4692077636719</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>47.07121651777462</v>
       </c>
       <c r="G63" t="n">
-        <v>178.3357086181641</v>
+        <v>184.0646057128906</v>
       </c>
       <c r="H63" t="n">
-        <v>17.94464683532715</v>
+        <v>26.43744850158691</v>
       </c>
       <c r="I63" t="n">
-        <v>45.8696403503418</v>
+        <v>14.09173202514648</v>
       </c>
       <c r="J63" t="n">
-        <v>60.68939971923828</v>
+        <v>151.7220916748047</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>45.67156598130153</v>
       </c>
       <c r="G64" t="n">
-        <v>206.3692169189453</v>
+        <v>192.2008666992188</v>
       </c>
       <c r="H64" t="n">
-        <v>25.53501510620117</v>
+        <v>24.37481307983398</v>
       </c>
       <c r="I64" t="n">
-        <v>95.228515625</v>
+        <v>124.4555587768555</v>
       </c>
       <c r="J64" t="n">
-        <v>89.06438446044922</v>
+        <v>159.6849212646484</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>42.51104340916319</v>
       </c>
       <c r="G65" t="n">
-        <v>247.2278137207031</v>
+        <v>222.977294921875</v>
       </c>
       <c r="H65" t="n">
-        <v>42.7286491394043</v>
+        <v>27.95048713684082</v>
       </c>
       <c r="I65" t="n">
-        <v>130.8104095458984</v>
+        <v>247.6589813232422</v>
       </c>
       <c r="J65" t="n">
-        <v>186.9097137451172</v>
+        <v>178.4172515869141</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>54.37577254606605</v>
       </c>
       <c r="G66" t="n">
-        <v>152.0643157958984</v>
+        <v>203.36181640625</v>
       </c>
       <c r="H66" t="n">
-        <v>17.65098571777344</v>
+        <v>31.00605010986328</v>
       </c>
       <c r="I66" t="n">
-        <v>2.593856573104858</v>
+        <v>-205.5222778320312</v>
       </c>
       <c r="J66" t="n">
-        <v>135.2477874755859</v>
+        <v>132.2602691650391</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>55.07062752917076</v>
       </c>
       <c r="G67" t="n">
-        <v>160.8020935058594</v>
+        <v>201.0985412597656</v>
       </c>
       <c r="H67" t="n">
-        <v>19.27951622009277</v>
+        <v>28.94737815856934</v>
       </c>
       <c r="I67" t="n">
-        <v>13.2368803024292</v>
+        <v>-168.4868011474609</v>
       </c>
       <c r="J67" t="n">
-        <v>124.8137817382812</v>
+        <v>138.7852020263672</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>54.82432856758766</v>
       </c>
       <c r="G68" t="n">
-        <v>171.0765991210938</v>
+        <v>197.9826354980469</v>
       </c>
       <c r="H68" t="n">
-        <v>20.78280067443848</v>
+        <v>26.97201538085938</v>
       </c>
       <c r="I68" t="n">
-        <v>27.77239990234375</v>
+        <v>-121.6459121704102</v>
       </c>
       <c r="J68" t="n">
-        <v>100.0768127441406</v>
+        <v>146.7473602294922</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>54.18769809434324</v>
       </c>
       <c r="G69" t="n">
-        <v>187.3278961181641</v>
+        <v>196.4437561035156</v>
       </c>
       <c r="H69" t="n">
-        <v>23.70742034912109</v>
+        <v>24.9847412109375</v>
       </c>
       <c r="I69" t="n">
-        <v>39.5716552734375</v>
+        <v>-46.80023956298828</v>
       </c>
       <c r="J69" t="n">
-        <v>70.49314880371094</v>
+        <v>155.7726745605469</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>51.347187815424</v>
       </c>
       <c r="G70" t="n">
-        <v>208.6986389160156</v>
+        <v>198.1419525146484</v>
       </c>
       <c r="H70" t="n">
-        <v>28.82411003112793</v>
+        <v>24.50798225402832</v>
       </c>
       <c r="I70" t="n">
-        <v>51.71187591552734</v>
+        <v>57.59344482421875</v>
       </c>
       <c r="J70" t="n">
-        <v>73.78205871582031</v>
+        <v>167.3867797851562</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML.xlsx
@@ -505,16 +505,16 @@
         <v>10.27148578895017</v>
       </c>
       <c r="G2" t="n">
-        <v>187.7593383789062</v>
+        <v>261.0653991699219</v>
       </c>
       <c r="H2" t="n">
-        <v>38.20542526245117</v>
+        <v>35.38846588134766</v>
       </c>
       <c r="I2" t="n">
-        <v>609.4690551757812</v>
+        <v>639.321044921875</v>
       </c>
       <c r="J2" t="n">
-        <v>31.87102699279785</v>
+        <v>22.11888122558594</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>10.49540628405087</v>
       </c>
       <c r="G3" t="n">
-        <v>205.7818145751953</v>
+        <v>262.5473022460938</v>
       </c>
       <c r="H3" t="n">
-        <v>34.62489318847656</v>
+        <v>32.31663131713867</v>
       </c>
       <c r="I3" t="n">
-        <v>650.0316162109375</v>
+        <v>694.2190551757812</v>
       </c>
       <c r="J3" t="n">
-        <v>41.32267761230469</v>
+        <v>33.83761596679688</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>11.11292799977388</v>
       </c>
       <c r="G4" t="n">
-        <v>220.3870544433594</v>
+        <v>259.9547424316406</v>
       </c>
       <c r="H4" t="n">
-        <v>30.1179370880127</v>
+        <v>26.79009628295898</v>
       </c>
       <c r="I4" t="n">
-        <v>664.7586059570312</v>
+        <v>726.513671875</v>
       </c>
       <c r="J4" t="n">
-        <v>49.78505706787109</v>
+        <v>45.14990615844727</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>11.33579528302992</v>
       </c>
       <c r="G5" t="n">
-        <v>240.0341949462891</v>
+        <v>259.0445861816406</v>
       </c>
       <c r="H5" t="n">
-        <v>26.62800788879395</v>
+        <v>21.91131019592285</v>
       </c>
       <c r="I5" t="n">
-        <v>671.9821166992188</v>
+        <v>749.3660888671875</v>
       </c>
       <c r="J5" t="n">
-        <v>58.76813125610352</v>
+        <v>63.25304412841797</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>11.53221857575777</v>
       </c>
       <c r="G6" t="n">
-        <v>260.8135681152344</v>
+        <v>259.5470886230469</v>
       </c>
       <c r="H6" t="n">
-        <v>26.71239280700684</v>
+        <v>24.9075984954834</v>
       </c>
       <c r="I6" t="n">
-        <v>659.2393798828125</v>
+        <v>744.5537109375</v>
       </c>
       <c r="J6" t="n">
-        <v>63.67740249633789</v>
+        <v>87.98223114013672</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>11.73836346032553</v>
       </c>
       <c r="G7" t="n">
-        <v>156.2633666992188</v>
+        <v>253.4538269042969</v>
       </c>
       <c r="H7" t="n">
-        <v>44.63897705078125</v>
+        <v>40.17549133300781</v>
       </c>
       <c r="I7" t="n">
-        <v>435.8276672363281</v>
+        <v>454.4234313964844</v>
       </c>
       <c r="J7" t="n">
-        <v>16.75054168701172</v>
+        <v>32.40292358398438</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>12.47588443056982</v>
       </c>
       <c r="G8" t="n">
-        <v>163.6292724609375</v>
+        <v>249.4905395507812</v>
       </c>
       <c r="H8" t="n">
-        <v>40.21843338012695</v>
+        <v>36.40589904785156</v>
       </c>
       <c r="I8" t="n">
-        <v>491.6841125488281</v>
+        <v>516.3922729492188</v>
       </c>
       <c r="J8" t="n">
-        <v>18.91196632385254</v>
+        <v>28.09711647033691</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>13.31360035996819</v>
       </c>
       <c r="G9" t="n">
-        <v>173.8573760986328</v>
+        <v>244.3175048828125</v>
       </c>
       <c r="H9" t="n">
-        <v>35.2779541015625</v>
+        <v>31.88000869750977</v>
       </c>
       <c r="I9" t="n">
-        <v>539.4544067382812</v>
+        <v>574.5401000976562</v>
       </c>
       <c r="J9" t="n">
-        <v>24.89957618713379</v>
+        <v>30.32867622375488</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>14.04586286313179</v>
       </c>
       <c r="G10" t="n">
-        <v>187.0898284912109</v>
+        <v>236.9953155517578</v>
       </c>
       <c r="H10" t="n">
-        <v>29.26708030700684</v>
+        <v>24.92607307434082</v>
       </c>
       <c r="I10" t="n">
-        <v>568.0185546875</v>
+        <v>617.5699462890625</v>
       </c>
       <c r="J10" t="n">
-        <v>32.40155792236328</v>
+        <v>46.11721420288086</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>14.78596965177877</v>
       </c>
       <c r="G11" t="n">
-        <v>207.0909271240234</v>
+        <v>233.1336975097656</v>
       </c>
       <c r="H11" t="n">
-        <v>24.52899742126465</v>
+        <v>16.68564796447754</v>
       </c>
       <c r="I11" t="n">
-        <v>591.824462890625</v>
+        <v>655.559326171875</v>
       </c>
       <c r="J11" t="n">
-        <v>41.33603668212891</v>
+        <v>67.524169921875</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>14.60750023008277</v>
       </c>
       <c r="G12" t="n">
-        <v>229.667236328125</v>
+        <v>233.7133331298828</v>
       </c>
       <c r="H12" t="n">
-        <v>23.34235382080078</v>
+        <v>14.0819787979126</v>
       </c>
       <c r="I12" t="n">
-        <v>592.365478515625</v>
+        <v>660.3524780273438</v>
       </c>
       <c r="J12" t="n">
-        <v>47.94972991943359</v>
+        <v>89.26130676269531</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>13.93632017907879</v>
       </c>
       <c r="G13" t="n">
-        <v>275.0437622070312</v>
+        <v>264.819580078125</v>
       </c>
       <c r="H13" t="n">
-        <v>27.71808433532715</v>
+        <v>34.63361740112305</v>
       </c>
       <c r="I13" t="n">
-        <v>590.6017456054688</v>
+        <v>657.6519165039062</v>
       </c>
       <c r="J13" t="n">
-        <v>59.73014068603516</v>
+        <v>108.2108383178711</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>13.2060787967079</v>
       </c>
       <c r="G14" t="n">
-        <v>153.6952819824219</v>
+        <v>259.5096740722656</v>
       </c>
       <c r="H14" t="n">
-        <v>52.17692184448242</v>
+        <v>45.6866340637207</v>
       </c>
       <c r="I14" t="n">
-        <v>231.6369323730469</v>
+        <v>227.0993194580078</v>
       </c>
       <c r="J14" t="n">
-        <v>32.57680892944336</v>
+        <v>41.14237976074219</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>14.43724685121477</v>
       </c>
       <c r="G15" t="n">
-        <v>152.8104095458984</v>
+        <v>252.8219604492188</v>
       </c>
       <c r="H15" t="n">
-        <v>47.84370422363281</v>
+        <v>41.86315536499023</v>
       </c>
       <c r="I15" t="n">
-        <v>301.3110656738281</v>
+        <v>303.3564147949219</v>
       </c>
       <c r="J15" t="n">
-        <v>27.95816230773926</v>
+        <v>44.17350769042969</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>15.77509757365795</v>
       </c>
       <c r="G16" t="n">
-        <v>154.8702239990234</v>
+        <v>245.4321594238281</v>
       </c>
       <c r="H16" t="n">
-        <v>43.08932495117188</v>
+        <v>37.94822311401367</v>
       </c>
       <c r="I16" t="n">
-        <v>361.9043884277344</v>
+        <v>370.2360534667969</v>
       </c>
       <c r="J16" t="n">
-        <v>23.75104522705078</v>
+        <v>45.60371017456055</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>17.01643502058164</v>
       </c>
       <c r="G17" t="n">
-        <v>160.2974548339844</v>
+        <v>235.0465393066406</v>
       </c>
       <c r="H17" t="n">
-        <v>36.96759033203125</v>
+        <v>33.25388717651367</v>
       </c>
       <c r="I17" t="n">
-        <v>425.5024108886719</v>
+        <v>443.6379699707031</v>
       </c>
       <c r="J17" t="n">
-        <v>21.47724723815918</v>
+        <v>47.61083984375</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>17.57324774662381</v>
       </c>
       <c r="G18" t="n">
-        <v>166.1610107421875</v>
+        <v>227.0271148681641</v>
       </c>
       <c r="H18" t="n">
-        <v>32.40015029907227</v>
+        <v>29.37590408325195</v>
       </c>
       <c r="I18" t="n">
-        <v>455.6719665527344</v>
+        <v>480.9481201171875</v>
       </c>
       <c r="J18" t="n">
-        <v>23.30954551696777</v>
+        <v>53.18799591064453</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>18.2282289394109</v>
       </c>
       <c r="G19" t="n">
-        <v>183.2056579589844</v>
+        <v>215.7579040527344</v>
       </c>
       <c r="H19" t="n">
-        <v>25.16591835021973</v>
+        <v>21.28348731994629</v>
       </c>
       <c r="I19" t="n">
-        <v>497.243896484375</v>
+        <v>534.6257934570312</v>
       </c>
       <c r="J19" t="n">
-        <v>33.5947380065918</v>
+        <v>70.22463989257812</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>18.05168677518481</v>
       </c>
       <c r="G20" t="n">
-        <v>205.5201873779297</v>
+        <v>214.1537322998047</v>
       </c>
       <c r="H20" t="n">
-        <v>22.06772041320801</v>
+        <v>15.69515609741211</v>
       </c>
       <c r="I20" t="n">
-        <v>513.0673217773438</v>
+        <v>554.4180297851562</v>
       </c>
       <c r="J20" t="n">
-        <v>48.12950897216797</v>
+        <v>85.84867095947266</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>17.30316829702608</v>
       </c>
       <c r="G21" t="n">
-        <v>253.00732421875</v>
+        <v>250.0890960693359</v>
       </c>
       <c r="H21" t="n">
-        <v>24.20174217224121</v>
+        <v>31.32929420471191</v>
       </c>
       <c r="I21" t="n">
-        <v>529.0672607421875</v>
+        <v>572.8958129882812</v>
       </c>
       <c r="J21" t="n">
-        <v>71.746337890625</v>
+        <v>99.47962951660156</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>15.87142913305469</v>
       </c>
       <c r="G22" t="n">
-        <v>338.635986328125</v>
+        <v>379.9989929199219</v>
       </c>
       <c r="H22" t="n">
-        <v>29.79738998413086</v>
+        <v>70.82249450683594</v>
       </c>
       <c r="I22" t="n">
-        <v>542.64892578125</v>
+        <v>583.2039794921875</v>
       </c>
       <c r="J22" t="n">
-        <v>102.1363525390625</v>
+        <v>117.9869918823242</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>16.2842163689804</v>
       </c>
       <c r="G23" t="n">
-        <v>158.3580322265625</v>
+        <v>259.9108581542969</v>
       </c>
       <c r="H23" t="n">
-        <v>53.1440544128418</v>
+        <v>45.70861053466797</v>
       </c>
       <c r="I23" t="n">
-        <v>130.4209442138672</v>
+        <v>112.0926284790039</v>
       </c>
       <c r="J23" t="n">
-        <v>49.09952545166016</v>
+        <v>47.61515045166016</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>17.99859633271077</v>
       </c>
       <c r="G24" t="n">
-        <v>156.2932891845703</v>
+        <v>253.99951171875</v>
       </c>
       <c r="H24" t="n">
-        <v>49.38636016845703</v>
+        <v>42.24206161499023</v>
       </c>
       <c r="I24" t="n">
-        <v>190.4857788085938</v>
+        <v>172.9198455810547</v>
       </c>
       <c r="J24" t="n">
-        <v>46.6959342956543</v>
+        <v>51.61531448364258</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>19.53665474474453</v>
       </c>
       <c r="G25" t="n">
-        <v>154.9292602539062</v>
+        <v>244.6749267578125</v>
       </c>
       <c r="H25" t="n">
-        <v>45.00101089477539</v>
+        <v>38.29215621948242</v>
       </c>
       <c r="I25" t="n">
-        <v>237.3115386962891</v>
+        <v>220.589111328125</v>
       </c>
       <c r="J25" t="n">
-        <v>46.63278198242188</v>
+        <v>56.26722717285156</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>21.18080958029204</v>
       </c>
       <c r="G26" t="n">
-        <v>155.6131439208984</v>
+        <v>232.9239044189453</v>
       </c>
       <c r="H26" t="n">
-        <v>39.59701156616211</v>
+        <v>34.0322265625</v>
       </c>
       <c r="I26" t="n">
-        <v>290.2091979980469</v>
+        <v>276.5572814941406</v>
       </c>
       <c r="J26" t="n">
-        <v>46.30007171630859</v>
+        <v>61.18031692504883</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>22.36133238808863</v>
       </c>
       <c r="G27" t="n">
-        <v>160.5526580810547</v>
+        <v>219.0182342529297</v>
       </c>
       <c r="H27" t="n">
-        <v>32.86513519287109</v>
+        <v>29.18268203735352</v>
       </c>
       <c r="I27" t="n">
-        <v>351.3201293945312</v>
+        <v>346.5361022949219</v>
       </c>
       <c r="J27" t="n">
-        <v>46.46833419799805</v>
+        <v>67.47744750976562</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>22.25528267810615</v>
       </c>
       <c r="G28" t="n">
-        <v>169.1411285400391</v>
+        <v>206.8730773925781</v>
       </c>
       <c r="H28" t="n">
-        <v>27.12397956848145</v>
+        <v>24.25498199462891</v>
       </c>
       <c r="I28" t="n">
-        <v>395.0824890136719</v>
+        <v>398.5447692871094</v>
       </c>
       <c r="J28" t="n">
-        <v>53.30783462524414</v>
+        <v>76.47003936767578</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>22.11853696692908</v>
       </c>
       <c r="G29" t="n">
-        <v>192.8898162841797</v>
+        <v>203.5745391845703</v>
       </c>
       <c r="H29" t="n">
-        <v>22.39694976806641</v>
+        <v>19.18217468261719</v>
       </c>
       <c r="I29" t="n">
-        <v>436.1593627929688</v>
+        <v>447.0577697753906</v>
       </c>
       <c r="J29" t="n">
-        <v>72.86570739746094</v>
+        <v>89.38614654541016</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>21.13587239531939</v>
       </c>
       <c r="G30" t="n">
-        <v>249.5253601074219</v>
+        <v>259.4023132324219</v>
       </c>
       <c r="H30" t="n">
-        <v>24.20760917663574</v>
+        <v>37.90061569213867</v>
       </c>
       <c r="I30" t="n">
-        <v>488.7449035644531</v>
+        <v>515.8193969726562</v>
       </c>
       <c r="J30" t="n">
-        <v>95.42200469970703</v>
+        <v>102.5765838623047</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>19.80061812897557</v>
       </c>
       <c r="G31" t="n">
-        <v>335.1827697753906</v>
+        <v>389.8883972167969</v>
       </c>
       <c r="H31" t="n">
-        <v>32.34092330932617</v>
+        <v>68.79100799560547</v>
       </c>
       <c r="I31" t="n">
-        <v>501.5503234863281</v>
+        <v>520.8513793945312</v>
       </c>
       <c r="J31" t="n">
-        <v>133.5425262451172</v>
+        <v>147.6054382324219</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>20.55168297688286</v>
       </c>
       <c r="G32" t="n">
-        <v>164.4620666503906</v>
+        <v>260.1285400390625</v>
       </c>
       <c r="H32" t="n">
-        <v>52.82892608642578</v>
+        <v>44.51234817504883</v>
       </c>
       <c r="I32" t="n">
-        <v>39.71992111206055</v>
+        <v>13.95191287994385</v>
       </c>
       <c r="J32" t="n">
-        <v>66.01054382324219</v>
+        <v>55.29983520507812</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>22.96934284445093</v>
       </c>
       <c r="G33" t="n">
-        <v>161.7828369140625</v>
+        <v>252.4043426513672</v>
       </c>
       <c r="H33" t="n">
-        <v>48.6829719543457</v>
+        <v>40.40817642211914</v>
       </c>
       <c r="I33" t="n">
-        <v>84.38911437988281</v>
+        <v>49.12671279907227</v>
       </c>
       <c r="J33" t="n">
-        <v>69.91248321533203</v>
+        <v>62.38875961303711</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>24.40915250803127</v>
       </c>
       <c r="G34" t="n">
-        <v>159.3628845214844</v>
+        <v>243.6445617675781</v>
       </c>
       <c r="H34" t="n">
-        <v>44.95780563354492</v>
+        <v>37.00658416748047</v>
       </c>
       <c r="I34" t="n">
-        <v>127.1793365478516</v>
+        <v>86.56159973144531</v>
       </c>
       <c r="J34" t="n">
-        <v>71.95925903320312</v>
+        <v>67.00747680664062</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>26.0811880993595</v>
       </c>
       <c r="G35" t="n">
-        <v>158.2648773193359</v>
+        <v>231.7902679443359</v>
       </c>
       <c r="H35" t="n">
-        <v>40.01526260375977</v>
+        <v>32.93337249755859</v>
       </c>
       <c r="I35" t="n">
-        <v>175.0029907226562</v>
+        <v>130.3033905029297</v>
       </c>
       <c r="J35" t="n">
-        <v>74.76204681396484</v>
+        <v>72.25740051269531</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>26.87614780904968</v>
       </c>
       <c r="G36" t="n">
-        <v>158.8215484619141</v>
+        <v>217.6371002197266</v>
       </c>
       <c r="H36" t="n">
-        <v>34.45157623291016</v>
+        <v>29.05846405029297</v>
       </c>
       <c r="I36" t="n">
-        <v>237.1104736328125</v>
+        <v>195.9397583007812</v>
       </c>
       <c r="J36" t="n">
-        <v>76.49707794189453</v>
+        <v>77.55723571777344</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>27.16629873490772</v>
       </c>
       <c r="G37" t="n">
-        <v>163.5196533203125</v>
+        <v>201.4084320068359</v>
       </c>
       <c r="H37" t="n">
-        <v>28.49149703979492</v>
+        <v>24.43473434448242</v>
       </c>
       <c r="I37" t="n">
-        <v>281.3624572753906</v>
+        <v>241.8029937744141</v>
       </c>
       <c r="J37" t="n">
-        <v>88.64347839355469</v>
+        <v>88.84862518310547</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>27.25598473560972</v>
       </c>
       <c r="G38" t="n">
-        <v>186.5726165771484</v>
+        <v>198.2019195556641</v>
       </c>
       <c r="H38" t="n">
-        <v>22.87131881713867</v>
+        <v>20.1608715057373</v>
       </c>
       <c r="I38" t="n">
-        <v>357.9401550292969</v>
+        <v>335.7782592773438</v>
       </c>
       <c r="J38" t="n">
-        <v>100.2641830444336</v>
+        <v>103.3718795776367</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>26.04628332899345</v>
       </c>
       <c r="G39" t="n">
-        <v>238.4364318847656</v>
+        <v>254.5662689208984</v>
       </c>
       <c r="H39" t="n">
-        <v>25.82297325134277</v>
+        <v>42.16006851196289</v>
       </c>
       <c r="I39" t="n">
-        <v>418.0305786132812</v>
+        <v>411.2047424316406</v>
       </c>
       <c r="J39" t="n">
-        <v>130.7870483398438</v>
+        <v>136.0291137695312</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>23.96978635149335</v>
       </c>
       <c r="G40" t="n">
-        <v>333.4393005371094</v>
+        <v>396.1929626464844</v>
       </c>
       <c r="H40" t="n">
-        <v>35.51179122924805</v>
+        <v>65.43785858154297</v>
       </c>
       <c r="I40" t="n">
-        <v>478.1557312011719</v>
+        <v>488.1702575683594</v>
       </c>
       <c r="J40" t="n">
-        <v>152.1785888671875</v>
+        <v>174.1027069091797</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>25.6116837653232</v>
       </c>
       <c r="G41" t="n">
-        <v>171.2502288818359</v>
+        <v>260.0681762695312</v>
       </c>
       <c r="H41" t="n">
-        <v>51.173095703125</v>
+        <v>42.21622467041016</v>
       </c>
       <c r="I41" t="n">
-        <v>-39.45584487915039</v>
+        <v>-68.138427734375</v>
       </c>
       <c r="J41" t="n">
-        <v>81.39377593994141</v>
+        <v>63.2062873840332</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>28.41067839248494</v>
       </c>
       <c r="G42" t="n">
-        <v>169.6292877197266</v>
+        <v>253.05126953125</v>
       </c>
       <c r="H42" t="n">
-        <v>47.16989517211914</v>
+        <v>38.25497817993164</v>
       </c>
       <c r="I42" t="n">
-        <v>-10.05640602111816</v>
+        <v>-55.71867752075195</v>
       </c>
       <c r="J42" t="n">
-        <v>88.54999542236328</v>
+        <v>72.13018798828125</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>30.68040031937237</v>
       </c>
       <c r="G43" t="n">
-        <v>167.6140441894531</v>
+        <v>244.0641632080078</v>
       </c>
       <c r="H43" t="n">
-        <v>43.35918426513672</v>
+        <v>34.6878662109375</v>
       </c>
       <c r="I43" t="n">
-        <v>21.56244277954102</v>
+        <v>-39.28212356567383</v>
       </c>
       <c r="J43" t="n">
-        <v>95.10405731201172</v>
+        <v>79.43419647216797</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>32.34762367758118</v>
       </c>
       <c r="G44" t="n">
-        <v>165.7731475830078</v>
+        <v>232.7353973388672</v>
       </c>
       <c r="H44" t="n">
-        <v>38.85861968994141</v>
+        <v>30.97964668273926</v>
       </c>
       <c r="I44" t="n">
-        <v>69.54108428955078</v>
+        <v>-3.43245530128479</v>
       </c>
       <c r="J44" t="n">
-        <v>99.51205444335938</v>
+        <v>85.09500885009766</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>33.26712421235609</v>
       </c>
       <c r="G45" t="n">
-        <v>164.3755493164062</v>
+        <v>218.0453338623047</v>
       </c>
       <c r="H45" t="n">
-        <v>33.94300079345703</v>
+        <v>27.26950263977051</v>
       </c>
       <c r="I45" t="n">
-        <v>118.8915252685547</v>
+        <v>38.83512878417969</v>
       </c>
       <c r="J45" t="n">
-        <v>106.6174926757812</v>
+        <v>90.76276397705078</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>33.39925272231932</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4355163574219</v>
+        <v>201.6861114501953</v>
       </c>
       <c r="H46" t="n">
-        <v>28.17555809020996</v>
+        <v>23.37472915649414</v>
       </c>
       <c r="I46" t="n">
-        <v>195.7824249267578</v>
+        <v>119.8485641479492</v>
       </c>
       <c r="J46" t="n">
-        <v>115.3943939208984</v>
+        <v>101.9031372070312</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>32.83385481517335</v>
       </c>
       <c r="G47" t="n">
-        <v>181.7370758056641</v>
+        <v>196.2887878417969</v>
       </c>
       <c r="H47" t="n">
-        <v>24.13088989257812</v>
+        <v>20.90340423583984</v>
       </c>
       <c r="I47" t="n">
-        <v>266.7563171386719</v>
+        <v>202.8520355224609</v>
       </c>
       <c r="J47" t="n">
-        <v>129.1654510498047</v>
+        <v>122.7122497558594</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>31.22587875804939</v>
       </c>
       <c r="G48" t="n">
-        <v>237.2800445556641</v>
+        <v>260.6231384277344</v>
       </c>
       <c r="H48" t="n">
-        <v>27.54129219055176</v>
+        <v>46.12076187133789</v>
       </c>
       <c r="I48" t="n">
-        <v>374.5636901855469</v>
+        <v>348.5480041503906</v>
       </c>
       <c r="J48" t="n">
-        <v>151.4840393066406</v>
+        <v>165.8821716308594</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>28.00050845971687</v>
       </c>
       <c r="G49" t="n">
-        <v>328.0287780761719</v>
+        <v>393.9154052734375</v>
       </c>
       <c r="H49" t="n">
-        <v>39.06486892700195</v>
+        <v>63.51089859008789</v>
       </c>
       <c r="I49" t="n">
-        <v>448.3633728027344</v>
+        <v>444.1375427246094</v>
       </c>
       <c r="J49" t="n">
-        <v>172.8314514160156</v>
+        <v>208.7758636474609</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>32.75859992753161</v>
       </c>
       <c r="G50" t="n">
-        <v>179.3073120117188</v>
+        <v>258.6046142578125</v>
       </c>
       <c r="H50" t="n">
-        <v>47.15061569213867</v>
+        <v>38.21400451660156</v>
       </c>
       <c r="I50" t="n">
-        <v>-108.4115829467773</v>
+        <v>-145.5364074707031</v>
       </c>
       <c r="J50" t="n">
-        <v>97.96058654785156</v>
+        <v>75.19657135009766</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>35.60454595063857</v>
       </c>
       <c r="G51" t="n">
-        <v>178.9670104980469</v>
+        <v>252.6301116943359</v>
       </c>
       <c r="H51" t="n">
-        <v>43.54241943359375</v>
+        <v>34.91671752929688</v>
       </c>
       <c r="I51" t="n">
-        <v>-87.58307647705078</v>
+        <v>-145.4378662109375</v>
       </c>
       <c r="J51" t="n">
-        <v>105.3299407958984</v>
+        <v>83.28882598876953</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>38.13811789539464</v>
       </c>
       <c r="G52" t="n">
-        <v>178.8105010986328</v>
+        <v>245.4799499511719</v>
       </c>
       <c r="H52" t="n">
-        <v>39.9862174987793</v>
+        <v>31.73569488525391</v>
       </c>
       <c r="I52" t="n">
-        <v>-70.33880615234375</v>
+        <v>-147.1047058105469</v>
       </c>
       <c r="J52" t="n">
-        <v>112.5864868164062</v>
+        <v>90.44749450683594</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>39.1380055059179</v>
       </c>
       <c r="G53" t="n">
-        <v>175.8967132568359</v>
+        <v>234.9820556640625</v>
       </c>
       <c r="H53" t="n">
-        <v>36.62131881713867</v>
+        <v>28.78517532348633</v>
       </c>
       <c r="I53" t="n">
-        <v>-29.5229434967041</v>
+        <v>-123.4003753662109</v>
       </c>
       <c r="J53" t="n">
-        <v>118.5520248413086</v>
+        <v>96.52914428710938</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>40.17007780104868</v>
       </c>
       <c r="G54" t="n">
-        <v>173.6161651611328</v>
+        <v>220.25927734375</v>
       </c>
       <c r="H54" t="n">
-        <v>32.07380676269531</v>
+        <v>25.27075386047363</v>
       </c>
       <c r="I54" t="n">
-        <v>25.80020713806152</v>
+        <v>-83.94267272949219</v>
       </c>
       <c r="J54" t="n">
-        <v>127.406005859375</v>
+        <v>104.3157653808594</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>40.31777520333784</v>
       </c>
       <c r="G55" t="n">
-        <v>174.2816619873047</v>
+        <v>205.6372222900391</v>
       </c>
       <c r="H55" t="n">
-        <v>27.6604061126709</v>
+        <v>22.1037712097168</v>
       </c>
       <c r="I55" t="n">
-        <v>91.19012451171875</v>
+        <v>-24.23897552490234</v>
       </c>
       <c r="J55" t="n">
-        <v>138.1891479492188</v>
+        <v>115.4094390869141</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>38.89328689858721</v>
       </c>
       <c r="G56" t="n">
-        <v>185.005859375</v>
+        <v>200.6892395019531</v>
       </c>
       <c r="H56" t="n">
-        <v>24.72018432617188</v>
+        <v>21.48049926757812</v>
       </c>
       <c r="I56" t="n">
-        <v>194.0654296875</v>
+        <v>96.09226989746094</v>
       </c>
       <c r="J56" t="n">
-        <v>149.9880523681641</v>
+        <v>140.8962554931641</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>36.03490394546852</v>
       </c>
       <c r="G57" t="n">
-        <v>228.4935150146484</v>
+        <v>252.0780181884766</v>
       </c>
       <c r="H57" t="n">
-        <v>27.78556251525879</v>
+        <v>43.59843826293945</v>
       </c>
       <c r="I57" t="n">
-        <v>322.7808837890625</v>
+        <v>274.16650390625</v>
       </c>
       <c r="J57" t="n">
-        <v>163.7731475830078</v>
+        <v>184.8529052734375</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>33.0417017672229</v>
       </c>
       <c r="G58" t="n">
-        <v>316.55419921875</v>
+        <v>381.7582702636719</v>
       </c>
       <c r="H58" t="n">
-        <v>39.95666122436523</v>
+        <v>62.77095031738281</v>
       </c>
       <c r="I58" t="n">
-        <v>413.4909362792969</v>
+        <v>397.2969055175781</v>
       </c>
       <c r="J58" t="n">
-        <v>188.7794952392578</v>
+        <v>242.2163391113281</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>43.98768298598323</v>
       </c>
       <c r="G59" t="n">
-        <v>190.6306762695312</v>
+        <v>252.9169769287109</v>
       </c>
       <c r="H59" t="n">
-        <v>38.739501953125</v>
+        <v>31.59687042236328</v>
       </c>
       <c r="I59" t="n">
-        <v>-166.0569915771484</v>
+        <v>-233.7479400634766</v>
       </c>
       <c r="J59" t="n">
-        <v>119.2702865600586</v>
+        <v>92.02650451660156</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>45.7006317110727</v>
       </c>
       <c r="G60" t="n">
-        <v>189.5677642822266</v>
+        <v>246.1419830322266</v>
       </c>
       <c r="H60" t="n">
-        <v>36.02424621582031</v>
+        <v>29.08481979370117</v>
       </c>
       <c r="I60" t="n">
-        <v>-145.0120849609375</v>
+        <v>-232.4366912841797</v>
       </c>
       <c r="J60" t="n">
-        <v>125.802604675293</v>
+        <v>97.3748779296875</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>46.67965674781412</v>
       </c>
       <c r="G61" t="n">
-        <v>187.1262664794922</v>
+        <v>236.8016357421875</v>
       </c>
       <c r="H61" t="n">
-        <v>33.04098510742188</v>
+        <v>26.3701114654541</v>
       </c>
       <c r="I61" t="n">
-        <v>-101.6595077514648</v>
+        <v>-211.8093414306641</v>
       </c>
       <c r="J61" t="n">
-        <v>131.9097137451172</v>
+        <v>104.8901290893555</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>47.53914448671719</v>
       </c>
       <c r="G62" t="n">
-        <v>185.7787017822266</v>
+        <v>226.8602142333984</v>
       </c>
       <c r="H62" t="n">
-        <v>29.90266227722168</v>
+        <v>23.76239776611328</v>
       </c>
       <c r="I62" t="n">
-        <v>-57.58355331420898</v>
+        <v>-185.6758728027344</v>
       </c>
       <c r="J62" t="n">
-        <v>138.4692077636719</v>
+        <v>112.9120330810547</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>47.07121651777462</v>
       </c>
       <c r="G63" t="n">
-        <v>184.0646057128906</v>
+        <v>211.8907470703125</v>
       </c>
       <c r="H63" t="n">
-        <v>26.43744850158691</v>
+        <v>21.11215400695801</v>
       </c>
       <c r="I63" t="n">
-        <v>14.09173202514648</v>
+        <v>-127.3459777832031</v>
       </c>
       <c r="J63" t="n">
-        <v>151.7220916748047</v>
+        <v>128.0328826904297</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>45.67156598130153</v>
       </c>
       <c r="G64" t="n">
-        <v>192.2008666992188</v>
+        <v>208.3689422607422</v>
       </c>
       <c r="H64" t="n">
-        <v>24.37481307983398</v>
+        <v>21.52483367919922</v>
       </c>
       <c r="I64" t="n">
-        <v>124.4555587768555</v>
+        <v>-1.061022996902466</v>
       </c>
       <c r="J64" t="n">
-        <v>159.6849212646484</v>
+        <v>150.1715240478516</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>42.51104340916319</v>
       </c>
       <c r="G65" t="n">
-        <v>222.977294921875</v>
+        <v>247.104248046875</v>
       </c>
       <c r="H65" t="n">
-        <v>27.95048713684082</v>
+        <v>41.74952697753906</v>
       </c>
       <c r="I65" t="n">
-        <v>247.6589813232422</v>
+        <v>166.4579925537109</v>
       </c>
       <c r="J65" t="n">
-        <v>178.4172515869141</v>
+        <v>207.5529174804688</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>54.37577254606605</v>
       </c>
       <c r="G66" t="n">
-        <v>203.36181640625</v>
+        <v>250.2307739257812</v>
       </c>
       <c r="H66" t="n">
-        <v>31.00605010986328</v>
+        <v>26.20998191833496</v>
       </c>
       <c r="I66" t="n">
-        <v>-205.5222778320312</v>
+        <v>-302.9676513671875</v>
       </c>
       <c r="J66" t="n">
-        <v>132.2602691650391</v>
+        <v>99.77738189697266</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>55.07062752917076</v>
       </c>
       <c r="G67" t="n">
-        <v>201.0985412597656</v>
+        <v>242.4892120361328</v>
       </c>
       <c r="H67" t="n">
-        <v>28.94737815856934</v>
+        <v>24.0280590057373</v>
       </c>
       <c r="I67" t="n">
-        <v>-168.4868011474609</v>
+        <v>-288.6456909179688</v>
       </c>
       <c r="J67" t="n">
-        <v>138.7852020263672</v>
+        <v>107.848274230957</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>54.82432856758766</v>
       </c>
       <c r="G68" t="n">
-        <v>197.9826354980469</v>
+        <v>232.6405181884766</v>
       </c>
       <c r="H68" t="n">
-        <v>26.97201538085938</v>
+        <v>22.06694030761719</v>
       </c>
       <c r="I68" t="n">
-        <v>-121.6459121704102</v>
+        <v>-262.0947875976562</v>
       </c>
       <c r="J68" t="n">
-        <v>146.7473602294922</v>
+        <v>118.8421936035156</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>54.18769809434324</v>
       </c>
       <c r="G69" t="n">
-        <v>196.4437561035156</v>
+        <v>222.5221405029297</v>
       </c>
       <c r="H69" t="n">
-        <v>24.9847412109375</v>
+        <v>20.71357917785645</v>
       </c>
       <c r="I69" t="n">
-        <v>-46.80023956298828</v>
+        <v>-202.7008514404297</v>
       </c>
       <c r="J69" t="n">
-        <v>155.7726745605469</v>
+        <v>135.8899383544922</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>51.347187815424</v>
       </c>
       <c r="G70" t="n">
-        <v>198.1419525146484</v>
+        <v>216.6976318359375</v>
       </c>
       <c r="H70" t="n">
-        <v>24.50798225402832</v>
+        <v>22.68488502502441</v>
       </c>
       <c r="I70" t="n">
-        <v>57.59344482421875</v>
+        <v>-90.78228759765625</v>
       </c>
       <c r="J70" t="n">
-        <v>167.3867797851562</v>
+        <v>160.2514343261719</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML.xlsx
@@ -505,16 +505,16 @@
         <v>10.27148578895017</v>
       </c>
       <c r="G2" t="n">
-        <v>261.0653991699219</v>
+        <v>187.7593383789062</v>
       </c>
       <c r="H2" t="n">
-        <v>35.38846588134766</v>
+        <v>38.20542526245117</v>
       </c>
       <c r="I2" t="n">
-        <v>639.321044921875</v>
+        <v>609.4690551757812</v>
       </c>
       <c r="J2" t="n">
-        <v>22.11888122558594</v>
+        <v>31.87102699279785</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>10.49540628405087</v>
       </c>
       <c r="G3" t="n">
-        <v>262.5473022460938</v>
+        <v>205.7818145751953</v>
       </c>
       <c r="H3" t="n">
-        <v>32.31663131713867</v>
+        <v>34.62489318847656</v>
       </c>
       <c r="I3" t="n">
-        <v>694.2190551757812</v>
+        <v>650.0316162109375</v>
       </c>
       <c r="J3" t="n">
-        <v>33.83761596679688</v>
+        <v>41.32267761230469</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>11.11292799977388</v>
       </c>
       <c r="G4" t="n">
-        <v>259.9547424316406</v>
+        <v>220.3870544433594</v>
       </c>
       <c r="H4" t="n">
-        <v>26.79009628295898</v>
+        <v>30.1179370880127</v>
       </c>
       <c r="I4" t="n">
-        <v>726.513671875</v>
+        <v>664.7586059570312</v>
       </c>
       <c r="J4" t="n">
-        <v>45.14990615844727</v>
+        <v>49.78505706787109</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>11.33579528302992</v>
       </c>
       <c r="G5" t="n">
-        <v>259.0445861816406</v>
+        <v>240.0341949462891</v>
       </c>
       <c r="H5" t="n">
-        <v>21.91131019592285</v>
+        <v>26.62800788879395</v>
       </c>
       <c r="I5" t="n">
-        <v>749.3660888671875</v>
+        <v>671.9821166992188</v>
       </c>
       <c r="J5" t="n">
-        <v>63.25304412841797</v>
+        <v>58.76813125610352</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>11.53221857575777</v>
       </c>
       <c r="G6" t="n">
-        <v>259.5470886230469</v>
+        <v>260.8135681152344</v>
       </c>
       <c r="H6" t="n">
-        <v>24.9075984954834</v>
+        <v>26.71239280700684</v>
       </c>
       <c r="I6" t="n">
-        <v>744.5537109375</v>
+        <v>659.2393798828125</v>
       </c>
       <c r="J6" t="n">
-        <v>87.98223114013672</v>
+        <v>63.67740249633789</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>11.73836346032553</v>
       </c>
       <c r="G7" t="n">
-        <v>253.4538269042969</v>
+        <v>156.2633666992188</v>
       </c>
       <c r="H7" t="n">
-        <v>40.17549133300781</v>
+        <v>44.63897705078125</v>
       </c>
       <c r="I7" t="n">
-        <v>454.4234313964844</v>
+        <v>435.8276672363281</v>
       </c>
       <c r="J7" t="n">
-        <v>32.40292358398438</v>
+        <v>16.75054168701172</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>12.47588443056982</v>
       </c>
       <c r="G8" t="n">
-        <v>249.4905395507812</v>
+        <v>163.6292724609375</v>
       </c>
       <c r="H8" t="n">
-        <v>36.40589904785156</v>
+        <v>40.21843338012695</v>
       </c>
       <c r="I8" t="n">
-        <v>516.3922729492188</v>
+        <v>491.6841125488281</v>
       </c>
       <c r="J8" t="n">
-        <v>28.09711647033691</v>
+        <v>18.91196632385254</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>13.31360035996819</v>
       </c>
       <c r="G9" t="n">
-        <v>244.3175048828125</v>
+        <v>173.8573760986328</v>
       </c>
       <c r="H9" t="n">
-        <v>31.88000869750977</v>
+        <v>35.2779541015625</v>
       </c>
       <c r="I9" t="n">
-        <v>574.5401000976562</v>
+        <v>539.4544067382812</v>
       </c>
       <c r="J9" t="n">
-        <v>30.32867622375488</v>
+        <v>24.89957618713379</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>14.04586286313179</v>
       </c>
       <c r="G10" t="n">
-        <v>236.9953155517578</v>
+        <v>187.0898284912109</v>
       </c>
       <c r="H10" t="n">
-        <v>24.92607307434082</v>
+        <v>29.26708030700684</v>
       </c>
       <c r="I10" t="n">
-        <v>617.5699462890625</v>
+        <v>568.0185546875</v>
       </c>
       <c r="J10" t="n">
-        <v>46.11721420288086</v>
+        <v>32.40155792236328</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>14.78596965177877</v>
       </c>
       <c r="G11" t="n">
-        <v>233.1336975097656</v>
+        <v>207.0909271240234</v>
       </c>
       <c r="H11" t="n">
-        <v>16.68564796447754</v>
+        <v>24.52899742126465</v>
       </c>
       <c r="I11" t="n">
-        <v>655.559326171875</v>
+        <v>591.824462890625</v>
       </c>
       <c r="J11" t="n">
-        <v>67.524169921875</v>
+        <v>41.33603668212891</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>14.60750023008277</v>
       </c>
       <c r="G12" t="n">
-        <v>233.7133331298828</v>
+        <v>229.667236328125</v>
       </c>
       <c r="H12" t="n">
-        <v>14.0819787979126</v>
+        <v>23.34235382080078</v>
       </c>
       <c r="I12" t="n">
-        <v>660.3524780273438</v>
+        <v>592.365478515625</v>
       </c>
       <c r="J12" t="n">
-        <v>89.26130676269531</v>
+        <v>47.94972991943359</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>13.93632017907879</v>
       </c>
       <c r="G13" t="n">
-        <v>264.819580078125</v>
+        <v>275.0437622070312</v>
       </c>
       <c r="H13" t="n">
-        <v>34.63361740112305</v>
+        <v>27.71808433532715</v>
       </c>
       <c r="I13" t="n">
-        <v>657.6519165039062</v>
+        <v>590.6017456054688</v>
       </c>
       <c r="J13" t="n">
-        <v>108.2108383178711</v>
+        <v>59.73014068603516</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>13.2060787967079</v>
       </c>
       <c r="G14" t="n">
-        <v>259.5096740722656</v>
+        <v>153.6952819824219</v>
       </c>
       <c r="H14" t="n">
-        <v>45.6866340637207</v>
+        <v>52.17692184448242</v>
       </c>
       <c r="I14" t="n">
-        <v>227.0993194580078</v>
+        <v>231.6369323730469</v>
       </c>
       <c r="J14" t="n">
-        <v>41.14237976074219</v>
+        <v>32.57680892944336</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>14.43724685121477</v>
       </c>
       <c r="G15" t="n">
-        <v>252.8219604492188</v>
+        <v>152.8104095458984</v>
       </c>
       <c r="H15" t="n">
-        <v>41.86315536499023</v>
+        <v>47.84370422363281</v>
       </c>
       <c r="I15" t="n">
-        <v>303.3564147949219</v>
+        <v>301.3110656738281</v>
       </c>
       <c r="J15" t="n">
-        <v>44.17350769042969</v>
+        <v>27.95816230773926</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>15.77509757365795</v>
       </c>
       <c r="G16" t="n">
-        <v>245.4321594238281</v>
+        <v>154.8702239990234</v>
       </c>
       <c r="H16" t="n">
-        <v>37.94822311401367</v>
+        <v>43.08932495117188</v>
       </c>
       <c r="I16" t="n">
-        <v>370.2360534667969</v>
+        <v>361.9043884277344</v>
       </c>
       <c r="J16" t="n">
-        <v>45.60371017456055</v>
+        <v>23.75104522705078</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>17.01643502058164</v>
       </c>
       <c r="G17" t="n">
-        <v>235.0465393066406</v>
+        <v>160.2974548339844</v>
       </c>
       <c r="H17" t="n">
-        <v>33.25388717651367</v>
+        <v>36.96759033203125</v>
       </c>
       <c r="I17" t="n">
-        <v>443.6379699707031</v>
+        <v>425.5024108886719</v>
       </c>
       <c r="J17" t="n">
-        <v>47.61083984375</v>
+        <v>21.47724723815918</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>17.57324774662381</v>
       </c>
       <c r="G18" t="n">
-        <v>227.0271148681641</v>
+        <v>166.1610107421875</v>
       </c>
       <c r="H18" t="n">
-        <v>29.37590408325195</v>
+        <v>32.40015029907227</v>
       </c>
       <c r="I18" t="n">
-        <v>480.9481201171875</v>
+        <v>455.6719665527344</v>
       </c>
       <c r="J18" t="n">
-        <v>53.18799591064453</v>
+        <v>23.30954551696777</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>18.2282289394109</v>
       </c>
       <c r="G19" t="n">
-        <v>215.7579040527344</v>
+        <v>183.2056579589844</v>
       </c>
       <c r="H19" t="n">
-        <v>21.28348731994629</v>
+        <v>25.16591835021973</v>
       </c>
       <c r="I19" t="n">
-        <v>534.6257934570312</v>
+        <v>497.243896484375</v>
       </c>
       <c r="J19" t="n">
-        <v>70.22463989257812</v>
+        <v>33.5947380065918</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>18.05168677518481</v>
       </c>
       <c r="G20" t="n">
-        <v>214.1537322998047</v>
+        <v>205.5201873779297</v>
       </c>
       <c r="H20" t="n">
-        <v>15.69515609741211</v>
+        <v>22.06772041320801</v>
       </c>
       <c r="I20" t="n">
-        <v>554.4180297851562</v>
+        <v>513.0673217773438</v>
       </c>
       <c r="J20" t="n">
-        <v>85.84867095947266</v>
+        <v>48.12950897216797</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>17.30316829702608</v>
       </c>
       <c r="G21" t="n">
-        <v>250.0890960693359</v>
+        <v>253.00732421875</v>
       </c>
       <c r="H21" t="n">
-        <v>31.32929420471191</v>
+        <v>24.20174217224121</v>
       </c>
       <c r="I21" t="n">
-        <v>572.8958129882812</v>
+        <v>529.0672607421875</v>
       </c>
       <c r="J21" t="n">
-        <v>99.47962951660156</v>
+        <v>71.746337890625</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>15.87142913305469</v>
       </c>
       <c r="G22" t="n">
-        <v>379.9989929199219</v>
+        <v>338.635986328125</v>
       </c>
       <c r="H22" t="n">
-        <v>70.82249450683594</v>
+        <v>29.79738998413086</v>
       </c>
       <c r="I22" t="n">
-        <v>583.2039794921875</v>
+        <v>542.64892578125</v>
       </c>
       <c r="J22" t="n">
-        <v>117.9869918823242</v>
+        <v>102.1363525390625</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>16.2842163689804</v>
       </c>
       <c r="G23" t="n">
-        <v>259.9108581542969</v>
+        <v>158.3580322265625</v>
       </c>
       <c r="H23" t="n">
-        <v>45.70861053466797</v>
+        <v>53.1440544128418</v>
       </c>
       <c r="I23" t="n">
-        <v>112.0926284790039</v>
+        <v>130.4209442138672</v>
       </c>
       <c r="J23" t="n">
-        <v>47.61515045166016</v>
+        <v>49.09952545166016</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>17.99859633271077</v>
       </c>
       <c r="G24" t="n">
-        <v>253.99951171875</v>
+        <v>156.2932891845703</v>
       </c>
       <c r="H24" t="n">
-        <v>42.24206161499023</v>
+        <v>49.38636016845703</v>
       </c>
       <c r="I24" t="n">
-        <v>172.9198455810547</v>
+        <v>190.4857788085938</v>
       </c>
       <c r="J24" t="n">
-        <v>51.61531448364258</v>
+        <v>46.6959342956543</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>19.53665474474453</v>
       </c>
       <c r="G25" t="n">
-        <v>244.6749267578125</v>
+        <v>154.9292602539062</v>
       </c>
       <c r="H25" t="n">
-        <v>38.29215621948242</v>
+        <v>45.00101089477539</v>
       </c>
       <c r="I25" t="n">
-        <v>220.589111328125</v>
+        <v>237.3115386962891</v>
       </c>
       <c r="J25" t="n">
-        <v>56.26722717285156</v>
+        <v>46.63278198242188</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>21.18080958029204</v>
       </c>
       <c r="G26" t="n">
-        <v>232.9239044189453</v>
+        <v>155.6131439208984</v>
       </c>
       <c r="H26" t="n">
-        <v>34.0322265625</v>
+        <v>39.59701156616211</v>
       </c>
       <c r="I26" t="n">
-        <v>276.5572814941406</v>
+        <v>290.2091979980469</v>
       </c>
       <c r="J26" t="n">
-        <v>61.18031692504883</v>
+        <v>46.30007171630859</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>22.36133238808863</v>
       </c>
       <c r="G27" t="n">
-        <v>219.0182342529297</v>
+        <v>160.5526580810547</v>
       </c>
       <c r="H27" t="n">
-        <v>29.18268203735352</v>
+        <v>32.86513519287109</v>
       </c>
       <c r="I27" t="n">
-        <v>346.5361022949219</v>
+        <v>351.3201293945312</v>
       </c>
       <c r="J27" t="n">
-        <v>67.47744750976562</v>
+        <v>46.46833419799805</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>22.25528267810615</v>
       </c>
       <c r="G28" t="n">
-        <v>206.8730773925781</v>
+        <v>169.1411285400391</v>
       </c>
       <c r="H28" t="n">
-        <v>24.25498199462891</v>
+        <v>27.12397956848145</v>
       </c>
       <c r="I28" t="n">
-        <v>398.5447692871094</v>
+        <v>395.0824890136719</v>
       </c>
       <c r="J28" t="n">
-        <v>76.47003936767578</v>
+        <v>53.30783462524414</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>22.11853696692908</v>
       </c>
       <c r="G29" t="n">
-        <v>203.5745391845703</v>
+        <v>192.8898162841797</v>
       </c>
       <c r="H29" t="n">
-        <v>19.18217468261719</v>
+        <v>22.39694976806641</v>
       </c>
       <c r="I29" t="n">
-        <v>447.0577697753906</v>
+        <v>436.1593627929688</v>
       </c>
       <c r="J29" t="n">
-        <v>89.38614654541016</v>
+        <v>72.86570739746094</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>21.13587239531939</v>
       </c>
       <c r="G30" t="n">
-        <v>259.4023132324219</v>
+        <v>249.5253601074219</v>
       </c>
       <c r="H30" t="n">
-        <v>37.90061569213867</v>
+        <v>24.20760917663574</v>
       </c>
       <c r="I30" t="n">
-        <v>515.8193969726562</v>
+        <v>488.7449035644531</v>
       </c>
       <c r="J30" t="n">
-        <v>102.5765838623047</v>
+        <v>95.42200469970703</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>19.80061812897557</v>
       </c>
       <c r="G31" t="n">
-        <v>389.8883972167969</v>
+        <v>335.1827697753906</v>
       </c>
       <c r="H31" t="n">
-        <v>68.79100799560547</v>
+        <v>32.34092330932617</v>
       </c>
       <c r="I31" t="n">
-        <v>520.8513793945312</v>
+        <v>501.5503234863281</v>
       </c>
       <c r="J31" t="n">
-        <v>147.6054382324219</v>
+        <v>133.5425262451172</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>20.55168297688286</v>
       </c>
       <c r="G32" t="n">
-        <v>260.1285400390625</v>
+        <v>164.4620666503906</v>
       </c>
       <c r="H32" t="n">
-        <v>44.51234817504883</v>
+        <v>52.82892608642578</v>
       </c>
       <c r="I32" t="n">
-        <v>13.95191287994385</v>
+        <v>39.71992111206055</v>
       </c>
       <c r="J32" t="n">
-        <v>55.29983520507812</v>
+        <v>66.01054382324219</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>22.96934284445093</v>
       </c>
       <c r="G33" t="n">
-        <v>252.4043426513672</v>
+        <v>161.7828521728516</v>
       </c>
       <c r="H33" t="n">
-        <v>40.40817642211914</v>
+        <v>48.68298721313477</v>
       </c>
       <c r="I33" t="n">
-        <v>49.12671279907227</v>
+        <v>84.38912963867188</v>
       </c>
       <c r="J33" t="n">
-        <v>62.38875961303711</v>
+        <v>69.91249084472656</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>24.40915250803127</v>
       </c>
       <c r="G34" t="n">
-        <v>243.6445617675781</v>
+        <v>159.3628845214844</v>
       </c>
       <c r="H34" t="n">
-        <v>37.00658416748047</v>
+        <v>44.95780563354492</v>
       </c>
       <c r="I34" t="n">
-        <v>86.56159973144531</v>
+        <v>127.1793365478516</v>
       </c>
       <c r="J34" t="n">
-        <v>67.00747680664062</v>
+        <v>71.95925903320312</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>26.0811880993595</v>
       </c>
       <c r="G35" t="n">
-        <v>231.7902679443359</v>
+        <v>158.2648773193359</v>
       </c>
       <c r="H35" t="n">
-        <v>32.93337249755859</v>
+        <v>40.01526260375977</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3033905029297</v>
+        <v>175.0029907226562</v>
       </c>
       <c r="J35" t="n">
-        <v>72.25740051269531</v>
+        <v>74.76204681396484</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>26.87614780904968</v>
       </c>
       <c r="G36" t="n">
-        <v>217.6371002197266</v>
+        <v>158.8215484619141</v>
       </c>
       <c r="H36" t="n">
-        <v>29.05846405029297</v>
+        <v>34.45157623291016</v>
       </c>
       <c r="I36" t="n">
-        <v>195.9397583007812</v>
+        <v>237.1104736328125</v>
       </c>
       <c r="J36" t="n">
-        <v>77.55723571777344</v>
+        <v>76.49707794189453</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>27.16629873490772</v>
       </c>
       <c r="G37" t="n">
-        <v>201.4084320068359</v>
+        <v>163.5196533203125</v>
       </c>
       <c r="H37" t="n">
-        <v>24.43473434448242</v>
+        <v>28.49149703979492</v>
       </c>
       <c r="I37" t="n">
-        <v>241.8029937744141</v>
+        <v>281.3624572753906</v>
       </c>
       <c r="J37" t="n">
-        <v>88.84862518310547</v>
+        <v>88.64347839355469</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>27.25598473560972</v>
       </c>
       <c r="G38" t="n">
-        <v>198.2019195556641</v>
+        <v>186.5726165771484</v>
       </c>
       <c r="H38" t="n">
-        <v>20.1608715057373</v>
+        <v>22.87131881713867</v>
       </c>
       <c r="I38" t="n">
-        <v>335.7782592773438</v>
+        <v>357.9401550292969</v>
       </c>
       <c r="J38" t="n">
-        <v>103.3718795776367</v>
+        <v>100.2641830444336</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>26.04628332899345</v>
       </c>
       <c r="G39" t="n">
-        <v>254.5662689208984</v>
+        <v>238.4364318847656</v>
       </c>
       <c r="H39" t="n">
-        <v>42.16006851196289</v>
+        <v>25.82297325134277</v>
       </c>
       <c r="I39" t="n">
-        <v>411.2047424316406</v>
+        <v>418.0305786132812</v>
       </c>
       <c r="J39" t="n">
-        <v>136.0291137695312</v>
+        <v>130.7870483398438</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>23.96978635149335</v>
       </c>
       <c r="G40" t="n">
-        <v>396.1929626464844</v>
+        <v>333.4393005371094</v>
       </c>
       <c r="H40" t="n">
-        <v>65.43785858154297</v>
+        <v>35.51179122924805</v>
       </c>
       <c r="I40" t="n">
-        <v>488.1702575683594</v>
+        <v>478.1557312011719</v>
       </c>
       <c r="J40" t="n">
-        <v>174.1027069091797</v>
+        <v>152.1785888671875</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>25.6116837653232</v>
       </c>
       <c r="G41" t="n">
-        <v>260.0681762695312</v>
+        <v>171.2502288818359</v>
       </c>
       <c r="H41" t="n">
-        <v>42.21622467041016</v>
+        <v>51.173095703125</v>
       </c>
       <c r="I41" t="n">
-        <v>-68.138427734375</v>
+        <v>-39.45584487915039</v>
       </c>
       <c r="J41" t="n">
-        <v>63.2062873840332</v>
+        <v>81.39377593994141</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>28.41067839248494</v>
       </c>
       <c r="G42" t="n">
-        <v>253.05126953125</v>
+        <v>169.6292877197266</v>
       </c>
       <c r="H42" t="n">
-        <v>38.25497817993164</v>
+        <v>47.16989517211914</v>
       </c>
       <c r="I42" t="n">
-        <v>-55.71867752075195</v>
+        <v>-10.05640602111816</v>
       </c>
       <c r="J42" t="n">
-        <v>72.13018798828125</v>
+        <v>88.54999542236328</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>30.68040031937237</v>
       </c>
       <c r="G43" t="n">
-        <v>244.0641632080078</v>
+        <v>167.6140441894531</v>
       </c>
       <c r="H43" t="n">
-        <v>34.6878662109375</v>
+        <v>43.35918426513672</v>
       </c>
       <c r="I43" t="n">
-        <v>-39.28212356567383</v>
+        <v>21.56244277954102</v>
       </c>
       <c r="J43" t="n">
-        <v>79.43419647216797</v>
+        <v>95.10405731201172</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>32.34762367758118</v>
       </c>
       <c r="G44" t="n">
-        <v>232.7353973388672</v>
+        <v>165.7731475830078</v>
       </c>
       <c r="H44" t="n">
-        <v>30.97964668273926</v>
+        <v>38.85861968994141</v>
       </c>
       <c r="I44" t="n">
-        <v>-3.43245530128479</v>
+        <v>69.54108428955078</v>
       </c>
       <c r="J44" t="n">
-        <v>85.09500885009766</v>
+        <v>99.51205444335938</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>33.26712421235609</v>
       </c>
       <c r="G45" t="n">
-        <v>218.0453338623047</v>
+        <v>164.3755493164062</v>
       </c>
       <c r="H45" t="n">
-        <v>27.26950263977051</v>
+        <v>33.94300079345703</v>
       </c>
       <c r="I45" t="n">
-        <v>38.83512878417969</v>
+        <v>118.8915252685547</v>
       </c>
       <c r="J45" t="n">
-        <v>90.76276397705078</v>
+        <v>106.6174926757812</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>33.39925272231932</v>
       </c>
       <c r="G46" t="n">
-        <v>201.6861114501953</v>
+        <v>167.4355163574219</v>
       </c>
       <c r="H46" t="n">
-        <v>23.37472915649414</v>
+        <v>28.17555809020996</v>
       </c>
       <c r="I46" t="n">
-        <v>119.8485641479492</v>
+        <v>195.7824249267578</v>
       </c>
       <c r="J46" t="n">
-        <v>101.9031372070312</v>
+        <v>115.3943939208984</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>32.83385481517335</v>
       </c>
       <c r="G47" t="n">
-        <v>196.2887878417969</v>
+        <v>181.7370758056641</v>
       </c>
       <c r="H47" t="n">
-        <v>20.90340423583984</v>
+        <v>24.13088989257812</v>
       </c>
       <c r="I47" t="n">
-        <v>202.8520355224609</v>
+        <v>266.7563171386719</v>
       </c>
       <c r="J47" t="n">
-        <v>122.7122497558594</v>
+        <v>129.1654510498047</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>31.22587875804939</v>
       </c>
       <c r="G48" t="n">
-        <v>260.6231384277344</v>
+        <v>237.2800445556641</v>
       </c>
       <c r="H48" t="n">
-        <v>46.12076187133789</v>
+        <v>27.54129219055176</v>
       </c>
       <c r="I48" t="n">
-        <v>348.5480041503906</v>
+        <v>374.5636901855469</v>
       </c>
       <c r="J48" t="n">
-        <v>165.8821716308594</v>
+        <v>151.4840393066406</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>28.00050845971687</v>
       </c>
       <c r="G49" t="n">
-        <v>393.9154052734375</v>
+        <v>328.0287780761719</v>
       </c>
       <c r="H49" t="n">
-        <v>63.51089859008789</v>
+        <v>39.06486892700195</v>
       </c>
       <c r="I49" t="n">
-        <v>444.1375427246094</v>
+        <v>448.3633728027344</v>
       </c>
       <c r="J49" t="n">
-        <v>208.7758636474609</v>
+        <v>172.8314514160156</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>32.75859992753161</v>
       </c>
       <c r="G50" t="n">
-        <v>258.6046142578125</v>
+        <v>179.3073120117188</v>
       </c>
       <c r="H50" t="n">
-        <v>38.21400451660156</v>
+        <v>47.15061569213867</v>
       </c>
       <c r="I50" t="n">
-        <v>-145.5364074707031</v>
+        <v>-108.4115829467773</v>
       </c>
       <c r="J50" t="n">
-        <v>75.19657135009766</v>
+        <v>97.96058654785156</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>35.60454595063857</v>
       </c>
       <c r="G51" t="n">
-        <v>252.6301116943359</v>
+        <v>178.9670104980469</v>
       </c>
       <c r="H51" t="n">
-        <v>34.91671752929688</v>
+        <v>43.54241943359375</v>
       </c>
       <c r="I51" t="n">
-        <v>-145.4378662109375</v>
+        <v>-87.58307647705078</v>
       </c>
       <c r="J51" t="n">
-        <v>83.28882598876953</v>
+        <v>105.3299407958984</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>38.13811789539464</v>
       </c>
       <c r="G52" t="n">
-        <v>245.4799499511719</v>
+        <v>178.8105010986328</v>
       </c>
       <c r="H52" t="n">
-        <v>31.73569488525391</v>
+        <v>39.9862174987793</v>
       </c>
       <c r="I52" t="n">
-        <v>-147.1047058105469</v>
+        <v>-70.33880615234375</v>
       </c>
       <c r="J52" t="n">
-        <v>90.44749450683594</v>
+        <v>112.5864868164062</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>39.1380055059179</v>
       </c>
       <c r="G53" t="n">
-        <v>234.9820556640625</v>
+        <v>175.8967132568359</v>
       </c>
       <c r="H53" t="n">
-        <v>28.78517532348633</v>
+        <v>36.62131881713867</v>
       </c>
       <c r="I53" t="n">
-        <v>-123.4003753662109</v>
+        <v>-29.5229434967041</v>
       </c>
       <c r="J53" t="n">
-        <v>96.52914428710938</v>
+        <v>118.5520248413086</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>40.17007780104868</v>
       </c>
       <c r="G54" t="n">
-        <v>220.25927734375</v>
+        <v>173.6161651611328</v>
       </c>
       <c r="H54" t="n">
-        <v>25.27075386047363</v>
+        <v>32.07380676269531</v>
       </c>
       <c r="I54" t="n">
-        <v>-83.94267272949219</v>
+        <v>25.80020713806152</v>
       </c>
       <c r="J54" t="n">
-        <v>104.3157653808594</v>
+        <v>127.406005859375</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>40.31777520333784</v>
       </c>
       <c r="G55" t="n">
-        <v>205.6372222900391</v>
+        <v>174.2816619873047</v>
       </c>
       <c r="H55" t="n">
-        <v>22.1037712097168</v>
+        <v>27.6604061126709</v>
       </c>
       <c r="I55" t="n">
-        <v>-24.23897552490234</v>
+        <v>91.19012451171875</v>
       </c>
       <c r="J55" t="n">
-        <v>115.4094390869141</v>
+        <v>138.1891479492188</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>38.89328689858721</v>
       </c>
       <c r="G56" t="n">
-        <v>200.6892395019531</v>
+        <v>185.005859375</v>
       </c>
       <c r="H56" t="n">
-        <v>21.48049926757812</v>
+        <v>24.72018432617188</v>
       </c>
       <c r="I56" t="n">
-        <v>96.09226989746094</v>
+        <v>194.0654296875</v>
       </c>
       <c r="J56" t="n">
-        <v>140.8962554931641</v>
+        <v>149.9880523681641</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>36.03490394546852</v>
       </c>
       <c r="G57" t="n">
-        <v>252.0780181884766</v>
+        <v>228.4935150146484</v>
       </c>
       <c r="H57" t="n">
-        <v>43.59843826293945</v>
+        <v>27.78556251525879</v>
       </c>
       <c r="I57" t="n">
-        <v>274.16650390625</v>
+        <v>322.7808837890625</v>
       </c>
       <c r="J57" t="n">
-        <v>184.8529052734375</v>
+        <v>163.7731475830078</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>33.0417017672229</v>
       </c>
       <c r="G58" t="n">
-        <v>381.7582702636719</v>
+        <v>316.55419921875</v>
       </c>
       <c r="H58" t="n">
-        <v>62.77095031738281</v>
+        <v>39.95666122436523</v>
       </c>
       <c r="I58" t="n">
-        <v>397.2969055175781</v>
+        <v>413.4909362792969</v>
       </c>
       <c r="J58" t="n">
-        <v>242.2163391113281</v>
+        <v>188.7794952392578</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>43.98768298598323</v>
       </c>
       <c r="G59" t="n">
-        <v>252.9169769287109</v>
+        <v>190.6306762695312</v>
       </c>
       <c r="H59" t="n">
-        <v>31.59687042236328</v>
+        <v>38.739501953125</v>
       </c>
       <c r="I59" t="n">
-        <v>-233.7479400634766</v>
+        <v>-166.0569915771484</v>
       </c>
       <c r="J59" t="n">
-        <v>92.02650451660156</v>
+        <v>119.2702865600586</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>45.7006317110727</v>
       </c>
       <c r="G60" t="n">
-        <v>246.1419830322266</v>
+        <v>189.5677642822266</v>
       </c>
       <c r="H60" t="n">
-        <v>29.08481979370117</v>
+        <v>36.02424621582031</v>
       </c>
       <c r="I60" t="n">
-        <v>-232.4366912841797</v>
+        <v>-145.0120849609375</v>
       </c>
       <c r="J60" t="n">
-        <v>97.3748779296875</v>
+        <v>125.802604675293</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>46.67965674781412</v>
       </c>
       <c r="G61" t="n">
-        <v>236.8016357421875</v>
+        <v>187.1262664794922</v>
       </c>
       <c r="H61" t="n">
-        <v>26.3701114654541</v>
+        <v>33.04098510742188</v>
       </c>
       <c r="I61" t="n">
-        <v>-211.8093414306641</v>
+        <v>-101.6595077514648</v>
       </c>
       <c r="J61" t="n">
-        <v>104.8901290893555</v>
+        <v>131.9097137451172</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>47.53914448671719</v>
       </c>
       <c r="G62" t="n">
-        <v>226.8602142333984</v>
+        <v>185.7787017822266</v>
       </c>
       <c r="H62" t="n">
-        <v>23.76239776611328</v>
+        <v>29.90266227722168</v>
       </c>
       <c r="I62" t="n">
-        <v>-185.6758728027344</v>
+        <v>-57.58355331420898</v>
       </c>
       <c r="J62" t="n">
-        <v>112.9120330810547</v>
+        <v>138.4692077636719</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>47.07121651777462</v>
       </c>
       <c r="G63" t="n">
-        <v>211.8907470703125</v>
+        <v>184.0646057128906</v>
       </c>
       <c r="H63" t="n">
-        <v>21.11215400695801</v>
+        <v>26.43744850158691</v>
       </c>
       <c r="I63" t="n">
-        <v>-127.3459777832031</v>
+        <v>14.09173202514648</v>
       </c>
       <c r="J63" t="n">
-        <v>128.0328826904297</v>
+        <v>151.7220916748047</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>45.67156598130153</v>
       </c>
       <c r="G64" t="n">
-        <v>208.3689422607422</v>
+        <v>192.201171875</v>
       </c>
       <c r="H64" t="n">
-        <v>21.52483367919922</v>
+        <v>24.37481498718262</v>
       </c>
       <c r="I64" t="n">
-        <v>-1.061022996902466</v>
+        <v>124.4555587768555</v>
       </c>
       <c r="J64" t="n">
-        <v>150.1715240478516</v>
+        <v>159.6849670410156</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>42.51104340916319</v>
       </c>
       <c r="G65" t="n">
-        <v>247.104248046875</v>
+        <v>222.977294921875</v>
       </c>
       <c r="H65" t="n">
-        <v>41.74952697753906</v>
+        <v>27.95048713684082</v>
       </c>
       <c r="I65" t="n">
-        <v>166.4579925537109</v>
+        <v>247.6589813232422</v>
       </c>
       <c r="J65" t="n">
-        <v>207.5529174804688</v>
+        <v>178.417236328125</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>54.37577254606605</v>
       </c>
       <c r="G66" t="n">
-        <v>250.2307739257812</v>
+        <v>203.36181640625</v>
       </c>
       <c r="H66" t="n">
-        <v>26.20998191833496</v>
+        <v>31.00605010986328</v>
       </c>
       <c r="I66" t="n">
-        <v>-302.9676513671875</v>
+        <v>-205.5222778320312</v>
       </c>
       <c r="J66" t="n">
-        <v>99.77738189697266</v>
+        <v>132.2602691650391</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>55.07062752917076</v>
       </c>
       <c r="G67" t="n">
-        <v>242.4892120361328</v>
+        <v>201.0985412597656</v>
       </c>
       <c r="H67" t="n">
-        <v>24.0280590057373</v>
+        <v>28.94737815856934</v>
       </c>
       <c r="I67" t="n">
-        <v>-288.6456909179688</v>
+        <v>-168.4868011474609</v>
       </c>
       <c r="J67" t="n">
-        <v>107.848274230957</v>
+        <v>138.7852020263672</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>54.82432856758766</v>
       </c>
       <c r="G68" t="n">
-        <v>232.6405181884766</v>
+        <v>197.9826354980469</v>
       </c>
       <c r="H68" t="n">
-        <v>22.06694030761719</v>
+        <v>26.97201538085938</v>
       </c>
       <c r="I68" t="n">
-        <v>-262.0947875976562</v>
+        <v>-121.6459121704102</v>
       </c>
       <c r="J68" t="n">
-        <v>118.8421936035156</v>
+        <v>146.7473602294922</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>54.18769809434324</v>
       </c>
       <c r="G69" t="n">
-        <v>222.5221405029297</v>
+        <v>196.4437561035156</v>
       </c>
       <c r="H69" t="n">
-        <v>20.71357917785645</v>
+        <v>24.9847412109375</v>
       </c>
       <c r="I69" t="n">
-        <v>-202.7008514404297</v>
+        <v>-46.80023956298828</v>
       </c>
       <c r="J69" t="n">
-        <v>135.8899383544922</v>
+        <v>155.7726745605469</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>51.347187815424</v>
       </c>
       <c r="G70" t="n">
-        <v>216.6976318359375</v>
+        <v>198.1419525146484</v>
       </c>
       <c r="H70" t="n">
-        <v>22.68488502502441</v>
+        <v>24.50798225402832</v>
       </c>
       <c r="I70" t="n">
-        <v>-90.78228759765625</v>
+        <v>57.59344482421875</v>
       </c>
       <c r="J70" t="n">
-        <v>160.2514343261719</v>
+        <v>167.3867797851562</v>
       </c>
     </row>
   </sheetData>
